--- a/Versão5/ARQU/Ontologia_ARQUI.xlsx
+++ b/Versão5/ARQU/Ontologia_ARQUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\ARQU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D797AD2B-809C-47FD-ACF6-E3205CCE7F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42246A64-8FCE-4BF3-BADF-204EE900DEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3613,7 +3613,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="738">
+  <dxfs count="373">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3676,3656 +3676,6 @@
         <strike val="0"/>
         <color rgb="FFFFFFFF"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -11577,7 +7927,7 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">NOW()</f>
-        <v>45925.581669212967</v>
+        <v>45925.591313541663</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -11630,9 +7980,9 @@
   <dimension ref="A1:Y191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -25871,7 +22221,7 @@
         <v>Porta</v>
       </c>
       <c r="O168" s="21" t="str">
-        <f t="shared" ref="O168:P176" si="177">F168</f>
+        <f t="shared" ref="O168:O176" si="177">F168</f>
         <v>Porta.Simples</v>
       </c>
       <c r="P168" s="21" t="s">
@@ -26041,7 +22391,7 @@
         <v>Porta</v>
       </c>
       <c r="O170" s="21" t="str">
-        <f t="shared" ref="O170:P172" si="184">F170</f>
+        <f t="shared" ref="O170:O172" si="184">F170</f>
         <v>Porta.Assimétrica</v>
       </c>
       <c r="P170" s="21" t="s">
@@ -26296,7 +22646,7 @@
         <v>Porta</v>
       </c>
       <c r="O173" s="21" t="str">
-        <f t="shared" ref="O173:P173" si="191">F173</f>
+        <f t="shared" ref="O173" si="191">F173</f>
         <v>Porta.Sanfonada</v>
       </c>
       <c r="P173" s="21" t="s">
@@ -27853,68 +24203,68 @@
   <conditionalFormatting sqref="F1">
     <cfRule type="duplicateValues" dxfId="372" priority="1860"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F192:F1048576 F1:F150">
-    <cfRule type="duplicateValues" dxfId="371" priority="358"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="371" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="370" priority="1820"/>
-    <cfRule type="duplicateValues" dxfId="369" priority="1821"/>
-    <cfRule type="duplicateValues" dxfId="368" priority="1822"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="1821"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="1825"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="1824"/>
     <cfRule type="duplicateValues" dxfId="367" priority="1823"/>
-    <cfRule type="duplicateValues" dxfId="366" priority="1824"/>
-    <cfRule type="duplicateValues" dxfId="365" priority="1825"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="1822"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="1820"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F14">
-    <cfRule type="duplicateValues" dxfId="364" priority="3668"/>
-    <cfRule type="duplicateValues" dxfId="363" priority="3669"/>
-    <cfRule type="duplicateValues" dxfId="362" priority="3670"/>
-    <cfRule type="duplicateValues" dxfId="361" priority="3671"/>
-    <cfRule type="duplicateValues" dxfId="360" priority="3672"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="3678"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="3676"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="3675"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="3674"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="3671"/>
     <cfRule type="duplicateValues" dxfId="359" priority="3673"/>
-    <cfRule type="duplicateValues" dxfId="358" priority="3674"/>
-    <cfRule type="duplicateValues" dxfId="357" priority="3675"/>
-    <cfRule type="duplicateValues" dxfId="356" priority="3676"/>
-    <cfRule type="duplicateValues" dxfId="355" priority="3677"/>
-    <cfRule type="duplicateValues" dxfId="354" priority="3678"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="3672"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="3669"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="3677"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="3668"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="3670"/>
     <cfRule type="duplicateValues" dxfId="353" priority="3679"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F31">
     <cfRule type="duplicateValues" dxfId="352" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31 F18:F22">
-    <cfRule type="duplicateValues" dxfId="351" priority="221"/>
-    <cfRule type="duplicateValues" dxfId="350" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="349" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="348" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="347" priority="225"/>
-    <cfRule type="duplicateValues" dxfId="346" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="345" priority="227"/>
-    <cfRule type="duplicateValues" dxfId="344" priority="228"/>
-    <cfRule type="duplicateValues" dxfId="343" priority="229"/>
-    <cfRule type="duplicateValues" dxfId="342" priority="230"/>
-    <cfRule type="duplicateValues" dxfId="341" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
     <cfRule type="duplicateValues" dxfId="340" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="339" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="338" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="337" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="336" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="335" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="334" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="333" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="332" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="331" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="330" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F35">
-    <cfRule type="duplicateValues" dxfId="329" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="328" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="327" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="36"/>
     <cfRule type="duplicateValues" dxfId="326" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="325" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="324" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="323" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F38">
     <cfRule type="duplicateValues" dxfId="322" priority="14"/>
@@ -27926,375 +24276,375 @@
     <cfRule type="duplicateValues" dxfId="316" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F42 F32 F36">
-    <cfRule type="duplicateValues" dxfId="315" priority="3625"/>
-    <cfRule type="duplicateValues" dxfId="314" priority="3626"/>
-    <cfRule type="duplicateValues" dxfId="313" priority="3627"/>
-    <cfRule type="duplicateValues" dxfId="312" priority="3628"/>
-    <cfRule type="duplicateValues" dxfId="311" priority="3629"/>
-    <cfRule type="duplicateValues" dxfId="310" priority="3630"/>
-    <cfRule type="duplicateValues" dxfId="309" priority="3631"/>
-    <cfRule type="duplicateValues" dxfId="308" priority="3632"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="3629"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="3628"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="3626"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="3625"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="3627"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="3632"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="3635"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="3634"/>
     <cfRule type="duplicateValues" dxfId="307" priority="3633"/>
-    <cfRule type="duplicateValues" dxfId="306" priority="3634"/>
-    <cfRule type="duplicateValues" dxfId="305" priority="3635"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="3631"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="3630"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="duplicateValues" dxfId="304" priority="3658"/>
-    <cfRule type="duplicateValues" dxfId="303" priority="3659"/>
-    <cfRule type="duplicateValues" dxfId="302" priority="3660"/>
-    <cfRule type="duplicateValues" dxfId="301" priority="3661"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="3661"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="3658"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="3659"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="3660"/>
     <cfRule type="duplicateValues" dxfId="300" priority="3662"/>
     <cfRule type="duplicateValues" dxfId="299" priority="3663"/>
     <cfRule type="duplicateValues" dxfId="298" priority="3664"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F48">
-    <cfRule type="duplicateValues" dxfId="297" priority="256"/>
-    <cfRule type="duplicateValues" dxfId="296" priority="257"/>
-    <cfRule type="duplicateValues" dxfId="295" priority="258"/>
-    <cfRule type="duplicateValues" dxfId="294" priority="259"/>
-    <cfRule type="duplicateValues" dxfId="293" priority="260"/>
-    <cfRule type="duplicateValues" dxfId="292" priority="261"/>
-    <cfRule type="duplicateValues" dxfId="291" priority="262"/>
-    <cfRule type="duplicateValues" dxfId="290" priority="263"/>
-    <cfRule type="duplicateValues" dxfId="289" priority="264"/>
-    <cfRule type="duplicateValues" dxfId="288" priority="265"/>
-    <cfRule type="duplicateValues" dxfId="287" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F53">
-    <cfRule type="duplicateValues" dxfId="286" priority="3329"/>
-    <cfRule type="duplicateValues" dxfId="285" priority="3330"/>
-    <cfRule type="duplicateValues" dxfId="284" priority="3331"/>
-    <cfRule type="duplicateValues" dxfId="283" priority="3332"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="3338"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="3339"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="3337"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="3334"/>
     <cfRule type="duplicateValues" dxfId="282" priority="3333"/>
-    <cfRule type="duplicateValues" dxfId="281" priority="3334"/>
-    <cfRule type="duplicateValues" dxfId="280" priority="3335"/>
-    <cfRule type="duplicateValues" dxfId="279" priority="3336"/>
-    <cfRule type="duplicateValues" dxfId="278" priority="3337"/>
-    <cfRule type="duplicateValues" dxfId="277" priority="3338"/>
-    <cfRule type="duplicateValues" dxfId="276" priority="3339"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="3332"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="3331"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="3330"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="3329"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="3335"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="3336"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="duplicateValues" dxfId="275" priority="3407"/>
-    <cfRule type="duplicateValues" dxfId="274" priority="3408"/>
-    <cfRule type="duplicateValues" dxfId="273" priority="3409"/>
-    <cfRule type="duplicateValues" dxfId="272" priority="3410"/>
-    <cfRule type="duplicateValues" dxfId="271" priority="3411"/>
-    <cfRule type="duplicateValues" dxfId="270" priority="3412"/>
-    <cfRule type="duplicateValues" dxfId="269" priority="3413"/>
-    <cfRule type="duplicateValues" dxfId="268" priority="3414"/>
-    <cfRule type="duplicateValues" dxfId="267" priority="3415"/>
-    <cfRule type="duplicateValues" dxfId="266" priority="3416"/>
-    <cfRule type="duplicateValues" dxfId="265" priority="3417"/>
-    <cfRule type="duplicateValues" dxfId="264" priority="3418"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="3418"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="3417"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="3415"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="3411"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="3407"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="3409"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="3408"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="3416"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="3414"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="3410"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="3413"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="3412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
     <cfRule type="duplicateValues" dxfId="263" priority="72"/>
     <cfRule type="duplicateValues" dxfId="262" priority="73"/>
     <cfRule type="duplicateValues" dxfId="261" priority="74"/>
     <cfRule type="duplicateValues" dxfId="260" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="259" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="258" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="257" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="256" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="255" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="254" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="253" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="252" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="duplicateValues" dxfId="251" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="250" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="249" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="248" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="247" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="246" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="245" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="244" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="243" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="242" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="241" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="240" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80 F76:F78">
-    <cfRule type="duplicateValues" dxfId="239" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="238" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="237" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="236" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="235" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="234" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="233" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="232" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="231" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="230" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="228" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:F83">
-    <cfRule type="duplicateValues" dxfId="227" priority="3284"/>
-    <cfRule type="duplicateValues" dxfId="226" priority="3285"/>
-    <cfRule type="duplicateValues" dxfId="225" priority="3286"/>
-    <cfRule type="duplicateValues" dxfId="224" priority="3287"/>
-    <cfRule type="duplicateValues" dxfId="223" priority="3288"/>
-    <cfRule type="duplicateValues" dxfId="222" priority="3289"/>
-    <cfRule type="duplicateValues" dxfId="221" priority="3290"/>
-    <cfRule type="duplicateValues" dxfId="220" priority="3291"/>
-    <cfRule type="duplicateValues" dxfId="219" priority="3292"/>
-    <cfRule type="duplicateValues" dxfId="218" priority="3293"/>
-    <cfRule type="duplicateValues" dxfId="217" priority="3294"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="3289"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="3290"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="3292"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="3293"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="3294"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="3291"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="3284"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="3285"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="3286"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="3287"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="3288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:F88">
-    <cfRule type="duplicateValues" dxfId="216" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="215" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="214" priority="189"/>
-    <cfRule type="duplicateValues" dxfId="213" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="191"/>
-    <cfRule type="duplicateValues" dxfId="211" priority="192"/>
-    <cfRule type="duplicateValues" dxfId="210" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="195"/>
     <cfRule type="duplicateValues" dxfId="209" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="208" priority="195"/>
-    <cfRule type="duplicateValues" dxfId="207" priority="196"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="205" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89:F100">
     <cfRule type="duplicateValues" dxfId="204" priority="491"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="536"/>
-    <cfRule type="duplicateValues" dxfId="202" priority="537"/>
-    <cfRule type="duplicateValues" dxfId="201" priority="538"/>
-    <cfRule type="duplicateValues" dxfId="200" priority="539"/>
-    <cfRule type="duplicateValues" dxfId="199" priority="540"/>
-    <cfRule type="duplicateValues" dxfId="198" priority="541"/>
-    <cfRule type="duplicateValues" dxfId="197" priority="542"/>
-    <cfRule type="duplicateValues" dxfId="196" priority="543"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="544"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="540"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="544"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="543"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="542"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="541"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="539"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="538"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="537"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="536"/>
     <cfRule type="duplicateValues" dxfId="194" priority="545"/>
     <cfRule type="duplicateValues" dxfId="193" priority="546"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F101:F150">
+    <cfRule type="duplicateValues" dxfId="192" priority="3771"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="3777"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="3778"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="3769"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="3779"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="3780"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="3774"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="3773"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="3772"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="3770"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="3775"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="3776"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F192:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="192" priority="2747"/>
-    <cfRule type="duplicateValues" dxfId="191" priority="2748"/>
-    <cfRule type="duplicateValues" dxfId="190" priority="2749"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="2750"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="2751"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="2748"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="2749"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="2750"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="2751"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="2747"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F1048576 F1:F2 F81:F83 F32:F73">
-    <cfRule type="duplicateValues" dxfId="187" priority="570"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="570"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F192:F1048576 F1:F150">
+    <cfRule type="duplicateValues" dxfId="174" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F1048576">
-    <cfRule type="duplicateValues" dxfId="186" priority="2762"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="2763"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="2762"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="2763"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P74">
-    <cfRule type="duplicateValues" dxfId="184" priority="3419"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="3420"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="3421"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="3422"/>
-    <cfRule type="duplicateValues" dxfId="180" priority="3423"/>
-    <cfRule type="duplicateValues" dxfId="179" priority="3424"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="3425"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="3426"/>
-    <cfRule type="duplicateValues" dxfId="176" priority="3427"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="3428"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="3429"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="3424"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="3423"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="3422"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="3419"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="3420"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="3421"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="3429"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="3428"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="3427"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="3426"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="3425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P75">
-    <cfRule type="duplicateValues" dxfId="173" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="171" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P80 P76:P78">
-    <cfRule type="duplicateValues" dxfId="162" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="160" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="159" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="153" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P84:P88">
-    <cfRule type="duplicateValues" dxfId="151" priority="199"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="201"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="202"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P89:P90">
-    <cfRule type="duplicateValues" dxfId="140" priority="514"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="515"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="516"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="517"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="518"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="519"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="520"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="521"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="522"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="523"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="524"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="516"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="518"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="523"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="522"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="524"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="521"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="514"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="515"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="520"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P91:P92">
-    <cfRule type="duplicateValues" dxfId="129" priority="492"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="493"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="494"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="495"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="496"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="497"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="498"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="499"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="500"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="501"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="502"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="496"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="494"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="493"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="492"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="498"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="502"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="499"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="501"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="497"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="495"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P93:P95">
-    <cfRule type="duplicateValues" dxfId="118" priority="503"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="504"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="505"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="506"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="507"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="508"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="509"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="510"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="511"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="512"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="513"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="506"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="505"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="504"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="509"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="508"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="507"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="513"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="512"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="511"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="510"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="503"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P96">
-    <cfRule type="duplicateValues" dxfId="107" priority="480"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="481"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="482"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="483"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="484"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="485"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="486"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="487"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="488"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="489"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="486"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="485"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="484"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="483"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="480"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="482"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="487"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="489"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="488"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P97:P100">
-    <cfRule type="duplicateValues" dxfId="96" priority="525"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="526"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="527"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="528"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="529"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="530"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="531"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="532"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="533"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="534"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="535"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="526"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="531"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="529"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="533"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="534"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="535"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="530"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="527"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="532"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P101:P104">
-    <cfRule type="duplicateValues" dxfId="85" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P105:Q108 Q101:Q104">
-    <cfRule type="duplicateValues" dxfId="74" priority="3200"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="3201"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="3202"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="3203"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="3204"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="3205"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="3206"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="3207"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="3208"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="3209"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="3210"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="3203"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="3202"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="3201"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="3200"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="3204"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="3210"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="3205"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="3206"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="3207"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="3208"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="3209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q14">
-    <cfRule type="duplicateValues" dxfId="63" priority="3755"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="3756"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="3757"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="3758"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="3759"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="3760"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="3761"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="3762"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="3763"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="3764"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="3765"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="3762"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="3761"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="3765"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3760"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="3756"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="3759"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="3758"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3757"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="3755"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3764"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="3763"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q42">
-    <cfRule type="duplicateValues" dxfId="52" priority="571"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="572"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="573"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="574"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="575"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="576"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="577"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="578"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="579"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="580"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="581"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="575"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="573"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="572"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="571"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="574"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="579"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="581"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="580"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="578"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="577"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="576"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44:Q48">
-    <cfRule type="duplicateValues" dxfId="41" priority="267"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="268"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="269"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="270"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="271"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="272"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="273"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="274"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="275"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="276"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q80">
-    <cfRule type="duplicateValues" dxfId="30" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F101:F150">
-    <cfRule type="duplicateValues" dxfId="19" priority="3769"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="3770"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="3771"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="3772"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="3773"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="3774"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="3775"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="3776"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="3777"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="3778"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="3779"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3780"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="107"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/ARQU/Ontologia_ARQUI.xlsx
+++ b/Versão5/ARQU/Ontologia_ARQUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\ARQU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1C49D0-604E-44F9-8275-AFD9B05979E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4177457A-F5DD-415E-A904-ECAA8172B8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8080" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8080" uniqueCount="1011">
   <si>
     <t>EquivalentTo: 
 Raiz
@@ -3100,6 +3100,12 @@
   </si>
   <si>
     <t>Acessória</t>
+  </si>
+  <si>
+    <t>é.componente.de some Abertura</t>
+  </si>
+  <si>
+    <t>é.componente.de some Divisória</t>
   </si>
 </sst>
 </file>
@@ -3434,7 +3440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3666,11 +3672,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="385">
+  <dxfs count="403">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8104,7 +8281,7 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">NOW()</f>
-        <v>45925.768552662033</v>
+        <v>45925.781497337965</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -8156,10 +8333,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96052D63-9637-42D9-866B-0BB924A50D8C}">
   <dimension ref="A1:Y195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="8.4" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8168,9 +8345,11 @@
     <col min="2" max="2" width="4.84375" customWidth="1"/>
     <col min="3" max="3" width="6.69140625" customWidth="1"/>
     <col min="4" max="4" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.4609375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.4609375" customWidth="1"/>
-    <col min="7" max="11" width="6.23046875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.23046875" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.765625" style="28" customWidth="1"/>
+    <col min="10" max="11" width="13.4609375" style="28" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.23046875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.53515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.84375" bestFit="1" customWidth="1"/>
@@ -16711,8 +16890,8 @@
       <c r="J101" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K101" s="29" t="s">
-        <v>9</v>
+      <c r="K101" s="79" t="s">
+        <v>1010</v>
       </c>
       <c r="L101" s="26" t="str">
         <f t="shared" si="24"/>
@@ -16796,8 +16975,8 @@
       <c r="J102" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K102" s="29" t="s">
-        <v>9</v>
+      <c r="K102" s="79" t="s">
+        <v>1010</v>
       </c>
       <c r="L102" s="26" t="str">
         <f t="shared" si="24"/>
@@ -16881,8 +17060,8 @@
       <c r="J103" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K103" s="29" t="s">
-        <v>9</v>
+      <c r="K103" s="79" t="s">
+        <v>1010</v>
       </c>
       <c r="L103" s="26" t="str">
         <f t="shared" si="24"/>
@@ -16966,8 +17145,8 @@
       <c r="J104" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K104" s="29" t="s">
-        <v>9</v>
+      <c r="K104" s="79" t="s">
+        <v>1010</v>
       </c>
       <c r="L104" s="26" t="str">
         <f t="shared" si="24"/>
@@ -17051,8 +17230,8 @@
       <c r="J105" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K105" s="29" t="s">
-        <v>9</v>
+      <c r="K105" s="79" t="s">
+        <v>1010</v>
       </c>
       <c r="L105" s="26" t="str">
         <f t="shared" si="24"/>
@@ -17136,8 +17315,8 @@
       <c r="J106" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K106" s="29" t="s">
-        <v>9</v>
+      <c r="K106" s="79" t="s">
+        <v>1010</v>
       </c>
       <c r="L106" s="26" t="str">
         <f t="shared" ref="L106:L140" si="32">CONCATENATE("", C106)</f>
@@ -17221,8 +17400,8 @@
       <c r="J107" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K107" s="29" t="s">
-        <v>9</v>
+      <c r="K107" s="79" t="s">
+        <v>1010</v>
       </c>
       <c r="L107" s="26" t="str">
         <f t="shared" si="32"/>
@@ -17303,11 +17482,11 @@
       <c r="I108" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J108" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K108" s="29" t="s">
-        <v>9</v>
+      <c r="J108" s="79" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K108" s="79" t="s">
+        <v>1010</v>
       </c>
       <c r="L108" s="26" t="str">
         <f t="shared" si="32"/>
@@ -17391,8 +17570,8 @@
       <c r="J109" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K109" s="29" t="s">
-        <v>9</v>
+      <c r="K109" s="79" t="s">
+        <v>1010</v>
       </c>
       <c r="L109" s="26" t="str">
         <f t="shared" si="32"/>
@@ -17476,8 +17655,8 @@
       <c r="J110" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K110" s="29" t="s">
-        <v>9</v>
+      <c r="K110" s="79" t="s">
+        <v>1010</v>
       </c>
       <c r="L110" s="26" t="str">
         <f t="shared" si="32"/>
@@ -17561,8 +17740,8 @@
       <c r="J111" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K111" s="29" t="s">
-        <v>9</v>
+      <c r="K111" s="79" t="s">
+        <v>1010</v>
       </c>
       <c r="L111" s="26" t="str">
         <f t="shared" si="32"/>
@@ -17646,8 +17825,8 @@
       <c r="J112" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K112" s="29" t="s">
-        <v>9</v>
+      <c r="K112" s="79" t="s">
+        <v>1010</v>
       </c>
       <c r="L112" s="26" t="str">
         <f t="shared" si="32"/>
@@ -17731,8 +17910,8 @@
       <c r="J113" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K113" s="29" t="s">
-        <v>9</v>
+      <c r="K113" s="79" t="s">
+        <v>1010</v>
       </c>
       <c r="L113" s="26" t="str">
         <f t="shared" si="32"/>
@@ -17816,8 +17995,8 @@
       <c r="J114" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K114" s="29" t="s">
-        <v>9</v>
+      <c r="K114" s="79" t="s">
+        <v>1010</v>
       </c>
       <c r="L114" s="26" t="str">
         <f t="shared" si="32"/>
@@ -17901,8 +18080,8 @@
       <c r="J115" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K115" s="29" t="s">
-        <v>9</v>
+      <c r="K115" s="79" t="s">
+        <v>1010</v>
       </c>
       <c r="L115" s="26" t="str">
         <f t="shared" si="32"/>
@@ -17986,8 +18165,8 @@
       <c r="J116" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K116" s="29" t="s">
-        <v>9</v>
+      <c r="K116" s="79" t="s">
+        <v>1010</v>
       </c>
       <c r="L116" s="26" t="str">
         <f t="shared" si="32"/>
@@ -24721,464 +24900,474 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="384" priority="1894"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="1912"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="383" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="382" priority="1854"/>
-    <cfRule type="duplicateValues" dxfId="381" priority="1855"/>
-    <cfRule type="duplicateValues" dxfId="380" priority="1856"/>
-    <cfRule type="duplicateValues" dxfId="379" priority="1857"/>
-    <cfRule type="duplicateValues" dxfId="378" priority="1858"/>
-    <cfRule type="duplicateValues" dxfId="377" priority="1859"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="1872"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="1873"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="1874"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="1875"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="1876"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="1877"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F14">
-    <cfRule type="duplicateValues" dxfId="376" priority="3702"/>
-    <cfRule type="duplicateValues" dxfId="375" priority="3703"/>
-    <cfRule type="duplicateValues" dxfId="374" priority="3704"/>
-    <cfRule type="duplicateValues" dxfId="373" priority="3705"/>
-    <cfRule type="duplicateValues" dxfId="372" priority="3706"/>
-    <cfRule type="duplicateValues" dxfId="371" priority="3707"/>
-    <cfRule type="duplicateValues" dxfId="370" priority="3708"/>
-    <cfRule type="duplicateValues" dxfId="369" priority="3709"/>
-    <cfRule type="duplicateValues" dxfId="368" priority="3710"/>
-    <cfRule type="duplicateValues" dxfId="367" priority="3711"/>
-    <cfRule type="duplicateValues" dxfId="366" priority="3712"/>
-    <cfRule type="duplicateValues" dxfId="365" priority="3713"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="3720"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="3721"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="3722"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="3723"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="3724"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="3725"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="3726"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="3727"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="3728"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="3729"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="3730"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="3731"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F31">
-    <cfRule type="duplicateValues" dxfId="364" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="284"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31 F18:F22">
-    <cfRule type="duplicateValues" dxfId="363" priority="255"/>
-    <cfRule type="duplicateValues" dxfId="362" priority="256"/>
-    <cfRule type="duplicateValues" dxfId="361" priority="257"/>
-    <cfRule type="duplicateValues" dxfId="360" priority="258"/>
-    <cfRule type="duplicateValues" dxfId="359" priority="259"/>
-    <cfRule type="duplicateValues" dxfId="358" priority="260"/>
-    <cfRule type="duplicateValues" dxfId="357" priority="261"/>
-    <cfRule type="duplicateValues" dxfId="356" priority="262"/>
-    <cfRule type="duplicateValues" dxfId="355" priority="263"/>
-    <cfRule type="duplicateValues" dxfId="354" priority="264"/>
-    <cfRule type="duplicateValues" dxfId="353" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="duplicateValues" dxfId="352" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="351" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="350" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="349" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="348" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="347" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="346" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="345" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="344" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="343" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="342" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F35">
-    <cfRule type="duplicateValues" dxfId="341" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="340" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="339" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="338" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="337" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="336" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="335" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F38">
-    <cfRule type="duplicateValues" dxfId="334" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="333" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="332" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="331" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="330" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="329" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="328" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F42 F32 F36">
-    <cfRule type="duplicateValues" dxfId="327" priority="3659"/>
-    <cfRule type="duplicateValues" dxfId="326" priority="3660"/>
-    <cfRule type="duplicateValues" dxfId="325" priority="3661"/>
-    <cfRule type="duplicateValues" dxfId="324" priority="3662"/>
-    <cfRule type="duplicateValues" dxfId="323" priority="3663"/>
-    <cfRule type="duplicateValues" dxfId="322" priority="3664"/>
-    <cfRule type="duplicateValues" dxfId="321" priority="3665"/>
-    <cfRule type="duplicateValues" dxfId="320" priority="3666"/>
-    <cfRule type="duplicateValues" dxfId="319" priority="3667"/>
-    <cfRule type="duplicateValues" dxfId="318" priority="3668"/>
-    <cfRule type="duplicateValues" dxfId="317" priority="3669"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="3677"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="3678"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="3679"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="3680"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="3681"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="3682"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="3683"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="3684"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="3685"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="3686"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="3687"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="duplicateValues" dxfId="316" priority="3692"/>
-    <cfRule type="duplicateValues" dxfId="315" priority="3693"/>
-    <cfRule type="duplicateValues" dxfId="314" priority="3694"/>
-    <cfRule type="duplicateValues" dxfId="313" priority="3695"/>
-    <cfRule type="duplicateValues" dxfId="312" priority="3696"/>
-    <cfRule type="duplicateValues" dxfId="311" priority="3697"/>
-    <cfRule type="duplicateValues" dxfId="310" priority="3698"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="3710"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="3711"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="3712"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="3713"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="3714"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="3715"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="3716"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F48">
-    <cfRule type="duplicateValues" dxfId="309" priority="290"/>
-    <cfRule type="duplicateValues" dxfId="308" priority="291"/>
-    <cfRule type="duplicateValues" dxfId="307" priority="292"/>
-    <cfRule type="duplicateValues" dxfId="306" priority="293"/>
-    <cfRule type="duplicateValues" dxfId="305" priority="294"/>
-    <cfRule type="duplicateValues" dxfId="304" priority="295"/>
-    <cfRule type="duplicateValues" dxfId="303" priority="296"/>
-    <cfRule type="duplicateValues" dxfId="302" priority="297"/>
-    <cfRule type="duplicateValues" dxfId="301" priority="298"/>
-    <cfRule type="duplicateValues" dxfId="300" priority="299"/>
-    <cfRule type="duplicateValues" dxfId="299" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="309"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="317"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F53">
-    <cfRule type="duplicateValues" dxfId="298" priority="3363"/>
-    <cfRule type="duplicateValues" dxfId="297" priority="3364"/>
-    <cfRule type="duplicateValues" dxfId="296" priority="3365"/>
-    <cfRule type="duplicateValues" dxfId="295" priority="3366"/>
-    <cfRule type="duplicateValues" dxfId="294" priority="3367"/>
-    <cfRule type="duplicateValues" dxfId="293" priority="3368"/>
-    <cfRule type="duplicateValues" dxfId="292" priority="3369"/>
-    <cfRule type="duplicateValues" dxfId="291" priority="3370"/>
-    <cfRule type="duplicateValues" dxfId="290" priority="3371"/>
-    <cfRule type="duplicateValues" dxfId="289" priority="3372"/>
-    <cfRule type="duplicateValues" dxfId="288" priority="3373"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="3381"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="3382"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="3383"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="3384"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="3385"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="3386"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="3387"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="3388"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="3389"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="3390"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="3391"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="duplicateValues" dxfId="287" priority="3441"/>
-    <cfRule type="duplicateValues" dxfId="286" priority="3442"/>
-    <cfRule type="duplicateValues" dxfId="285" priority="3443"/>
-    <cfRule type="duplicateValues" dxfId="284" priority="3444"/>
-    <cfRule type="duplicateValues" dxfId="283" priority="3445"/>
-    <cfRule type="duplicateValues" dxfId="282" priority="3446"/>
-    <cfRule type="duplicateValues" dxfId="281" priority="3447"/>
-    <cfRule type="duplicateValues" dxfId="280" priority="3448"/>
-    <cfRule type="duplicateValues" dxfId="279" priority="3449"/>
-    <cfRule type="duplicateValues" dxfId="278" priority="3450"/>
-    <cfRule type="duplicateValues" dxfId="277" priority="3451"/>
-    <cfRule type="duplicateValues" dxfId="276" priority="3452"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="3459"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="3460"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="3461"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="3462"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="3463"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="3464"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="3465"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="3466"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="3467"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="3468"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="3469"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="3470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="duplicateValues" dxfId="275" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="274" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="273" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="272" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="271" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="270" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="269" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="268" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="267" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="266" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="265" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="264" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="duplicateValues" dxfId="263" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="262" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="261" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="260" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="259" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="258" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="257" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="256" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="255" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="254" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="253" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="252" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80 F76:F78">
-    <cfRule type="duplicateValues" dxfId="251" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="250" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="249" priority="165"/>
-    <cfRule type="duplicateValues" dxfId="248" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="247" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="246" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="245" priority="169"/>
-    <cfRule type="duplicateValues" dxfId="244" priority="170"/>
-    <cfRule type="duplicateValues" dxfId="243" priority="171"/>
-    <cfRule type="duplicateValues" dxfId="242" priority="172"/>
-    <cfRule type="duplicateValues" dxfId="241" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="240" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:F83">
-    <cfRule type="duplicateValues" dxfId="239" priority="3318"/>
-    <cfRule type="duplicateValues" dxfId="238" priority="3319"/>
-    <cfRule type="duplicateValues" dxfId="237" priority="3320"/>
-    <cfRule type="duplicateValues" dxfId="236" priority="3321"/>
-    <cfRule type="duplicateValues" dxfId="235" priority="3322"/>
-    <cfRule type="duplicateValues" dxfId="234" priority="3323"/>
-    <cfRule type="duplicateValues" dxfId="233" priority="3324"/>
-    <cfRule type="duplicateValues" dxfId="232" priority="3325"/>
-    <cfRule type="duplicateValues" dxfId="231" priority="3326"/>
-    <cfRule type="duplicateValues" dxfId="230" priority="3327"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="3328"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="3336"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="3337"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="3338"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="3339"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="3340"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="3341"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="3342"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="3343"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="3344"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="3345"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="3346"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:F88">
-    <cfRule type="duplicateValues" dxfId="228" priority="221"/>
-    <cfRule type="duplicateValues" dxfId="227" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="226" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="225" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="224" priority="225"/>
-    <cfRule type="duplicateValues" dxfId="223" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="222" priority="227"/>
-    <cfRule type="duplicateValues" dxfId="221" priority="228"/>
-    <cfRule type="duplicateValues" dxfId="220" priority="229"/>
-    <cfRule type="duplicateValues" dxfId="219" priority="230"/>
-    <cfRule type="duplicateValues" dxfId="218" priority="231"/>
-    <cfRule type="duplicateValues" dxfId="217" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89:F100">
-    <cfRule type="duplicateValues" dxfId="216" priority="525"/>
-    <cfRule type="duplicateValues" dxfId="215" priority="570"/>
-    <cfRule type="duplicateValues" dxfId="214" priority="571"/>
-    <cfRule type="duplicateValues" dxfId="213" priority="572"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="573"/>
-    <cfRule type="duplicateValues" dxfId="211" priority="574"/>
-    <cfRule type="duplicateValues" dxfId="210" priority="575"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="576"/>
-    <cfRule type="duplicateValues" dxfId="208" priority="577"/>
-    <cfRule type="duplicateValues" dxfId="207" priority="578"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="579"/>
-    <cfRule type="duplicateValues" dxfId="205" priority="580"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="543"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="588"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="589"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="590"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="591"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="592"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="593"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="594"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="595"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="596"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="597"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="598"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="204" priority="2781"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="2782"/>
-    <cfRule type="duplicateValues" dxfId="202" priority="2783"/>
-    <cfRule type="duplicateValues" dxfId="201" priority="2784"/>
-    <cfRule type="duplicateValues" dxfId="200" priority="2785"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="2799"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="2800"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="2801"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="2802"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="2803"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F1048576 F1:F2 F81:F83 F32:F73">
-    <cfRule type="duplicateValues" dxfId="199" priority="604"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="622"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F126 F172:F1048576">
-    <cfRule type="duplicateValues" dxfId="198" priority="392"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="410"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F1048576">
-    <cfRule type="duplicateValues" dxfId="197" priority="2796"/>
-    <cfRule type="duplicateValues" dxfId="196" priority="2797"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="2814"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="2815"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P74">
-    <cfRule type="duplicateValues" dxfId="195" priority="3453"/>
-    <cfRule type="duplicateValues" dxfId="194" priority="3454"/>
-    <cfRule type="duplicateValues" dxfId="193" priority="3455"/>
-    <cfRule type="duplicateValues" dxfId="192" priority="3456"/>
-    <cfRule type="duplicateValues" dxfId="191" priority="3457"/>
-    <cfRule type="duplicateValues" dxfId="190" priority="3458"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="3459"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="3460"/>
-    <cfRule type="duplicateValues" dxfId="187" priority="3461"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="3462"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="3463"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="3471"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="3472"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="3473"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="3474"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="3475"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="3476"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="3477"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="3478"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="3479"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="3480"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="3481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P75">
-    <cfRule type="duplicateValues" dxfId="184" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="180" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="179" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="176" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P80 P76:P78">
-    <cfRule type="duplicateValues" dxfId="173" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="153"/>
-    <cfRule type="duplicateValues" dxfId="171" priority="154"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="155"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="158"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="161"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P84:P88">
-    <cfRule type="duplicateValues" dxfId="162" priority="233"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="234"/>
-    <cfRule type="duplicateValues" dxfId="160" priority="235"/>
-    <cfRule type="duplicateValues" dxfId="159" priority="236"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="237"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="239"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="240"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="153" priority="242"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P89:P90">
-    <cfRule type="duplicateValues" dxfId="151" priority="548"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="549"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="550"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="551"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="552"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="553"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="554"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="555"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="556"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="557"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="558"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="566"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="567"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="568"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="569"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="570"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="571"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="572"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="573"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="574"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="575"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="576"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P91:P92">
-    <cfRule type="duplicateValues" dxfId="140" priority="526"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="527"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="528"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="529"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="530"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="531"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="532"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="533"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="534"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="535"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="536"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="544"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="545"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="546"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="547"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="548"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="549"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="550"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="551"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="552"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="553"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="554"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P93:P95">
-    <cfRule type="duplicateValues" dxfId="129" priority="537"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="538"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="539"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="540"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="541"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="542"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="543"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="544"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="545"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="546"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="547"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="555"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="556"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="557"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="558"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="559"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="560"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="561"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="562"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="563"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="564"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="565"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P96">
-    <cfRule type="duplicateValues" dxfId="118" priority="514"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="515"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="516"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="517"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="518"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="519"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="520"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="521"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="522"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="523"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="524"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="532"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="533"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="534"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="535"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="536"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="537"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="538"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="539"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="540"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="541"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="542"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P97:P100">
-    <cfRule type="duplicateValues" dxfId="107" priority="559"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="560"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="561"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="562"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="563"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="564"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="565"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="566"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="567"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="568"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="569"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="577"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="578"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="579"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="580"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="581"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="582"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="583"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="584"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="585"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="586"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="587"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q14">
-    <cfRule type="duplicateValues" dxfId="96" priority="3789"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="3790"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="3791"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="3792"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="3793"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="3794"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="3795"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="3796"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="3797"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="3798"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="3799"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="3807"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="3808"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="3809"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="3810"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="3811"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="3812"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="3813"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="3814"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="3815"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="3816"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="3817"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q42">
-    <cfRule type="duplicateValues" dxfId="85" priority="605"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="606"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="607"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="608"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="609"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="610"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="611"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="612"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="613"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="614"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="615"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="623"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="624"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="625"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="626"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="627"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="628"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="629"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="630"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="631"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="632"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="633"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44:Q48">
-    <cfRule type="duplicateValues" dxfId="74" priority="301"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="302"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="303"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="304"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="305"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="306"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="307"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="308"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="309"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="310"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="322"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="324"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="326"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="327"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="328"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="329"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q80">
-    <cfRule type="duplicateValues" dxfId="63" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="147"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="148"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="150"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P172:P175">
-    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P176:Q179 Q172:Q175">
-    <cfRule type="duplicateValues" dxfId="41" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101:F126">
-    <cfRule type="duplicateValues" dxfId="30" priority="3833"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="3834"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="3835"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="3836"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="3837"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="3838"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="3839"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="3840"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="3841"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="3842"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="3843"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="3844"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="3851"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3852"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="3853"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="3854"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="3855"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3856"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="3857"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3858"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="3859"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="3860"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="3861"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="3862"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172:F195">
-    <cfRule type="duplicateValues" dxfId="11" priority="3860"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="3861"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="3862"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3863"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="3864"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="3865"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="3866"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="3867"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3868"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3869"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3870"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3871"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3878"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3879"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3880"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3881"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3882"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3883"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3884"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3885"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3886"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3887"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3888"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="3889"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J108">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K101:K116">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -25397,7 +25586,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41500,15 +41689,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118:B1048576 B1:B48">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -41581,15 +41770,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1 B3:G1048576 C2:G2">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 A1:B1">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/ARQU/Ontologia_ARQUI.xlsx
+++ b/Versão5/ARQU/Ontologia_ARQUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\ARQU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4177457A-F5DD-415E-A904-ECAA8172B8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50979AE4-43D2-4E29-B05C-C6F8C0752C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8080" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9333" uniqueCount="1329">
   <si>
     <t>EquivalentTo: 
 Raiz
@@ -3106,6 +3106,960 @@
   </si>
   <si>
     <t>é.componente.de some Divisória</t>
+  </si>
+  <si>
+    <t>Equipamento</t>
+  </si>
+  <si>
+    <t>Sanitário</t>
+  </si>
+  <si>
+    <t>Banheiro</t>
+  </si>
+  <si>
+    <t>Banheira</t>
+  </si>
+  <si>
+    <t>Aparelho sanitário para imersão do corpo humano ou partes dele.</t>
+  </si>
+  <si>
+    <t>Aparatos sanitarios para la inmersión del cuerpo humano o partes del mismo.</t>
+  </si>
+  <si>
+    <t>OST_PlumbingFixtures , OST_PlumbingEquipment</t>
+  </si>
+  <si>
+    <t>IfcSanitaryTerminalBATH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bebedouro </t>
+  </si>
+  <si>
+    <t>Terminal sanitário que fornece um jato de água de baixa pressão para uma finalidade específica.</t>
+  </si>
+  <si>
+    <t>Terminal sanitaria que proporciona un chorro de agua a baja presión para un fin específico.</t>
+  </si>
+  <si>
+    <t>IfcSanitaryTerminalSANITARYFOUNTAIN</t>
+  </si>
+  <si>
+    <t>Bidet</t>
+  </si>
+  <si>
+    <t>Aparelho de águas residuais para lavar os órgãos excretores enquanto está sentado montado na bacia sanitária.</t>
+  </si>
+  <si>
+    <t>Aparato de aguas residuales para enjuagar los órganos excretores mientras se está sentado, montado en el inodoro.</t>
+  </si>
+  <si>
+    <t>IfcSanitaryTerminalBIDET</t>
+  </si>
+  <si>
+    <t>Chuveiro</t>
+  </si>
+  <si>
+    <t>Instalação ou aparelho de águas residuais que emite um jato de água para lavar o corpo humano.</t>
+  </si>
+  <si>
+    <t>Una instalación o aparato de aguas residuales que emite un chorro de agua para lavar el cuerpo humano.</t>
+  </si>
+  <si>
+    <t>IfcSanitaryTerminalSHOWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavatório </t>
+  </si>
+  <si>
+    <t>Aparelho de águas residuais para lavar as partes superiores do corpo.</t>
+  </si>
+  <si>
+    <t>Aparato de aguas residuales para lavar las partes superiores del cuerpo.</t>
+  </si>
+  <si>
+    <t>IfcSanitaryTerminalWASHHANDBASIN</t>
+  </si>
+  <si>
+    <t>Mictório</t>
+  </si>
+  <si>
+    <t>Aparelho de solo que recebe a urina e a direciona para uma saída de resíduos.</t>
+  </si>
+  <si>
+    <t>Aparato de tierra que recibe la orina y la dirige a una salida de desechos.</t>
+  </si>
+  <si>
+    <t>IfcSanitaryTerminalURINAL</t>
+  </si>
+  <si>
+    <t>Pia</t>
+  </si>
+  <si>
+    <t>Aparelho de águas residuais para recebimento, retenção ou eliminação de aparelhos domésticos, culinários, laboratoriais.</t>
+  </si>
+  <si>
+    <t>Aparatos para aguas residuales para recibir, retener o eliminar aparatos domésticos, culinarios, de laboratorio.</t>
+  </si>
+  <si>
+    <t>IfcSanitaryTerminalSINK</t>
+  </si>
+  <si>
+    <t>Terminal sanitário é um aparelho fixo ou terminal geralmente abastecido com água e usado para beber.</t>
+  </si>
+  <si>
+    <t>Terminal sanitario es un aparato fijo o terminal que generalmente se suministra con agua y se utiliza para beber.</t>
+  </si>
+  <si>
+    <t>IfcSanitaryTerminal</t>
+  </si>
+  <si>
+    <t>Vaso.Sanitário</t>
+  </si>
+  <si>
+    <t>Aparelho de solo para eliminação de excrementos.</t>
+  </si>
+  <si>
+    <t>Aparato de suelo para la eliminación de excrementos.</t>
+  </si>
+  <si>
+    <t>IfcSanitaryTerminalTOILETPAN</t>
+  </si>
+  <si>
+    <t>Vaso.Sanitário.Assento</t>
+  </si>
+  <si>
+    <t>Assento articulado obsoleto que se encaixa no topo de uma panela de vaso sanitário (wc).</t>
+  </si>
+  <si>
+    <t>Asiento abatible obsoleto que se coloca encima de una bandeja de inodoro (inodoro).</t>
+  </si>
+  <si>
+    <t>IfcSanitaryTerminalWCSEAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaso.Sanitário.Caixa </t>
+  </si>
+  <si>
+    <t>Unidade de armazenamento de água conectada a um terminal sanitário equipado com um dispositivo, operado automaticamente.</t>
+  </si>
+  <si>
+    <t>Unidad de almacenamiento de agua conectada a una terminal sanitaria equipada con un dispositivo, operada automáticamente.</t>
+  </si>
+  <si>
+    <t>IfcSanitaryTerminalCISTERN</t>
+  </si>
+  <si>
+    <t>De.Apoio</t>
+  </si>
+  <si>
+    <t>Bancada.Fixa</t>
+  </si>
+  <si>
+    <t>Bancada.Banheiro</t>
+  </si>
+  <si>
+    <t>Bancada.Cozinha</t>
+  </si>
+  <si>
+    <t>Bancada.Laboratório</t>
+  </si>
+  <si>
+    <t>Elétrico</t>
+  </si>
+  <si>
+    <t>Elétrica.Geral</t>
+  </si>
+  <si>
+    <t>Aparelho.Elétrico</t>
+  </si>
+  <si>
+    <t>Aparelho elétrico é um dispositivo destinado ao uso do consumidor que é alimentado por eletricidade.</t>
+  </si>
+  <si>
+    <t>El aparato eléctrico es un dispositivo destinado al uso del consumidor que funciona con electricidad.</t>
+  </si>
+  <si>
+    <t>OST_ElectricalEquipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IfcElectricAppliance </t>
+  </si>
+  <si>
+    <t>Aquecedor.Agua.Portátil</t>
+  </si>
+  <si>
+    <t>Pequeno aparelho elétrico local para aquecimento de água.</t>
+  </si>
+  <si>
+    <t>Pequeño electrodoméstico local para calentar agua.</t>
+  </si>
+  <si>
+    <t>IfcElectricApplianceFREESTANDINGWATERHEATER</t>
+  </si>
+  <si>
+    <t>Aquecedor.Elétrico.Portátil</t>
+  </si>
+  <si>
+    <t>Aparelho elétrico que é usado ocasionalmente para fornecer calor.</t>
+  </si>
+  <si>
+    <t>Aparato eléctrico que se utiliza ocasionalmente para proporcionar calor.</t>
+  </si>
+  <si>
+    <t>IfcElectricApplianceFREESTANDINGELECTRICHEATER</t>
+  </si>
+  <si>
+    <t>Bebedouro.Elétrico.Portátil</t>
+  </si>
+  <si>
+    <t>Pequeno aparelho elétrico local para resfriamento de água.</t>
+  </si>
+  <si>
+    <t>Pequeño aparato eléctrico local para refrigeración por agua.</t>
+  </si>
+  <si>
+    <t>IfcElectricApplianceFREESTANDINGWATERCOOLER</t>
+  </si>
+  <si>
+    <t>Ventilador.Portátil</t>
+  </si>
+  <si>
+    <t>Aparelho elétrico usado ocasionalmente para fornecer ventilação.</t>
+  </si>
+  <si>
+    <t>Aparato eléctrico utilizado ocasionalmente para proporcionar ventilación.</t>
+  </si>
+  <si>
+    <t>IfcElectricApplianceFREESTANDINGFAN</t>
+  </si>
+  <si>
+    <t>Seca.Mãos</t>
+  </si>
+  <si>
+    <t>Aparelho elétrico que tem como função principal secar as mãos.</t>
+  </si>
+  <si>
+    <t>Dispositivo eléctrico cuya función principal es secarse las manos.</t>
+  </si>
+  <si>
+    <t>IfcElectricApplianceHANDDRYER</t>
+  </si>
+  <si>
+    <t>Elétrica.Cozinha</t>
+  </si>
+  <si>
+    <t>Fogão.Elétrico</t>
+  </si>
+  <si>
+    <t>Aparelho elétrico que tem a função principal de cozinhar alimentos (incluindo forno, fogão, grelhador).</t>
+  </si>
+  <si>
+    <t>Aparato eléctrico que tiene la función principal de cocinar alimentos (incluyendo horno, estufa, parrilla).</t>
+  </si>
+  <si>
+    <t>IfcElectricApplianceELECTRICCOOKER</t>
+  </si>
+  <si>
+    <t>Forno.Microondas</t>
+  </si>
+  <si>
+    <t>Aparelho elétrico que tem a função principal de cozinhar alimentos usando microondas.</t>
+  </si>
+  <si>
+    <t>Aparato eléctrico que tiene como función principal la cocción de alimentos mediante microondas.</t>
+  </si>
+  <si>
+    <t>IfcElectricApplianceMICROWAVE</t>
+  </si>
+  <si>
+    <t>Freezer</t>
+  </si>
+  <si>
+    <t>Aparelho elétrico que tem como função principal armazenar alimentos em temperaturas abaixo do livre.</t>
+  </si>
+  <si>
+    <t>Dispositivo eléctrico cuya función principal es almacenar alimentos a temperaturas inferiores a la libre.</t>
+  </si>
+  <si>
+    <t>IfcElectricApplianceFREEZER</t>
+  </si>
+  <si>
+    <t>Geladeira</t>
+  </si>
+  <si>
+    <t>Aparelho elétrico que combina as funções de um freezer e uma geladeira.</t>
+  </si>
+  <si>
+    <t>Electrodoméstico que combina las funciones de un congelador y un refrigerador.</t>
+  </si>
+  <si>
+    <t>IfcElectricApplianceFRIDGE_FREEZER</t>
+  </si>
+  <si>
+    <t>LavaLouça</t>
+  </si>
+  <si>
+    <t>Aparelho que tem como função principal lavar louça.</t>
+  </si>
+  <si>
+    <t>Dispositivo cuya función principal es lavar los platos.</t>
+  </si>
+  <si>
+    <t>IfcElectricApplianceDISHWASHER</t>
+  </si>
+  <si>
+    <t>LavaRoupa</t>
+  </si>
+  <si>
+    <t>Eletrodoméstico que tem como função primordial lavar roupa.</t>
+  </si>
+  <si>
+    <t>Aparato cuya función principal es lavar la ropa.</t>
+  </si>
+  <si>
+    <t>IfcElectricApplianceWASHINGMACHINE</t>
+  </si>
+  <si>
+    <t>Processador</t>
+  </si>
+  <si>
+    <t>Aparelho especializado usado em cozinhas comerciais, como uma batedeira.</t>
+  </si>
+  <si>
+    <t>Electrodoméstico especializado utilizado en cocinas comerciales, como una batidora de pie.</t>
+  </si>
+  <si>
+    <t>IfcElectricApplianceKITCHENMACHINE</t>
+  </si>
+  <si>
+    <t>Refrigerador</t>
+  </si>
+  <si>
+    <t>Aparelho elétrico que tem a função principal de armazenar alimentos em baixa temperatura.</t>
+  </si>
+  <si>
+    <t>Aparato eléctrico que tiene como función principal almacenar alimentos a baja temperatura.</t>
+  </si>
+  <si>
+    <t>IfcElectricApplianceREFRIGERATOR</t>
+  </si>
+  <si>
+    <t>Seca.Roupa</t>
+  </si>
+  <si>
+    <t>Aparelho elétrico que tem a função principal de secar roupas.</t>
+  </si>
+  <si>
+    <t>Dispositivo eléctrico que tiene como función principal el secado de la ropa.</t>
+  </si>
+  <si>
+    <t>IfcElectricApplianceTUMBLEDRYER</t>
+  </si>
+  <si>
+    <t>Elétrica.Escritório</t>
+  </si>
+  <si>
+    <t>Fotocopiadora</t>
+  </si>
+  <si>
+    <t>Máquina que tem a função primária de reprodução de material impresso.</t>
+  </si>
+  <si>
+    <t>Máquina que tiene la función principal de reproducir material impreso.</t>
+  </si>
+  <si>
+    <t>IfcElectricAppliancePHOTOCOPIER</t>
+  </si>
+  <si>
+    <t>Máquina.Venda</t>
+  </si>
+  <si>
+    <t>Aparelho que armazena e vende mercadorias, incluindo alimentos, bebidas, ingressos e mercadorias de vários tipos.</t>
+  </si>
+  <si>
+    <t>Aparato que almacena y vende bienes, incluyendo alimentos, bebidas, boletos y bienes de varios tipos.</t>
+  </si>
+  <si>
+    <t>IfcElectricApplianceVENDINGMACHINE</t>
+  </si>
+  <si>
+    <t>AudioVisual</t>
+  </si>
+  <si>
+    <t>Aparelho.Avi</t>
+  </si>
+  <si>
+    <t>Aparelho.AudioVisual</t>
+  </si>
+  <si>
+    <t>Aparelho audiovisual é um dispositivo que exibe, captura, transmite ou recebe áudio ou vídeo.</t>
+  </si>
+  <si>
+    <t>Un dispositivo audiovisual es un dispositivo que muestra, captura, transmite o recibe audio o vídeo.</t>
+  </si>
+  <si>
+    <t>OST_AudioVisualDevices</t>
+  </si>
+  <si>
+    <t>IfcAudioVisualAppliance</t>
+  </si>
+  <si>
+    <t>Amplificador</t>
+  </si>
+  <si>
+    <t>Dispositivo que recebe um sinal de áudio e o amplifica para ser reproduzido por meio de alto-falantes.</t>
+  </si>
+  <si>
+    <t>Un dispositivo que recibe una señal de audio y la amplifica para ser reproducida a través de altavoces.</t>
+  </si>
+  <si>
+    <t>IfcAudioVisualApplianceAMPLIFIER</t>
+  </si>
+  <si>
+    <t>Câmera</t>
+  </si>
+  <si>
+    <t>Dispositivo que grava imagens, seja como uma fotografia estática ou como imagens em movimento.</t>
+  </si>
+  <si>
+    <t>Un dispositivo que graba imágenes, ya sea como una fotografía fija o como imágenes en movimiento.</t>
+  </si>
+  <si>
+    <t>IfcAudioVisualApplianceCAMERA</t>
+  </si>
+  <si>
+    <t>Terminal.de.Comunicação</t>
+  </si>
+  <si>
+    <t>Terminal de comunicação é um dispositivo de comunicação de áudio que geralmente é instalado ao longo do transporte.</t>
+  </si>
+  <si>
+    <t>El terminal de comunicación es un dispositivo de comunicación de audio que generalmente se instala a lo largo del transporte.</t>
+  </si>
+  <si>
+    <t>IfcAudioVisualApplianceCOMMUNICATIONTERMINAL</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Dispositivo eletrônico que representa informações em forma visual, como uma tela plana.</t>
+  </si>
+  <si>
+    <t>Un dispositivo electrónico que representa información en forma visual, como una pantalla plana.</t>
+  </si>
+  <si>
+    <t>IfcAudioVisualApplianceDISPLAY</t>
+  </si>
+  <si>
+    <t>Microfone</t>
+  </si>
+  <si>
+    <t>Transdutor ou sensor acústico para elétrico que converte o som num sinal elétrico.</t>
+  </si>
+  <si>
+    <t>Transductor o sensor acústico a eléctrico que convierte el sonido en una señal eléctrica.</t>
+  </si>
+  <si>
+    <t>IfcAudioVisualApplianceMICROPHONE</t>
+  </si>
+  <si>
+    <t>Reprodutor</t>
+  </si>
+  <si>
+    <t>Dispositivo que reproduz conteúdo de áudio e/ou vídeo diretamente ou para outro dispositivo, possuindo mídia de armazenamento.</t>
+  </si>
+  <si>
+    <t>Un dispositivo que reproduce contenido de audio y/o video directamente o en otro dispositivo, con medios de almacenamiento.</t>
+  </si>
+  <si>
+    <t>IfcAudioVisualAppliancePLAYER</t>
+  </si>
+  <si>
+    <t>Projetor</t>
+  </si>
+  <si>
+    <t>Aparelho para projetar uma imagem numa tela.</t>
+  </si>
+  <si>
+    <t>Dispositivo para proyectar una imagen en una pantalla.</t>
+  </si>
+  <si>
+    <t>IfcAudioVisualAppliancePROJECTOR</t>
+  </si>
+  <si>
+    <t>Receptor</t>
+  </si>
+  <si>
+    <t>Dispositivo que recebe sinais de áudio e/ou vídeo, comuta fontes e amplifica sinais para reprodução.</t>
+  </si>
+  <si>
+    <t>Dispositivo que recibe señales de audio y/o vídeo, cambia de fuente y amplifica las señales para su reproducción.</t>
+  </si>
+  <si>
+    <t>IfcAudioVisualApplianceRECEIVER</t>
+  </si>
+  <si>
+    <t>Equipo.de.Gravação</t>
+  </si>
+  <si>
+    <t>Equipamento de gravação é um dispositivo que grava chamadas telefônicas ou outros tipos de dados de áudio.</t>
+  </si>
+  <si>
+    <t>El equipo de grabación es un dispositivo que graba llamadas telefónicas u otros tipos de datos de audio.</t>
+  </si>
+  <si>
+    <t>IfcAudioVisualApplianceRECORDINGEQUIPMENT</t>
+  </si>
+  <si>
+    <t>Alto-falante</t>
+  </si>
+  <si>
+    <t>Alto-falante, alto-falante ou sistema de alto-falantes.</t>
+  </si>
+  <si>
+    <t>Altavoz, altavoz o sistema de altavoces.</t>
+  </si>
+  <si>
+    <t>IfcAudioVisualApplianceSPEAKER</t>
+  </si>
+  <si>
+    <t>Comutador</t>
+  </si>
+  <si>
+    <t>Dispositivo que recebe sinais de áudio e/ou vídeo, alterna fontes e transmite sinais.</t>
+  </si>
+  <si>
+    <t>Un dispositivo que recibe señales de audio y/o video, cambia de fuente y transmite señales.</t>
+  </si>
+  <si>
+    <t>IfcAudioVisualApplianceSWITCHER</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Dispositivo de telecomunicações usado para transmitir e receber som e, opcionalmente, vídeo.</t>
+  </si>
+  <si>
+    <t>Dispositivo de telecomunicaciones utilizado para transmitir y recibir sonido y, opcionalmente, vídeo.</t>
+  </si>
+  <si>
+    <t>IfcAudioVisualApplianceTELEPHONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sintonizador </t>
+  </si>
+  <si>
+    <t>Receptor eletrônico que detecta, demodula e amplifica sinais transmitidos.</t>
+  </si>
+  <si>
+    <t>Receptor electrónico que detecta, demodula y amplifica las señales transmitidas.</t>
+  </si>
+  <si>
+    <t>IfcAudioVisualApplianceTUNER</t>
+  </si>
+  <si>
+    <t>Espacial</t>
+  </si>
+  <si>
+    <t>Plano.Horizontal</t>
+  </si>
+  <si>
+    <t>Andar</t>
+  </si>
+  <si>
+    <t>Andar.Prédio</t>
+  </si>
+  <si>
+    <t>Andar do edifício que tem uma elevação e normalmente representa uma agregação horizontal.</t>
+  </si>
+  <si>
+    <t>Planta del edificio que tiene una elevación y que suele representar una agregación horizontal.</t>
+  </si>
+  <si>
+    <t>OST_Levels</t>
+  </si>
+  <si>
+    <t>IfcBuildingStorey</t>
+  </si>
+  <si>
+    <t>Plano.Vertical</t>
+  </si>
+  <si>
+    <t>Eixo</t>
+  </si>
+  <si>
+    <t>Eixo.Estrutural</t>
+  </si>
+  <si>
+    <t>Ifcgrid é uma grade de projeto planar definida no espaço 3D usada como auxílio na localização.</t>
+  </si>
+  <si>
+    <t>Retícula de ejes estructurales del proyecto definida en el espacio 3D utilizada como ayuda a la localización.</t>
+  </si>
+  <si>
+    <t>OST_Grids</t>
+  </si>
+  <si>
+    <t>IfcGrid</t>
+  </si>
+  <si>
+    <t>Eixo.Estrutural.Irregular</t>
+  </si>
+  <si>
+    <t>Ifcgrid com eixos u, eixos v e, opcionalmente, eixos w.</t>
+  </si>
+  <si>
+    <t>Cuadrícula de ejes estructurales de diseño definida en el espacio 3D utilizada como ayuda de ubicación con ejes U, ejes V y, opcionalmente, ejes W.</t>
+  </si>
+  <si>
+    <t>IfcGridIRREGULAR</t>
+  </si>
+  <si>
+    <t>Eixo.Estrutural.Radial</t>
+  </si>
+  <si>
+    <t>Ifcgrid com eixos u retos e eixos v curvos.</t>
+  </si>
+  <si>
+    <t>Cuadrícula de ejes estructurales de diseño definida en el espacio 3D utilizada como ayuda a la localización con ejes U rectos y ejes V curvos.</t>
+  </si>
+  <si>
+    <t>IfcGridRADIAL</t>
+  </si>
+  <si>
+    <t>Eixo.Estrutural.Retangular</t>
+  </si>
+  <si>
+    <t>Ifcgrid com eixos u retos e eixos v retos perpendiculares entre si.</t>
+  </si>
+  <si>
+    <t>Retícula de ejes estructurales del proyecto definida en el espacio 3D utilizada como ayuda a la localización con ejes U rectos y ejes V rectos perpendiculares entre sí.</t>
+  </si>
+  <si>
+    <t>IfcGridRECTANGULAR</t>
+  </si>
+  <si>
+    <t>Eixo.Estrutural.Triangular</t>
+  </si>
+  <si>
+    <t>Ifcgrid com eixos u, eixos v e eixos w sendo todos linhas de eixo colineares com um deslocamento.</t>
+  </si>
+  <si>
+    <t>Cuadrícula de ejes estructurales de diseño definida en el espacio 3D utilizada como ayuda para la localización con ejes U, ejes V y ejes W, todos ellos líneas de eje colineal con un desplazamiento.</t>
+  </si>
+  <si>
+    <t>IfcGridTRIANGULAR</t>
+  </si>
+  <si>
+    <t>Areas</t>
+  </si>
+  <si>
+    <t>A.Externa</t>
+  </si>
+  <si>
+    <t>Espaço.Externo</t>
+  </si>
+  <si>
+    <t>O elemento espacial externo que define regiões externas no local da construção.</t>
+  </si>
+  <si>
+    <t>Elemento espacial externo que define las regiones externas en la obra.</t>
+  </si>
+  <si>
+    <t>Interdisciplinar</t>
+  </si>
+  <si>
+    <t>Espaço.Exterior</t>
+  </si>
+  <si>
+    <t>OST_Areas</t>
+  </si>
+  <si>
+    <t>IfcExternalSpatialElement</t>
+  </si>
+  <si>
+    <t>Espaço.Aereo</t>
+  </si>
+  <si>
+    <t>Espaço de ar externo ao redor do edifício.</t>
+  </si>
+  <si>
+    <t>Espacio aéreo exterior alrededor del edificio.</t>
+  </si>
+  <si>
+    <t>IfcExternalSpatialElementEXTERNAL</t>
+  </si>
+  <si>
+    <t>Volume externo coberto por terra ao redor do edifício.</t>
+  </si>
+  <si>
+    <t>Volumen exterior cubierto por tierra alrededor del edificio.</t>
+  </si>
+  <si>
+    <t>IfcExternalSpatialElementEXTERNAL_EARTH</t>
+  </si>
+  <si>
+    <t>Espaço.Construção.Vizinha</t>
+  </si>
+  <si>
+    <t>Espaço ocupado por um prédio vizinho.</t>
+  </si>
+  <si>
+    <t>Espacio ocupado por un edificio vecino.</t>
+  </si>
+  <si>
+    <t>IfcExternalSpatialElementEXTERNAL_FIRE</t>
+  </si>
+  <si>
+    <t>Espaço.Espelho.Agua</t>
+  </si>
+  <si>
+    <t>Volume externo coberto com água ao redor do edifício.</t>
+  </si>
+  <si>
+    <t>Volumen exterior cubierto de agua alrededor del edificio.</t>
+  </si>
+  <si>
+    <t>IfcExternalSpatialElementEXTERNAL_WATER</t>
+  </si>
+  <si>
+    <t>Espaço.de.Exteriores</t>
+  </si>
+  <si>
+    <t>Espaço for a de uma instalação.</t>
+  </si>
+  <si>
+    <t>Espacio fuera de una instalación.</t>
+  </si>
+  <si>
+    <t>Ambiente.Interior</t>
+  </si>
+  <si>
+    <t>IfcSpaceEXTERNAL</t>
+  </si>
+  <si>
+    <t>Estacionamento</t>
+  </si>
+  <si>
+    <t>Espaço dedicado para uso como vaga de estacionamento de veículos, incluindo acesso.</t>
+  </si>
+  <si>
+    <t>Espacio dedicado para su uso como plaza de aparcamiento de vehículos, incluido el acceso.</t>
+  </si>
+  <si>
+    <t>IfcSpacePARKING</t>
+  </si>
+  <si>
+    <t>Área.Bruta</t>
+  </si>
+  <si>
+    <t>Área bruta de piso - um tipo específico de espaço para cada pavimento de edificação.</t>
+  </si>
+  <si>
+    <t>Superficie bruta: un tipo específico de espacio para cada planta del edificio.</t>
+  </si>
+  <si>
+    <t>IfcSpaceGFA</t>
+  </si>
+  <si>
+    <t>Ambientes</t>
+  </si>
+  <si>
+    <t>A.Interior</t>
+  </si>
+  <si>
+    <t>Espaço representa uma área, ou volume, delimitado física ou teoricamente.</t>
+  </si>
+  <si>
+    <t>El espacio representa un área, o volumen, física o teóricamente delimitado.</t>
+  </si>
+  <si>
+    <t>OST_Rooms , OST_MEPSpaces</t>
+  </si>
+  <si>
+    <t>IfcSpace</t>
+  </si>
+  <si>
+    <t>Ambiente.Funcional</t>
+  </si>
+  <si>
+    <t>Espaço dedicado à ancoragem das embarcações dentro de um porto ou área gerenciada.</t>
+  </si>
+  <si>
+    <t>Espacio dedicado al fondeo de buques dentro de un puerto o zona gestionada.</t>
+  </si>
+  <si>
+    <t>IfcSpaceBERTH</t>
+  </si>
+  <si>
+    <t>Ambiente.Interno</t>
+  </si>
+  <si>
+    <t>Espaço dentro de uma instalação.</t>
+  </si>
+  <si>
+    <t>Espacio dentro de una instalación.</t>
+  </si>
+  <si>
+    <t>IfcSpaceINTERNAL</t>
+  </si>
+  <si>
+    <t>Utilizável</t>
+  </si>
+  <si>
+    <t>Qualquer espaço que não se insere em outra categoria.</t>
+  </si>
+  <si>
+    <t>Cualquier espacio que no pertenezca a otra categoría.</t>
+  </si>
+  <si>
+    <t>IfcSpaceSPACE</t>
+  </si>
+  <si>
+    <t>Zonas</t>
+  </si>
+  <si>
+    <t>Zona</t>
+  </si>
+  <si>
+    <t>Zona.Espacial</t>
+  </si>
+  <si>
+    <t>Zona espacial é uma decomposição não hierárquica e potencialmente sobreposta do projeto sob alguma condição.</t>
+  </si>
+  <si>
+    <t>La zona espacial es una descomposición no jerárquica y potencialmente superpuesta del proyecto bajo alguna condición.</t>
+  </si>
+  <si>
+    <t>OST_ZoneEquipment , OST_MEPSystemZone , OST_MEPZone</t>
+  </si>
+  <si>
+    <t>IfcSpatialZone</t>
+  </si>
+  <si>
+    <t>Zona.de.Construção</t>
+  </si>
+  <si>
+    <t>Zona espacial é usada para representar uma zona de construção para o processo de fabricação.</t>
+  </si>
+  <si>
+    <t>La zona espacial se utiliza para representar una zona de construcción para el proceso de fabricación.</t>
+  </si>
+  <si>
+    <t>IfcSpatialZoneCONSTRUCTION</t>
+  </si>
+  <si>
+    <t>Zona.de.Segurança.Incêndio</t>
+  </si>
+  <si>
+    <t>Zona espacial é usada para representar uma zona de segurança contra incêndios, ou compartimento.</t>
+  </si>
+  <si>
+    <t>La zona espacial se utiliza para representar una zona de seguridad contra incendios o compartimento.</t>
+  </si>
+  <si>
+    <t>IfcSpatialZoneFIRESAFETY</t>
+  </si>
+  <si>
+    <t>Zona.de.Interferência</t>
+  </si>
+  <si>
+    <t>Zona espacial é usada para definir uma interferência entre ocorrências de Ifcspatialelement].</t>
+  </si>
+  <si>
+    <t>La zona espacial se utiliza para definir una interferencia entre las ocurrencias de Ifcspatialelement].</t>
+  </si>
+  <si>
+    <t>IfcSpatialZoneINTERFERENCE</t>
+  </si>
+  <si>
+    <t>Zona.de.Iluminação</t>
+  </si>
+  <si>
+    <t>Zona espacial é usada para representar uma zona de iluminação; uma zona de luz natural.</t>
+  </si>
+  <si>
+    <t>La zona espacial se utiliza para representar una zona de iluminación; una zona de luz natural.</t>
+  </si>
+  <si>
+    <t>IfcSpatialZoneLIGHTING</t>
+  </si>
+  <si>
+    <t>Zona.de.Ocupação</t>
+  </si>
+  <si>
+    <t>Zona espacial é usada para representar uma zona de ocupação particular.</t>
+  </si>
+  <si>
+    <t>La zona espacial se utiliza para representar una zona de ocupación determinada.</t>
+  </si>
+  <si>
+    <t>IfcSpatialZoneOCCUPANCY</t>
+  </si>
+  <si>
+    <t>Zona.de.Reserva</t>
+  </si>
+  <si>
+    <t>Zona espacial que representa algum tipo de reserva dentro do projeto para uso futuro.</t>
+  </si>
+  <si>
+    <t>Una zona espacial que representa algún tipo de reserva dentro de la extensión del proyecto.</t>
+  </si>
+  <si>
+    <t>IfcSpatialZoneRESERVATION</t>
+  </si>
+  <si>
+    <t>Zona.de.Segurança</t>
+  </si>
+  <si>
+    <t>Zona espacial é usada para representar uma zona para planejamento de segurança e trabalho, acessos, etc.</t>
+  </si>
+  <si>
+    <t>La zona espacial se utiliza para representar una zona de seguridad y planificación del trabajo.</t>
+  </si>
+  <si>
+    <t>IfcSpatialZoneSECURITY</t>
+  </si>
+  <si>
+    <t>Zona.de.Térmica</t>
+  </si>
+  <si>
+    <t>Zona espacial é usada para representar uma zona térmica com características homogêneas.</t>
+  </si>
+  <si>
+    <t>La zona espacial se utiliza para representar una zona térmica.</t>
+  </si>
+  <si>
+    <t>IfcSpatialZoneTHERMAL</t>
+  </si>
+  <si>
+    <t>Zona.de.Transporte</t>
+  </si>
+  <si>
+    <t>Zona espacial é usada para representar uma área primariamente dedicada à circulação de pessoas ou veículos.</t>
+  </si>
+  <si>
+    <t>La zona espacial se utiliza para representar un área dedicada principalmente al movimiento de personas.</t>
+  </si>
+  <si>
+    <t>IfcSpatialZoneTRANSPORT</t>
+  </si>
+  <si>
+    <t>Zona.de.Ventilação</t>
+  </si>
+  <si>
+    <t>Zona espacial é usada para representar uma zona de ventilação.</t>
+  </si>
+  <si>
+    <t>La zona espacial se utiliza para representar una zona de ventilación.</t>
+  </si>
+  <si>
+    <t>IfcSpatialZoneVENTILATION</t>
+  </si>
+  <si>
+    <t>Peça.Sanitária</t>
   </si>
 </sst>
 </file>
@@ -3440,7 +4394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3675,299 +4629,14 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="403">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="388">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5560,6 +6229,150 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -8281,7 +9094,7 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">NOW()</f>
-        <v>45925.781497337965</v>
+        <v>45926.684030671298</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -8331,12 +9144,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96052D63-9637-42D9-866B-0BB924A50D8C}">
-  <dimension ref="A1:Y195"/>
+  <dimension ref="A1:Y269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
+      <selection pane="bottomLeft" activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="8.4" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8345,7 +9158,7 @@
     <col min="2" max="2" width="4.84375" customWidth="1"/>
     <col min="3" max="3" width="6.69140625" customWidth="1"/>
     <col min="4" max="4" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3828125" customWidth="1"/>
     <col min="6" max="6" width="11.4609375" customWidth="1"/>
     <col min="7" max="8" width="6.23046875" style="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.765625" style="28" customWidth="1"/>
@@ -24759,15 +25572,15 @@
         <v>9</v>
       </c>
       <c r="L194" s="26" t="str">
-        <f t="shared" ref="L194:L195" si="52">CONCATENATE("", C194)</f>
+        <f t="shared" ref="L194:M209" si="52">CONCATENATE("", C194)</f>
         <v>Vedação</v>
       </c>
       <c r="M194" s="26" t="str">
-        <f t="shared" ref="M194:M195" si="53">CONCATENATE("", D194)</f>
+        <f t="shared" ref="M194:M196" si="53">CONCATENATE("", D194)</f>
         <v>Delimitador</v>
       </c>
       <c r="N194" s="26" t="str">
-        <f t="shared" ref="N194:N195" si="54">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E194),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N194:O209" si="54">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E194),"."," ")," De "," de "))</f>
         <v>Gradil</v>
       </c>
       <c r="O194" s="21" t="str">
@@ -24799,7 +25612,7 @@
         <v>90</v>
       </c>
       <c r="W194" s="1" t="str">
-        <f t="shared" ref="W194:W195" si="59">CONCATENATE("Key.",LEFT(C194,3),".",A194)</f>
+        <f t="shared" ref="W194:W257" si="59">CONCATENATE("Key.",LEFT(C194,3),".",A194)</f>
         <v>Key.Ved.194</v>
       </c>
       <c r="X194" s="49" t="s">
@@ -24894,480 +25707,6704 @@
         <v>233</v>
       </c>
     </row>
+    <row r="196" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A196" s="23">
+        <v>196</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C196" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F196" s="25" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G196" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H196" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I196" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J196" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K196" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L196" s="26" t="str">
+        <f t="shared" ref="L196" si="60">CONCATENATE("", C196)</f>
+        <v>Equipamento</v>
+      </c>
+      <c r="M196" s="26" t="str">
+        <f t="shared" si="53"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="N196" s="26" t="str">
+        <f t="shared" ref="N196" si="61">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E196),"."," ")," De "," de "))</f>
+        <v>Banheiro</v>
+      </c>
+      <c r="O196" s="26" t="str">
+        <f t="shared" ref="O196" si="62">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",F196),"."," ")," De "," de "))</f>
+        <v>Peça Sanitária</v>
+      </c>
+      <c r="P196" s="21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q196" s="21" t="s">
+        <v>1044</v>
+      </c>
+      <c r="R196" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S196" s="27" t="str">
+        <f t="shared" ref="S196" si="63">SUBSTITUTE(C196, "_", " ")</f>
+        <v>Equipamento</v>
+      </c>
+      <c r="T196" s="27" t="str">
+        <f t="shared" ref="T196" si="64">SUBSTITUTE(D196, "_", " ")</f>
+        <v>Sanitário</v>
+      </c>
+      <c r="U196" s="27" t="str">
+        <f t="shared" ref="U196" si="65">SUBSTITUTE(E196, "_", " ")</f>
+        <v>Banheiro</v>
+      </c>
+      <c r="V196" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W196" s="1" t="str">
+        <f t="shared" ref="W196" si="66">CONCATENATE("Key.",LEFT(C196,3),".",A196)</f>
+        <v>Key.Equ.196</v>
+      </c>
+      <c r="X196" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y196" s="80" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="23">
+        <v>197</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C197" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F197" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G197" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H197" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I197" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J197" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K197" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L197" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M197" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="N197" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="O197" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Banheira</v>
+      </c>
+      <c r="P197" s="21" t="s">
+        <v>1015</v>
+      </c>
+      <c r="Q197" s="21" t="s">
+        <v>1016</v>
+      </c>
+      <c r="R197" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S197" s="27" t="str">
+        <f t="shared" ref="S197:U227" si="67">SUBSTITUTE(C197, "_", " ")</f>
+        <v>Equipamento</v>
+      </c>
+      <c r="T197" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="U197" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="V197" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W197" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.197</v>
+      </c>
+      <c r="X197" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y197" s="80" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="23">
+        <v>198</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C198" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F198" s="25" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G198" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H198" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I198" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J198" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K198" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L198" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M198" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="N198" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="O198" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">Bebedouro </v>
+      </c>
+      <c r="P198" s="21" t="s">
+        <v>1020</v>
+      </c>
+      <c r="Q198" s="21" t="s">
+        <v>1021</v>
+      </c>
+      <c r="R198" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S198" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T198" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="U198" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="V198" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W198" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.198</v>
+      </c>
+      <c r="X198" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y198" s="80" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="23">
+        <v>199</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C199" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F199" s="25" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G199" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H199" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I199" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J199" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K199" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L199" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M199" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="N199" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="O199" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Bidet</v>
+      </c>
+      <c r="P199" s="21" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Q199" s="21" t="s">
+        <v>1025</v>
+      </c>
+      <c r="R199" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S199" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T199" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="U199" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="V199" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W199" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.199</v>
+      </c>
+      <c r="X199" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y199" s="80" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="23">
+        <v>200</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C200" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F200" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G200" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H200" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I200" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J200" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K200" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L200" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M200" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="N200" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="O200" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Chuveiro</v>
+      </c>
+      <c r="P200" s="21" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q200" s="21" t="s">
+        <v>1029</v>
+      </c>
+      <c r="R200" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S200" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T200" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="U200" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="V200" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W200" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.200</v>
+      </c>
+      <c r="X200" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y200" s="80" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="23">
+        <v>201</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C201" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F201" s="25" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G201" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H201" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I201" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J201" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K201" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L201" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M201" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="N201" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="O201" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">Lavatório </v>
+      </c>
+      <c r="P201" s="21" t="s">
+        <v>1032</v>
+      </c>
+      <c r="Q201" s="21" t="s">
+        <v>1033</v>
+      </c>
+      <c r="R201" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S201" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T201" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="U201" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="V201" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W201" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.201</v>
+      </c>
+      <c r="X201" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y201" s="80" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A202" s="23">
+        <v>202</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C202" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F202" s="25" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G202" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H202" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I202" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J202" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K202" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L202" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M202" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="N202" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="O202" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Mictório</v>
+      </c>
+      <c r="P202" s="21" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q202" s="21" t="s">
+        <v>1037</v>
+      </c>
+      <c r="R202" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S202" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T202" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="U202" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="V202" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W202" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.202</v>
+      </c>
+      <c r="X202" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y202" s="80" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A203" s="23">
+        <v>203</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C203" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F203" s="25" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G203" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H203" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I203" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J203" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K203" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L203" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M203" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="N203" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="O203" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Pia</v>
+      </c>
+      <c r="P203" s="21" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Q203" s="21" t="s">
+        <v>1041</v>
+      </c>
+      <c r="R203" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S203" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T203" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="U203" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="V203" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W203" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.203</v>
+      </c>
+      <c r="X203" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y203" s="80" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="23">
+        <v>204</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C204" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F204" s="25" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G204" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H204" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I204" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J204" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K204" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L204" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M204" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="N204" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="O204" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Vaso Sanitário</v>
+      </c>
+      <c r="P204" s="21" t="s">
+        <v>1047</v>
+      </c>
+      <c r="Q204" s="21" t="s">
+        <v>1048</v>
+      </c>
+      <c r="R204" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S204" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T204" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="U204" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="V204" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W204" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.204</v>
+      </c>
+      <c r="X204" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y204" s="80" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A205" s="23">
+        <v>205</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C205" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F205" s="25" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G205" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H205" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I205" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J205" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K205" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L205" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M205" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="N205" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="O205" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Vaso Sanitário Assento</v>
+      </c>
+      <c r="P205" s="21" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Q205" s="21" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R205" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S205" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T205" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="U205" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="V205" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W205" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.205</v>
+      </c>
+      <c r="X205" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y205" s="80" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="23">
+        <v>206</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C206" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F206" s="25" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G206" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H206" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I206" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J206" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K206" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L206" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M206" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="N206" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="O206" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">Vaso Sanitário Caixa </v>
+      </c>
+      <c r="P206" s="21" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Q206" s="21" t="s">
+        <v>1056</v>
+      </c>
+      <c r="R206" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S206" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T206" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Sanitário</v>
+      </c>
+      <c r="U206" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Banheiro</v>
+      </c>
+      <c r="V206" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W206" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.206</v>
+      </c>
+      <c r="X206" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y206" s="80" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A207" s="23">
+        <v>207</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C207" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E207" s="25" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F207" s="25" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G207" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H207" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I207" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J207" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K207" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L207" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M207" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>De.Apoio</v>
+      </c>
+      <c r="N207" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Bancada Fixa</v>
+      </c>
+      <c r="O207" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Bancada Banheiro</v>
+      </c>
+      <c r="P207" s="21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q207" s="21" t="s">
+        <v>1044</v>
+      </c>
+      <c r="R207" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S207" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T207" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>De.Apoio</v>
+      </c>
+      <c r="U207" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Bancada.Fixa</v>
+      </c>
+      <c r="V207" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W207" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.207</v>
+      </c>
+      <c r="X207" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y207" s="80" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A208" s="23">
+        <v>208</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C208" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E208" s="25" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F208" s="25" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G208" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H208" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I208" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J208" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K208" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L208" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M208" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>De.Apoio</v>
+      </c>
+      <c r="N208" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Bancada Fixa</v>
+      </c>
+      <c r="O208" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Bancada Cozinha</v>
+      </c>
+      <c r="P208" s="21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q208" s="21" t="s">
+        <v>1044</v>
+      </c>
+      <c r="R208" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S208" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T208" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>De.Apoio</v>
+      </c>
+      <c r="U208" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Bancada.Fixa</v>
+      </c>
+      <c r="V208" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W208" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.208</v>
+      </c>
+      <c r="X208" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y208" s="80" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A209" s="23">
+        <v>209</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C209" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E209" s="25" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F209" s="25" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G209" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H209" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I209" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J209" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K209" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L209" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M209" s="26" t="str">
+        <f t="shared" si="52"/>
+        <v>De.Apoio</v>
+      </c>
+      <c r="N209" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Bancada Fixa</v>
+      </c>
+      <c r="O209" s="26" t="str">
+        <f t="shared" si="54"/>
+        <v>Bancada Laboratório</v>
+      </c>
+      <c r="P209" s="21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q209" s="21" t="s">
+        <v>1044</v>
+      </c>
+      <c r="R209" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S209" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T209" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>De.Apoio</v>
+      </c>
+      <c r="U209" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Bancada.Fixa</v>
+      </c>
+      <c r="V209" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W209" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.209</v>
+      </c>
+      <c r="X209" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y209" s="80" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A210" s="23">
+        <v>210</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C210" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F210" s="25" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G210" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H210" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I210" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J210" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K210" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L210" s="26" t="str">
+        <f t="shared" ref="L210:M269" si="68">CONCATENATE("", C210)</f>
+        <v>Equipamento</v>
+      </c>
+      <c r="M210" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N210" s="26" t="str">
+        <f t="shared" ref="N210:O269" si="69">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E210),"."," ")," De "," de "))</f>
+        <v>Elétrica Geral</v>
+      </c>
+      <c r="O210" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aparelho Elétrico</v>
+      </c>
+      <c r="P210" s="21" t="s">
+        <v>1066</v>
+      </c>
+      <c r="Q210" s="21" t="s">
+        <v>1067</v>
+      </c>
+      <c r="R210" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S210" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T210" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U210" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Geral</v>
+      </c>
+      <c r="V210" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W210" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.210</v>
+      </c>
+      <c r="X210" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y210" s="80" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A211" s="23">
+        <v>211</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C211" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F211" s="25" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G211" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H211" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I211" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J211" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K211" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L211" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M211" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N211" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Elétrica Geral</v>
+      </c>
+      <c r="O211" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aquecedor Agua Portátil</v>
+      </c>
+      <c r="P211" s="21" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Q211" s="21" t="s">
+        <v>1072</v>
+      </c>
+      <c r="R211" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S211" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T211" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U211" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Geral</v>
+      </c>
+      <c r="V211" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W211" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.211</v>
+      </c>
+      <c r="X211" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y211" s="80" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A212" s="23">
+        <v>212</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C212" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F212" s="25" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G212" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H212" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I212" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J212" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K212" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L212" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M212" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N212" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Elétrica Geral</v>
+      </c>
+      <c r="O212" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aquecedor Elétrico Portátil</v>
+      </c>
+      <c r="P212" s="21" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Q212" s="21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="R212" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S212" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T212" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U212" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Geral</v>
+      </c>
+      <c r="V212" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W212" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.212</v>
+      </c>
+      <c r="X212" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y212" s="80" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A213" s="23">
+        <v>213</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C213" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F213" s="25" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G213" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H213" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I213" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J213" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K213" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L213" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M213" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N213" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Elétrica Geral</v>
+      </c>
+      <c r="O213" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Bebedouro Elétrico Portátil</v>
+      </c>
+      <c r="P213" s="21" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q213" s="21" t="s">
+        <v>1080</v>
+      </c>
+      <c r="R213" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S213" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T213" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U213" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Geral</v>
+      </c>
+      <c r="V213" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W213" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.213</v>
+      </c>
+      <c r="X213" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y213" s="80" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A214" s="23">
+        <v>214</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C214" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F214" s="25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G214" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H214" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I214" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J214" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K214" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L214" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M214" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N214" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Elétrica Geral</v>
+      </c>
+      <c r="O214" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Ventilador Portátil</v>
+      </c>
+      <c r="P214" s="21" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Q214" s="21" t="s">
+        <v>1084</v>
+      </c>
+      <c r="R214" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S214" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T214" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U214" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Geral</v>
+      </c>
+      <c r="V214" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W214" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.214</v>
+      </c>
+      <c r="X214" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y214" s="80" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A215" s="23">
+        <v>215</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C215" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F215" s="25" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G215" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H215" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I215" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J215" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K215" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L215" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M215" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N215" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Elétrica Geral</v>
+      </c>
+      <c r="O215" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Seca Mãos</v>
+      </c>
+      <c r="P215" s="21" t="s">
+        <v>1087</v>
+      </c>
+      <c r="Q215" s="21" t="s">
+        <v>1088</v>
+      </c>
+      <c r="R215" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S215" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T215" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U215" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Geral</v>
+      </c>
+      <c r="V215" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W215" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.215</v>
+      </c>
+      <c r="X215" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y215" s="80" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A216" s="23">
+        <v>216</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C216" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F216" s="25" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G216" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H216" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I216" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J216" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K216" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L216" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M216" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N216" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Elétrica Cozinha</v>
+      </c>
+      <c r="O216" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Fogão Elétrico</v>
+      </c>
+      <c r="P216" s="21" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q216" s="21" t="s">
+        <v>1093</v>
+      </c>
+      <c r="R216" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S216" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T216" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U216" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Cozinha</v>
+      </c>
+      <c r="V216" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W216" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.216</v>
+      </c>
+      <c r="X216" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y216" s="80" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="23">
+        <v>217</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C217" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F217" s="25" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G217" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H217" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I217" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J217" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K217" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L217" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M217" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N217" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Elétrica Cozinha</v>
+      </c>
+      <c r="O217" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Forno Microondas</v>
+      </c>
+      <c r="P217" s="21" t="s">
+        <v>1096</v>
+      </c>
+      <c r="Q217" s="21" t="s">
+        <v>1097</v>
+      </c>
+      <c r="R217" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S217" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T217" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U217" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Cozinha</v>
+      </c>
+      <c r="V217" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W217" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.217</v>
+      </c>
+      <c r="X217" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y217" s="80" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A218" s="23">
+        <v>218</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C218" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F218" s="25" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G218" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H218" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I218" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J218" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K218" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L218" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M218" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N218" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Elétrica Cozinha</v>
+      </c>
+      <c r="O218" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Freezer</v>
+      </c>
+      <c r="P218" s="21" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q218" s="21" t="s">
+        <v>1101</v>
+      </c>
+      <c r="R218" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S218" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T218" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U218" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Cozinha</v>
+      </c>
+      <c r="V218" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W218" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.218</v>
+      </c>
+      <c r="X218" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y218" s="80" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A219" s="23">
+        <v>219</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C219" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F219" s="25" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G219" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H219" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I219" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J219" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K219" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L219" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M219" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N219" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Elétrica Cozinha</v>
+      </c>
+      <c r="O219" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Geladeira</v>
+      </c>
+      <c r="P219" s="21" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Q219" s="21" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R219" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S219" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T219" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U219" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Cozinha</v>
+      </c>
+      <c r="V219" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W219" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.219</v>
+      </c>
+      <c r="X219" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y219" s="80" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A220" s="23">
+        <v>220</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C220" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F220" s="25" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G220" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H220" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I220" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J220" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K220" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L220" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M220" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N220" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Elétrica Cozinha</v>
+      </c>
+      <c r="O220" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>LavaLouça</v>
+      </c>
+      <c r="P220" s="21" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Q220" s="21" t="s">
+        <v>1109</v>
+      </c>
+      <c r="R220" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S220" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T220" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U220" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Cozinha</v>
+      </c>
+      <c r="V220" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W220" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.220</v>
+      </c>
+      <c r="X220" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y220" s="80" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="221" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A221" s="23">
+        <v>221</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C221" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F221" s="25" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G221" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H221" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I221" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J221" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K221" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L221" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M221" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N221" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Elétrica Cozinha</v>
+      </c>
+      <c r="O221" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>LavaRoupa</v>
+      </c>
+      <c r="P221" s="21" t="s">
+        <v>1112</v>
+      </c>
+      <c r="Q221" s="21" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R221" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S221" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T221" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U221" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Cozinha</v>
+      </c>
+      <c r="V221" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W221" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.221</v>
+      </c>
+      <c r="X221" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y221" s="80" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A222" s="23">
+        <v>222</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C222" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F222" s="25" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G222" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H222" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I222" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J222" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K222" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L222" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M222" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N222" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Elétrica Cozinha</v>
+      </c>
+      <c r="O222" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Processador</v>
+      </c>
+      <c r="P222" s="21" t="s">
+        <v>1116</v>
+      </c>
+      <c r="Q222" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="R222" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S222" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T222" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U222" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Cozinha</v>
+      </c>
+      <c r="V222" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W222" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.222</v>
+      </c>
+      <c r="X222" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y222" s="80" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A223" s="23">
+        <v>223</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C223" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F223" s="25" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G223" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H223" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I223" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J223" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K223" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L223" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M223" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N223" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Elétrica Cozinha</v>
+      </c>
+      <c r="O223" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Refrigerador</v>
+      </c>
+      <c r="P223" s="21" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q223" s="21" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R223" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S223" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T223" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U223" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Cozinha</v>
+      </c>
+      <c r="V223" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W223" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.223</v>
+      </c>
+      <c r="X223" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y223" s="80" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A224" s="23">
+        <v>224</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C224" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F224" s="25" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G224" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H224" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I224" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J224" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K224" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L224" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M224" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N224" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Elétrica Cozinha</v>
+      </c>
+      <c r="O224" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Seca Roupa</v>
+      </c>
+      <c r="P224" s="21" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Q224" s="21" t="s">
+        <v>1125</v>
+      </c>
+      <c r="R224" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S224" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T224" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U224" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Cozinha</v>
+      </c>
+      <c r="V224" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W224" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.224</v>
+      </c>
+      <c r="X224" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y224" s="80" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A225" s="23">
+        <v>225</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C225" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F225" s="25" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G225" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H225" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I225" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J225" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K225" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L225" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M225" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N225" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Elétrica Escritório</v>
+      </c>
+      <c r="O225" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Fotocopiadora</v>
+      </c>
+      <c r="P225" s="21" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q225" s="21" t="s">
+        <v>1130</v>
+      </c>
+      <c r="R225" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S225" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T225" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U225" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Escritório</v>
+      </c>
+      <c r="V225" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W225" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.225</v>
+      </c>
+      <c r="X225" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y225" s="80" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A226" s="23">
+        <v>226</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C226" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F226" s="25" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G226" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H226" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I226" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J226" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K226" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L226" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M226" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="N226" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Elétrica Escritório</v>
+      </c>
+      <c r="O226" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Máquina Venda</v>
+      </c>
+      <c r="P226" s="21" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Q226" s="21" t="s">
+        <v>1134</v>
+      </c>
+      <c r="R226" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S226" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T226" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrico</v>
+      </c>
+      <c r="U226" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Elétrica.Escritório</v>
+      </c>
+      <c r="V226" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W226" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.226</v>
+      </c>
+      <c r="X226" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Y226" s="80" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A227" s="23">
+        <v>227</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C227" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F227" s="25" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G227" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H227" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I227" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J227" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K227" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L227" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M227" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="N227" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aparelho Avi</v>
+      </c>
+      <c r="O227" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aparelho AudioVisual</v>
+      </c>
+      <c r="P227" s="21" t="s">
+        <v>1139</v>
+      </c>
+      <c r="Q227" s="21" t="s">
+        <v>1140</v>
+      </c>
+      <c r="R227" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S227" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T227" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="U227" s="27" t="str">
+        <f t="shared" si="67"/>
+        <v>Aparelho.Avi</v>
+      </c>
+      <c r="V227" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W227" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.227</v>
+      </c>
+      <c r="X227" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y227" s="80" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A228" s="23">
+        <v>228</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C228" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F228" s="25" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G228" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H228" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I228" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J228" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K228" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L228" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M228" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="N228" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aparelho Avi</v>
+      </c>
+      <c r="O228" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Amplificador</v>
+      </c>
+      <c r="P228" s="21" t="s">
+        <v>1144</v>
+      </c>
+      <c r="Q228" s="21" t="s">
+        <v>1145</v>
+      </c>
+      <c r="R228" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S228" s="27" t="str">
+        <f t="shared" ref="S228:U246" si="70">SUBSTITUTE(C228, "_", " ")</f>
+        <v>Equipamento</v>
+      </c>
+      <c r="T228" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="U228" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Aparelho.Avi</v>
+      </c>
+      <c r="V228" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W228" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.228</v>
+      </c>
+      <c r="X228" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y228" s="80" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A229" s="23">
+        <v>229</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C229" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F229" s="25" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G229" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H229" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I229" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J229" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K229" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L229" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M229" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="N229" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aparelho Avi</v>
+      </c>
+      <c r="O229" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Câmera</v>
+      </c>
+      <c r="P229" s="21" t="s">
+        <v>1148</v>
+      </c>
+      <c r="Q229" s="21" t="s">
+        <v>1149</v>
+      </c>
+      <c r="R229" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S229" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T229" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="U229" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Aparelho.Avi</v>
+      </c>
+      <c r="V229" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W229" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.229</v>
+      </c>
+      <c r="X229" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y229" s="80" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A230" s="23">
+        <v>230</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C230" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F230" s="25" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G230" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H230" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I230" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J230" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K230" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L230" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M230" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="N230" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aparelho Avi</v>
+      </c>
+      <c r="O230" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Terminal de Comunicação</v>
+      </c>
+      <c r="P230" s="21" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Q230" s="21" t="s">
+        <v>1153</v>
+      </c>
+      <c r="R230" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S230" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T230" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="U230" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Aparelho.Avi</v>
+      </c>
+      <c r="V230" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W230" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.230</v>
+      </c>
+      <c r="X230" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y230" s="80" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A231" s="23">
+        <v>231</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C231" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F231" s="25" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G231" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H231" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I231" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J231" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K231" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L231" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M231" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="N231" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aparelho Avi</v>
+      </c>
+      <c r="O231" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Monitor</v>
+      </c>
+      <c r="P231" s="21" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Q231" s="21" t="s">
+        <v>1157</v>
+      </c>
+      <c r="R231" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S231" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T231" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="U231" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Aparelho.Avi</v>
+      </c>
+      <c r="V231" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W231" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.231</v>
+      </c>
+      <c r="X231" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y231" s="80" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A232" s="23">
+        <v>232</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C232" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F232" s="25" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G232" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H232" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I232" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J232" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K232" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L232" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M232" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="N232" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aparelho Avi</v>
+      </c>
+      <c r="O232" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Microfone</v>
+      </c>
+      <c r="P232" s="21" t="s">
+        <v>1160</v>
+      </c>
+      <c r="Q232" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="R232" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S232" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T232" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="U232" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Aparelho.Avi</v>
+      </c>
+      <c r="V232" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W232" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.232</v>
+      </c>
+      <c r="X232" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y232" s="80" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A233" s="23">
+        <v>233</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C233" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F233" s="25" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G233" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H233" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I233" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J233" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K233" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L233" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M233" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="N233" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aparelho Avi</v>
+      </c>
+      <c r="O233" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Reprodutor</v>
+      </c>
+      <c r="P233" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Q233" s="21" t="s">
+        <v>1165</v>
+      </c>
+      <c r="R233" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S233" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T233" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="U233" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Aparelho.Avi</v>
+      </c>
+      <c r="V233" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W233" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.233</v>
+      </c>
+      <c r="X233" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y233" s="80" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="234" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A234" s="23">
+        <v>234</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C234" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F234" s="25" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G234" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H234" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I234" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J234" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K234" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L234" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M234" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="N234" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aparelho Avi</v>
+      </c>
+      <c r="O234" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Projetor</v>
+      </c>
+      <c r="P234" s="21" t="s">
+        <v>1168</v>
+      </c>
+      <c r="Q234" s="21" t="s">
+        <v>1169</v>
+      </c>
+      <c r="R234" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S234" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T234" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="U234" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Aparelho.Avi</v>
+      </c>
+      <c r="V234" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W234" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.234</v>
+      </c>
+      <c r="X234" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y234" s="80" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="235" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A235" s="23">
+        <v>235</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C235" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F235" s="25" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G235" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H235" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I235" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J235" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K235" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L235" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M235" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="N235" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aparelho Avi</v>
+      </c>
+      <c r="O235" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Receptor</v>
+      </c>
+      <c r="P235" s="21" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Q235" s="21" t="s">
+        <v>1173</v>
+      </c>
+      <c r="R235" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S235" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T235" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="U235" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Aparelho.Avi</v>
+      </c>
+      <c r="V235" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W235" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.235</v>
+      </c>
+      <c r="X235" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y235" s="80" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A236" s="23">
+        <v>236</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C236" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F236" s="25" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G236" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H236" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I236" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J236" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K236" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L236" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M236" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="N236" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aparelho Avi</v>
+      </c>
+      <c r="O236" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Equipo de Gravação</v>
+      </c>
+      <c r="P236" s="21" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Q236" s="21" t="s">
+        <v>1177</v>
+      </c>
+      <c r="R236" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S236" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T236" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="U236" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Aparelho.Avi</v>
+      </c>
+      <c r="V236" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W236" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.236</v>
+      </c>
+      <c r="X236" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y236" s="80" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A237" s="23">
+        <v>237</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C237" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F237" s="25" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G237" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H237" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I237" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J237" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K237" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L237" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M237" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="N237" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aparelho Avi</v>
+      </c>
+      <c r="O237" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Alto-falante</v>
+      </c>
+      <c r="P237" s="21" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Q237" s="21" t="s">
+        <v>1181</v>
+      </c>
+      <c r="R237" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S237" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T237" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="U237" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Aparelho.Avi</v>
+      </c>
+      <c r="V237" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W237" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.237</v>
+      </c>
+      <c r="X237" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y237" s="80" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A238" s="23">
+        <v>238</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C238" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F238" s="25" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G238" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H238" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I238" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J238" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K238" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L238" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M238" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="N238" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aparelho Avi</v>
+      </c>
+      <c r="O238" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Comutador</v>
+      </c>
+      <c r="P238" s="21" t="s">
+        <v>1184</v>
+      </c>
+      <c r="Q238" s="21" t="s">
+        <v>1185</v>
+      </c>
+      <c r="R238" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S238" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T238" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="U238" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Aparelho.Avi</v>
+      </c>
+      <c r="V238" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W238" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.238</v>
+      </c>
+      <c r="X238" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y238" s="80" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A239" s="23">
+        <v>239</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C239" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F239" s="25" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G239" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H239" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I239" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J239" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K239" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L239" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M239" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="N239" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aparelho Avi</v>
+      </c>
+      <c r="O239" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Telefone</v>
+      </c>
+      <c r="P239" s="21" t="s">
+        <v>1188</v>
+      </c>
+      <c r="Q239" s="21" t="s">
+        <v>1189</v>
+      </c>
+      <c r="R239" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S239" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T239" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="U239" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Aparelho.Avi</v>
+      </c>
+      <c r="V239" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W239" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.239</v>
+      </c>
+      <c r="X239" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y239" s="80" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A240" s="23">
+        <v>240</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C240" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F240" s="25" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G240" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H240" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I240" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J240" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K240" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L240" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="M240" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="N240" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Aparelho Avi</v>
+      </c>
+      <c r="O240" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">Sintonizador </v>
+      </c>
+      <c r="P240" s="21" t="s">
+        <v>1192</v>
+      </c>
+      <c r="Q240" s="21" t="s">
+        <v>1193</v>
+      </c>
+      <c r="R240" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S240" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Equipamento</v>
+      </c>
+      <c r="T240" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>AudioVisual</v>
+      </c>
+      <c r="U240" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Aparelho.Avi</v>
+      </c>
+      <c r="V240" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W240" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Equ.240</v>
+      </c>
+      <c r="X240" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y240" s="80" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A241" s="23">
+        <v>241</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F241" s="25" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G241" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H241" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I241" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J241" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K241" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L241" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M241" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Plano.Horizontal</v>
+      </c>
+      <c r="N241" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Andar</v>
+      </c>
+      <c r="O241" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Andar Prédio</v>
+      </c>
+      <c r="P241" s="21" t="s">
+        <v>1199</v>
+      </c>
+      <c r="Q241" s="21" t="s">
+        <v>1200</v>
+      </c>
+      <c r="R241" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S241" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Espacial</v>
+      </c>
+      <c r="T241" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Plano.Horizontal</v>
+      </c>
+      <c r="U241" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Andar</v>
+      </c>
+      <c r="V241" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W241" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.241</v>
+      </c>
+      <c r="X241" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Y241" s="80" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A242" s="23">
+        <v>242</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F242" s="25" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G242" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H242" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I242" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J242" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K242" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L242" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M242" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Plano.Vertical</v>
+      </c>
+      <c r="N242" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Eixo</v>
+      </c>
+      <c r="O242" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Eixo Estrutural</v>
+      </c>
+      <c r="P242" s="21" t="s">
+        <v>1206</v>
+      </c>
+      <c r="Q242" s="21" t="s">
+        <v>1207</v>
+      </c>
+      <c r="R242" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S242" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Espacial</v>
+      </c>
+      <c r="T242" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Plano.Vertical</v>
+      </c>
+      <c r="U242" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Eixo</v>
+      </c>
+      <c r="V242" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W242" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.242</v>
+      </c>
+      <c r="X242" s="49" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Y242" s="80" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A243" s="23">
+        <v>243</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F243" s="25" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G243" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H243" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I243" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J243" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K243" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L243" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M243" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Plano.Vertical</v>
+      </c>
+      <c r="N243" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Eixo</v>
+      </c>
+      <c r="O243" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Eixo Estrutural Irregular</v>
+      </c>
+      <c r="P243" s="21" t="s">
+        <v>1211</v>
+      </c>
+      <c r="Q243" s="21" t="s">
+        <v>1212</v>
+      </c>
+      <c r="R243" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S243" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Espacial</v>
+      </c>
+      <c r="T243" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Plano.Vertical</v>
+      </c>
+      <c r="U243" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Eixo</v>
+      </c>
+      <c r="V243" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W243" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.243</v>
+      </c>
+      <c r="X243" s="49" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Y243" s="80" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A244" s="23">
+        <v>244</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F244" s="25" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G244" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H244" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I244" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J244" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K244" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L244" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M244" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Plano.Vertical</v>
+      </c>
+      <c r="N244" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Eixo</v>
+      </c>
+      <c r="O244" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Eixo Estrutural Radial</v>
+      </c>
+      <c r="P244" s="21" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Q244" s="21" t="s">
+        <v>1216</v>
+      </c>
+      <c r="R244" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S244" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Espacial</v>
+      </c>
+      <c r="T244" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Plano.Vertical</v>
+      </c>
+      <c r="U244" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Eixo</v>
+      </c>
+      <c r="V244" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W244" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.244</v>
+      </c>
+      <c r="X244" s="49" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Y244" s="80" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="245" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A245" s="23">
+        <v>245</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F245" s="25" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G245" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H245" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I245" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J245" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K245" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L245" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M245" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Plano.Vertical</v>
+      </c>
+      <c r="N245" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Eixo</v>
+      </c>
+      <c r="O245" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Eixo Estrutural Retangular</v>
+      </c>
+      <c r="P245" s="21" t="s">
+        <v>1219</v>
+      </c>
+      <c r="Q245" s="21" t="s">
+        <v>1220</v>
+      </c>
+      <c r="R245" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S245" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Espacial</v>
+      </c>
+      <c r="T245" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Plano.Vertical</v>
+      </c>
+      <c r="U245" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Eixo</v>
+      </c>
+      <c r="V245" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W245" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.245</v>
+      </c>
+      <c r="X245" s="49" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Y245" s="80" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A246" s="23">
+        <v>246</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F246" s="25" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G246" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H246" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I246" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J246" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K246" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L246" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M246" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Plano.Vertical</v>
+      </c>
+      <c r="N246" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Eixo</v>
+      </c>
+      <c r="O246" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Eixo Estrutural Triangular</v>
+      </c>
+      <c r="P246" s="21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="Q246" s="21" t="s">
+        <v>1224</v>
+      </c>
+      <c r="R246" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S246" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Espacial</v>
+      </c>
+      <c r="T246" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Plano.Vertical</v>
+      </c>
+      <c r="U246" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Eixo</v>
+      </c>
+      <c r="V246" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W246" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.246</v>
+      </c>
+      <c r="X246" s="49" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Y246" s="80" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A247" s="23">
+        <v>247</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F247" s="25" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G247" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H247" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I247" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J247" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K247" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L247" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M247" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Areas</v>
+      </c>
+      <c r="N247" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>A Externa</v>
+      </c>
+      <c r="O247" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Espaço Externo</v>
+      </c>
+      <c r="P247" s="21" t="s">
+        <v>1229</v>
+      </c>
+      <c r="Q247" s="21" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R247" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S247" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T247" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U247" s="27" t="s">
+        <v>1232</v>
+      </c>
+      <c r="V247" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W247" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.247</v>
+      </c>
+      <c r="X247" s="49" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Y247" s="80" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="23">
+        <v>248</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F248" s="25" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G248" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H248" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I248" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J248" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K248" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L248" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M248" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Areas</v>
+      </c>
+      <c r="N248" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>A Externa</v>
+      </c>
+      <c r="O248" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Espaço Aereo</v>
+      </c>
+      <c r="P248" s="21" t="s">
+        <v>1236</v>
+      </c>
+      <c r="Q248" s="21" t="s">
+        <v>1237</v>
+      </c>
+      <c r="R248" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S248" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T248" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U248" s="27" t="s">
+        <v>1232</v>
+      </c>
+      <c r="V248" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W248" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.248</v>
+      </c>
+      <c r="X248" s="49" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Y248" s="80" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="23">
+        <v>249</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F249" s="25" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G249" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H249" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I249" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J249" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K249" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L249" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M249" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Areas</v>
+      </c>
+      <c r="N249" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>A Externa</v>
+      </c>
+      <c r="O249" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Espaço Exterior</v>
+      </c>
+      <c r="P249" s="21" t="s">
+        <v>1239</v>
+      </c>
+      <c r="Q249" s="21" t="s">
+        <v>1240</v>
+      </c>
+      <c r="R249" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S249" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T249" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U249" s="27" t="s">
+        <v>1232</v>
+      </c>
+      <c r="V249" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W249" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.249</v>
+      </c>
+      <c r="X249" s="49" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Y249" s="80" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="250" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A250" s="23">
+        <v>250</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F250" s="25" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G250" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H250" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I250" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J250" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K250" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L250" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M250" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Areas</v>
+      </c>
+      <c r="N250" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>A Externa</v>
+      </c>
+      <c r="O250" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Espaço Construção Vizinha</v>
+      </c>
+      <c r="P250" s="21" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Q250" s="21" t="s">
+        <v>1244</v>
+      </c>
+      <c r="R250" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S250" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T250" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U250" s="27" t="s">
+        <v>1232</v>
+      </c>
+      <c r="V250" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W250" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.250</v>
+      </c>
+      <c r="X250" s="49" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Y250" s="80" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="251" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A251" s="23">
+        <v>251</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F251" s="25" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G251" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H251" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I251" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J251" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K251" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L251" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M251" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Areas</v>
+      </c>
+      <c r="N251" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>A Externa</v>
+      </c>
+      <c r="O251" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Espaço Espelho Agua</v>
+      </c>
+      <c r="P251" s="21" t="s">
+        <v>1247</v>
+      </c>
+      <c r="Q251" s="21" t="s">
+        <v>1248</v>
+      </c>
+      <c r="R251" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S251" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T251" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U251" s="27" t="s">
+        <v>1232</v>
+      </c>
+      <c r="V251" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W251" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.251</v>
+      </c>
+      <c r="X251" s="49" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Y251" s="80" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A252" s="23">
+        <v>252</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F252" s="25" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G252" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H252" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I252" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J252" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K252" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L252" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M252" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Areas</v>
+      </c>
+      <c r="N252" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>A Externa</v>
+      </c>
+      <c r="O252" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Espaço de Exteriores</v>
+      </c>
+      <c r="P252" s="21" t="s">
+        <v>1251</v>
+      </c>
+      <c r="Q252" s="21" t="s">
+        <v>1252</v>
+      </c>
+      <c r="R252" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S252" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T252" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U252" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V252" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W252" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.252</v>
+      </c>
+      <c r="X252" s="49" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Y252" s="80" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="253" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A253" s="23">
+        <v>253</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F253" s="25" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G253" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H253" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I253" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J253" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K253" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L253" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M253" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Areas</v>
+      </c>
+      <c r="N253" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>A Externa</v>
+      </c>
+      <c r="O253" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Estacionamento</v>
+      </c>
+      <c r="P253" s="21" t="s">
+        <v>1256</v>
+      </c>
+      <c r="Q253" s="21" t="s">
+        <v>1257</v>
+      </c>
+      <c r="R253" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S253" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T253" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U253" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V253" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W253" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.253</v>
+      </c>
+      <c r="X253" s="49" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Y253" s="80" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A254" s="23">
+        <v>254</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F254" s="25" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G254" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H254" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I254" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J254" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K254" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L254" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M254" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Areas</v>
+      </c>
+      <c r="N254" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>A Externa</v>
+      </c>
+      <c r="O254" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Área Bruta</v>
+      </c>
+      <c r="P254" s="21" t="s">
+        <v>1260</v>
+      </c>
+      <c r="Q254" s="21" t="s">
+        <v>1261</v>
+      </c>
+      <c r="R254" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S254" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T254" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U254" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V254" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W254" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.254</v>
+      </c>
+      <c r="X254" s="49" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Y254" s="80" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A255" s="23">
+        <v>255</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F255" s="25" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G255" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H255" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I255" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J255" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K255" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L255" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M255" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Ambientes</v>
+      </c>
+      <c r="N255" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>A Interior</v>
+      </c>
+      <c r="O255" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Ambiente Interior</v>
+      </c>
+      <c r="P255" s="21" t="s">
+        <v>1265</v>
+      </c>
+      <c r="Q255" s="21" t="s">
+        <v>1266</v>
+      </c>
+      <c r="R255" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S255" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T255" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U255" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V255" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W255" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.255</v>
+      </c>
+      <c r="X255" s="49" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Y255" s="80" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A256" s="23">
+        <v>256</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F256" s="25" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G256" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H256" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I256" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J256" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K256" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L256" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M256" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Ambientes</v>
+      </c>
+      <c r="N256" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>A Interior</v>
+      </c>
+      <c r="O256" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Ambiente Funcional</v>
+      </c>
+      <c r="P256" s="21" t="s">
+        <v>1270</v>
+      </c>
+      <c r="Q256" s="21" t="s">
+        <v>1271</v>
+      </c>
+      <c r="R256" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S256" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T256" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U256" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V256" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W256" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.256</v>
+      </c>
+      <c r="X256" s="49" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Y256" s="80" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A257" s="23">
+        <v>257</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F257" s="25" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G257" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H257" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I257" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J257" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K257" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L257" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M257" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Ambientes</v>
+      </c>
+      <c r="N257" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>A Interior</v>
+      </c>
+      <c r="O257" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Ambiente Interno</v>
+      </c>
+      <c r="P257" s="21" t="s">
+        <v>1274</v>
+      </c>
+      <c r="Q257" s="21" t="s">
+        <v>1275</v>
+      </c>
+      <c r="R257" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S257" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T257" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U257" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V257" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W257" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>Key.Esp.257</v>
+      </c>
+      <c r="X257" s="49" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Y257" s="80" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A258" s="23">
+        <v>258</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F258" s="25" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G258" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H258" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I258" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J258" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K258" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L258" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M258" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Ambientes</v>
+      </c>
+      <c r="N258" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>A Interior</v>
+      </c>
+      <c r="O258" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Utilizável</v>
+      </c>
+      <c r="P258" s="21" t="s">
+        <v>1278</v>
+      </c>
+      <c r="Q258" s="21" t="s">
+        <v>1279</v>
+      </c>
+      <c r="R258" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S258" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T258" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U258" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V258" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W258" s="1" t="str">
+        <f t="shared" ref="W258:W269" si="71">CONCATENATE("Key.",LEFT(C258,3),".",A258)</f>
+        <v>Key.Esp.258</v>
+      </c>
+      <c r="X258" s="49" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Y258" s="80" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="259" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A259" s="23">
+        <v>259</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F259" s="25" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G259" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H259" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I259" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J259" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K259" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L259" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M259" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Zonas</v>
+      </c>
+      <c r="N259" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona</v>
+      </c>
+      <c r="O259" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona Espacial</v>
+      </c>
+      <c r="P259" s="21" t="s">
+        <v>1284</v>
+      </c>
+      <c r="Q259" s="21" t="s">
+        <v>1285</v>
+      </c>
+      <c r="R259" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S259" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T259" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U259" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V259" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W259" s="1" t="str">
+        <f t="shared" si="71"/>
+        <v>Key.Esp.259</v>
+      </c>
+      <c r="X259" s="49" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Y259" s="80" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A260" s="23">
+        <v>260</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F260" s="25" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G260" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H260" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I260" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J260" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K260" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L260" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M260" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Zonas</v>
+      </c>
+      <c r="N260" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona</v>
+      </c>
+      <c r="O260" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona de Construção</v>
+      </c>
+      <c r="P260" s="21" t="s">
+        <v>1289</v>
+      </c>
+      <c r="Q260" s="21" t="s">
+        <v>1290</v>
+      </c>
+      <c r="R260" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S260" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T260" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U260" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V260" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W260" s="1" t="str">
+        <f t="shared" si="71"/>
+        <v>Key.Esp.260</v>
+      </c>
+      <c r="X260" s="49" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Y260" s="80" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A261" s="23">
+        <v>261</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F261" s="25" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G261" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H261" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I261" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J261" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K261" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L261" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M261" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Zonas</v>
+      </c>
+      <c r="N261" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona</v>
+      </c>
+      <c r="O261" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona de Segurança Incêndio</v>
+      </c>
+      <c r="P261" s="21" t="s">
+        <v>1293</v>
+      </c>
+      <c r="Q261" s="21" t="s">
+        <v>1294</v>
+      </c>
+      <c r="R261" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S261" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T261" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U261" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V261" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W261" s="1" t="str">
+        <f t="shared" si="71"/>
+        <v>Key.Esp.261</v>
+      </c>
+      <c r="X261" s="49" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Y261" s="80" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="262" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A262" s="23">
+        <v>262</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F262" s="25" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G262" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H262" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I262" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J262" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K262" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L262" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M262" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Zonas</v>
+      </c>
+      <c r="N262" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona</v>
+      </c>
+      <c r="O262" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona de Interferência</v>
+      </c>
+      <c r="P262" s="21" t="s">
+        <v>1297</v>
+      </c>
+      <c r="Q262" s="21" t="s">
+        <v>1298</v>
+      </c>
+      <c r="R262" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S262" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T262" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U262" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V262" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W262" s="1" t="str">
+        <f t="shared" si="71"/>
+        <v>Key.Esp.262</v>
+      </c>
+      <c r="X262" s="49" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Y262" s="80" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="263" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A263" s="23">
+        <v>263</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F263" s="25" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G263" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H263" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I263" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J263" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K263" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L263" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M263" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Zonas</v>
+      </c>
+      <c r="N263" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona</v>
+      </c>
+      <c r="O263" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona de Iluminação</v>
+      </c>
+      <c r="P263" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="Q263" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="R263" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S263" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T263" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U263" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V263" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W263" s="1" t="str">
+        <f t="shared" si="71"/>
+        <v>Key.Esp.263</v>
+      </c>
+      <c r="X263" s="49" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Y263" s="80" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="264" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A264" s="23">
+        <v>264</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F264" s="25" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G264" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H264" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I264" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J264" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K264" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L264" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M264" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Zonas</v>
+      </c>
+      <c r="N264" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona</v>
+      </c>
+      <c r="O264" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona de Ocupação</v>
+      </c>
+      <c r="P264" s="21" t="s">
+        <v>1305</v>
+      </c>
+      <c r="Q264" s="21" t="s">
+        <v>1306</v>
+      </c>
+      <c r="R264" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S264" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T264" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U264" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V264" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W264" s="1" t="str">
+        <f t="shared" si="71"/>
+        <v>Key.Esp.264</v>
+      </c>
+      <c r="X264" s="49" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Y264" s="80" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="265" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A265" s="23">
+        <v>265</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F265" s="25" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G265" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H265" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I265" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J265" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K265" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L265" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M265" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Zonas</v>
+      </c>
+      <c r="N265" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona</v>
+      </c>
+      <c r="O265" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona de Reserva</v>
+      </c>
+      <c r="P265" s="21" t="s">
+        <v>1309</v>
+      </c>
+      <c r="Q265" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="R265" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S265" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T265" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U265" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V265" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W265" s="1" t="str">
+        <f t="shared" si="71"/>
+        <v>Key.Esp.265</v>
+      </c>
+      <c r="X265" s="49" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Y265" s="80" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="266" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A266" s="23">
+        <v>266</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F266" s="25" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G266" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H266" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I266" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J266" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K266" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L266" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M266" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Zonas</v>
+      </c>
+      <c r="N266" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona</v>
+      </c>
+      <c r="O266" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona de Segurança</v>
+      </c>
+      <c r="P266" s="21" t="s">
+        <v>1313</v>
+      </c>
+      <c r="Q266" s="21" t="s">
+        <v>1314</v>
+      </c>
+      <c r="R266" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S266" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T266" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U266" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V266" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W266" s="1" t="str">
+        <f t="shared" si="71"/>
+        <v>Key.Esp.266</v>
+      </c>
+      <c r="X266" s="49" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Y266" s="80" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="267" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A267" s="23">
+        <v>267</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F267" s="25" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G267" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H267" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I267" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J267" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K267" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L267" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M267" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Zonas</v>
+      </c>
+      <c r="N267" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona</v>
+      </c>
+      <c r="O267" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona de Térmica</v>
+      </c>
+      <c r="P267" s="21" t="s">
+        <v>1317</v>
+      </c>
+      <c r="Q267" s="21" t="s">
+        <v>1318</v>
+      </c>
+      <c r="R267" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S267" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T267" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U267" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V267" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W267" s="1" t="str">
+        <f t="shared" si="71"/>
+        <v>Key.Esp.267</v>
+      </c>
+      <c r="X267" s="49" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Y267" s="80" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="268" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A268" s="23">
+        <v>268</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F268" s="25" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G268" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H268" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I268" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J268" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K268" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L268" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M268" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Zonas</v>
+      </c>
+      <c r="N268" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona</v>
+      </c>
+      <c r="O268" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona de Transporte</v>
+      </c>
+      <c r="P268" s="21" t="s">
+        <v>1321</v>
+      </c>
+      <c r="Q268" s="21" t="s">
+        <v>1322</v>
+      </c>
+      <c r="R268" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S268" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T268" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U268" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V268" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W268" s="1" t="str">
+        <f t="shared" si="71"/>
+        <v>Key.Esp.268</v>
+      </c>
+      <c r="X268" s="49" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Y268" s="80" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="269" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A269" s="23">
+        <v>269</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F269" s="25" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G269" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H269" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I269" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J269" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K269" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L269" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Espacial</v>
+      </c>
+      <c r="M269" s="26" t="str">
+        <f t="shared" si="68"/>
+        <v>Zonas</v>
+      </c>
+      <c r="N269" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona</v>
+      </c>
+      <c r="O269" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>Zona de Ventilação</v>
+      </c>
+      <c r="P269" s="21" t="s">
+        <v>1325</v>
+      </c>
+      <c r="Q269" s="21" t="s">
+        <v>1326</v>
+      </c>
+      <c r="R269" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S269" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T269" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U269" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="V269" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="W269" s="1" t="str">
+        <f t="shared" si="71"/>
+        <v>Key.Esp.269</v>
+      </c>
+      <c r="X269" s="49" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Y269" s="80" t="s">
+        <v>1327</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y196">
-    <sortCondition ref="A1:A196"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y197">
+    <sortCondition ref="A1:A197"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="402" priority="1912"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="1913"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="401" priority="53"/>
+  <conditionalFormatting sqref="F270:F1048576 F1:F126 F172:F195">
+    <cfRule type="duplicateValues" dxfId="386" priority="411"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F270:F1048576 F1:F195">
+    <cfRule type="duplicateValues" dxfId="385" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="400" priority="1872"/>
-    <cfRule type="duplicateValues" dxfId="399" priority="1873"/>
-    <cfRule type="duplicateValues" dxfId="398" priority="1874"/>
-    <cfRule type="duplicateValues" dxfId="397" priority="1875"/>
-    <cfRule type="duplicateValues" dxfId="396" priority="1876"/>
-    <cfRule type="duplicateValues" dxfId="395" priority="1877"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="1873"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="1874"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="1875"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="1876"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="1877"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="1878"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F14">
-    <cfRule type="duplicateValues" dxfId="394" priority="3720"/>
-    <cfRule type="duplicateValues" dxfId="393" priority="3721"/>
-    <cfRule type="duplicateValues" dxfId="392" priority="3722"/>
-    <cfRule type="duplicateValues" dxfId="391" priority="3723"/>
-    <cfRule type="duplicateValues" dxfId="390" priority="3724"/>
-    <cfRule type="duplicateValues" dxfId="389" priority="3725"/>
-    <cfRule type="duplicateValues" dxfId="388" priority="3726"/>
-    <cfRule type="duplicateValues" dxfId="387" priority="3727"/>
-    <cfRule type="duplicateValues" dxfId="386" priority="3728"/>
-    <cfRule type="duplicateValues" dxfId="385" priority="3729"/>
-    <cfRule type="duplicateValues" dxfId="384" priority="3730"/>
-    <cfRule type="duplicateValues" dxfId="383" priority="3731"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="3721"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="3722"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="3723"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="3724"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="3725"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="3726"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="3727"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="3728"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="3729"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="3730"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="3731"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="3732"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F31">
-    <cfRule type="duplicateValues" dxfId="382" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31 F18:F22">
-    <cfRule type="duplicateValues" dxfId="381" priority="273"/>
-    <cfRule type="duplicateValues" dxfId="380" priority="274"/>
-    <cfRule type="duplicateValues" dxfId="379" priority="275"/>
-    <cfRule type="duplicateValues" dxfId="378" priority="276"/>
-    <cfRule type="duplicateValues" dxfId="377" priority="277"/>
-    <cfRule type="duplicateValues" dxfId="376" priority="278"/>
-    <cfRule type="duplicateValues" dxfId="375" priority="279"/>
-    <cfRule type="duplicateValues" dxfId="374" priority="280"/>
-    <cfRule type="duplicateValues" dxfId="373" priority="281"/>
-    <cfRule type="duplicateValues" dxfId="372" priority="282"/>
-    <cfRule type="duplicateValues" dxfId="371" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="284"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="duplicateValues" dxfId="370" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="369" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="368" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="367" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="366" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="365" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="364" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="363" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="362" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="361" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="360" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F35">
-    <cfRule type="duplicateValues" dxfId="359" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="358" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="357" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="356" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="355" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="354" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="353" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F38">
-    <cfRule type="duplicateValues" dxfId="352" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="351" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="350" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="349" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="348" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="347" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="346" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F42 F32 F36">
-    <cfRule type="duplicateValues" dxfId="345" priority="3677"/>
-    <cfRule type="duplicateValues" dxfId="344" priority="3678"/>
-    <cfRule type="duplicateValues" dxfId="343" priority="3679"/>
-    <cfRule type="duplicateValues" dxfId="342" priority="3680"/>
-    <cfRule type="duplicateValues" dxfId="341" priority="3681"/>
-    <cfRule type="duplicateValues" dxfId="340" priority="3682"/>
-    <cfRule type="duplicateValues" dxfId="339" priority="3683"/>
-    <cfRule type="duplicateValues" dxfId="338" priority="3684"/>
-    <cfRule type="duplicateValues" dxfId="337" priority="3685"/>
-    <cfRule type="duplicateValues" dxfId="336" priority="3686"/>
-    <cfRule type="duplicateValues" dxfId="335" priority="3687"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="3678"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="3679"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="3680"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="3681"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="3682"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="3683"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="3684"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="3685"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="3686"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="3687"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="3688"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="duplicateValues" dxfId="334" priority="3710"/>
-    <cfRule type="duplicateValues" dxfId="333" priority="3711"/>
-    <cfRule type="duplicateValues" dxfId="332" priority="3712"/>
-    <cfRule type="duplicateValues" dxfId="331" priority="3713"/>
-    <cfRule type="duplicateValues" dxfId="330" priority="3714"/>
-    <cfRule type="duplicateValues" dxfId="329" priority="3715"/>
-    <cfRule type="duplicateValues" dxfId="328" priority="3716"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="3711"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="3712"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="3713"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="3714"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="3715"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="3716"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="3717"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F48">
-    <cfRule type="duplicateValues" dxfId="327" priority="308"/>
-    <cfRule type="duplicateValues" dxfId="326" priority="309"/>
-    <cfRule type="duplicateValues" dxfId="325" priority="310"/>
-    <cfRule type="duplicateValues" dxfId="324" priority="311"/>
-    <cfRule type="duplicateValues" dxfId="323" priority="312"/>
-    <cfRule type="duplicateValues" dxfId="322" priority="313"/>
-    <cfRule type="duplicateValues" dxfId="321" priority="314"/>
-    <cfRule type="duplicateValues" dxfId="320" priority="315"/>
-    <cfRule type="duplicateValues" dxfId="319" priority="316"/>
-    <cfRule type="duplicateValues" dxfId="318" priority="317"/>
-    <cfRule type="duplicateValues" dxfId="317" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="309"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="317"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F53">
-    <cfRule type="duplicateValues" dxfId="316" priority="3381"/>
-    <cfRule type="duplicateValues" dxfId="315" priority="3382"/>
-    <cfRule type="duplicateValues" dxfId="314" priority="3383"/>
-    <cfRule type="duplicateValues" dxfId="313" priority="3384"/>
-    <cfRule type="duplicateValues" dxfId="312" priority="3385"/>
-    <cfRule type="duplicateValues" dxfId="311" priority="3386"/>
-    <cfRule type="duplicateValues" dxfId="310" priority="3387"/>
-    <cfRule type="duplicateValues" dxfId="309" priority="3388"/>
-    <cfRule type="duplicateValues" dxfId="308" priority="3389"/>
-    <cfRule type="duplicateValues" dxfId="307" priority="3390"/>
-    <cfRule type="duplicateValues" dxfId="306" priority="3391"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="3382"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="3383"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="3384"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="3385"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="3386"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="3387"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="3388"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="3389"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="3390"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="3391"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="3392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="duplicateValues" dxfId="305" priority="3459"/>
-    <cfRule type="duplicateValues" dxfId="304" priority="3460"/>
-    <cfRule type="duplicateValues" dxfId="303" priority="3461"/>
-    <cfRule type="duplicateValues" dxfId="302" priority="3462"/>
-    <cfRule type="duplicateValues" dxfId="301" priority="3463"/>
-    <cfRule type="duplicateValues" dxfId="300" priority="3464"/>
-    <cfRule type="duplicateValues" dxfId="299" priority="3465"/>
-    <cfRule type="duplicateValues" dxfId="298" priority="3466"/>
-    <cfRule type="duplicateValues" dxfId="297" priority="3467"/>
-    <cfRule type="duplicateValues" dxfId="296" priority="3468"/>
-    <cfRule type="duplicateValues" dxfId="295" priority="3469"/>
-    <cfRule type="duplicateValues" dxfId="294" priority="3470"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="3460"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="3461"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="3462"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="3463"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="3464"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="3465"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="3466"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="3467"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="3468"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="3469"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="3470"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="3471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="duplicateValues" dxfId="293" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="292" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="291" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="290" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="289" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="288" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="287" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="286" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="285" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="284" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="283" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="282" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="duplicateValues" dxfId="281" priority="147"/>
-    <cfRule type="duplicateValues" dxfId="280" priority="148"/>
-    <cfRule type="duplicateValues" dxfId="279" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="278" priority="150"/>
-    <cfRule type="duplicateValues" dxfId="277" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="276" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="275" priority="153"/>
-    <cfRule type="duplicateValues" dxfId="274" priority="154"/>
-    <cfRule type="duplicateValues" dxfId="273" priority="155"/>
-    <cfRule type="duplicateValues" dxfId="272" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="271" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="270" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80 F76:F78">
-    <cfRule type="duplicateValues" dxfId="269" priority="181"/>
-    <cfRule type="duplicateValues" dxfId="268" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="267" priority="183"/>
-    <cfRule type="duplicateValues" dxfId="266" priority="184"/>
-    <cfRule type="duplicateValues" dxfId="265" priority="185"/>
-    <cfRule type="duplicateValues" dxfId="264" priority="186"/>
-    <cfRule type="duplicateValues" dxfId="263" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="262" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="261" priority="189"/>
-    <cfRule type="duplicateValues" dxfId="260" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="259" priority="191"/>
-    <cfRule type="duplicateValues" dxfId="258" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:F83">
-    <cfRule type="duplicateValues" dxfId="257" priority="3336"/>
-    <cfRule type="duplicateValues" dxfId="256" priority="3337"/>
-    <cfRule type="duplicateValues" dxfId="255" priority="3338"/>
-    <cfRule type="duplicateValues" dxfId="254" priority="3339"/>
-    <cfRule type="duplicateValues" dxfId="253" priority="3340"/>
-    <cfRule type="duplicateValues" dxfId="252" priority="3341"/>
-    <cfRule type="duplicateValues" dxfId="251" priority="3342"/>
-    <cfRule type="duplicateValues" dxfId="250" priority="3343"/>
-    <cfRule type="duplicateValues" dxfId="249" priority="3344"/>
-    <cfRule type="duplicateValues" dxfId="248" priority="3345"/>
-    <cfRule type="duplicateValues" dxfId="247" priority="3346"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="3337"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="3338"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="3339"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="3340"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="3341"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="3342"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="3343"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="3344"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="3345"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="3346"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="3347"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:F88">
-    <cfRule type="duplicateValues" dxfId="246" priority="239"/>
-    <cfRule type="duplicateValues" dxfId="245" priority="240"/>
-    <cfRule type="duplicateValues" dxfId="244" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="243" priority="242"/>
-    <cfRule type="duplicateValues" dxfId="242" priority="243"/>
-    <cfRule type="duplicateValues" dxfId="241" priority="244"/>
-    <cfRule type="duplicateValues" dxfId="240" priority="245"/>
-    <cfRule type="duplicateValues" dxfId="239" priority="246"/>
-    <cfRule type="duplicateValues" dxfId="238" priority="247"/>
-    <cfRule type="duplicateValues" dxfId="237" priority="248"/>
-    <cfRule type="duplicateValues" dxfId="236" priority="249"/>
-    <cfRule type="duplicateValues" dxfId="235" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89:F100">
-    <cfRule type="duplicateValues" dxfId="234" priority="543"/>
-    <cfRule type="duplicateValues" dxfId="233" priority="588"/>
-    <cfRule type="duplicateValues" dxfId="232" priority="589"/>
-    <cfRule type="duplicateValues" dxfId="231" priority="590"/>
-    <cfRule type="duplicateValues" dxfId="230" priority="591"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="592"/>
-    <cfRule type="duplicateValues" dxfId="228" priority="593"/>
-    <cfRule type="duplicateValues" dxfId="227" priority="594"/>
-    <cfRule type="duplicateValues" dxfId="226" priority="595"/>
-    <cfRule type="duplicateValues" dxfId="225" priority="596"/>
-    <cfRule type="duplicateValues" dxfId="224" priority="597"/>
-    <cfRule type="duplicateValues" dxfId="223" priority="598"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="222" priority="2799"/>
-    <cfRule type="duplicateValues" dxfId="221" priority="2800"/>
-    <cfRule type="duplicateValues" dxfId="220" priority="2801"/>
-    <cfRule type="duplicateValues" dxfId="219" priority="2802"/>
-    <cfRule type="duplicateValues" dxfId="218" priority="2803"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F1048576 F1:F2 F81:F83 F32:F73">
-    <cfRule type="duplicateValues" dxfId="217" priority="622"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F126 F172:F1048576">
-    <cfRule type="duplicateValues" dxfId="216" priority="410"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196:F1048576">
-    <cfRule type="duplicateValues" dxfId="215" priority="2814"/>
-    <cfRule type="duplicateValues" dxfId="214" priority="2815"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P74">
-    <cfRule type="duplicateValues" dxfId="213" priority="3471"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="3472"/>
-    <cfRule type="duplicateValues" dxfId="211" priority="3473"/>
-    <cfRule type="duplicateValues" dxfId="210" priority="3474"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="3475"/>
-    <cfRule type="duplicateValues" dxfId="208" priority="3476"/>
-    <cfRule type="duplicateValues" dxfId="207" priority="3477"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="3478"/>
-    <cfRule type="duplicateValues" dxfId="205" priority="3479"/>
-    <cfRule type="duplicateValues" dxfId="204" priority="3480"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="3481"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P75">
-    <cfRule type="duplicateValues" dxfId="202" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="201" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="200" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="199" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="198" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="197" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="196" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="194" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="193" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="192" priority="146"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P80 P76:P78">
-    <cfRule type="duplicateValues" dxfId="191" priority="170"/>
-    <cfRule type="duplicateValues" dxfId="190" priority="171"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="172"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="187" priority="174"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="177"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="178"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="180"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P84:P88">
-    <cfRule type="duplicateValues" dxfId="180" priority="251"/>
-    <cfRule type="duplicateValues" dxfId="179" priority="252"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="253"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="254"/>
-    <cfRule type="duplicateValues" dxfId="176" priority="255"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="256"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="257"/>
-    <cfRule type="duplicateValues" dxfId="173" priority="258"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="259"/>
-    <cfRule type="duplicateValues" dxfId="171" priority="260"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="261"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P89:P90">
-    <cfRule type="duplicateValues" dxfId="169" priority="566"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="567"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="568"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="569"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="570"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="571"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="572"/>
-    <cfRule type="duplicateValues" dxfId="162" priority="573"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="574"/>
-    <cfRule type="duplicateValues" dxfId="160" priority="575"/>
-    <cfRule type="duplicateValues" dxfId="159" priority="576"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P91:P92">
-    <cfRule type="duplicateValues" dxfId="158" priority="544"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="545"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="546"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="547"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="548"/>
-    <cfRule type="duplicateValues" dxfId="153" priority="549"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="550"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="551"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="552"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="553"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="554"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P93:P95">
-    <cfRule type="duplicateValues" dxfId="147" priority="555"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="556"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="557"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="558"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="559"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="560"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="561"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="562"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="563"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="564"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="565"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P96">
-    <cfRule type="duplicateValues" dxfId="136" priority="532"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="533"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="534"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="535"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="536"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="537"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="538"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="539"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="540"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="541"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="542"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P97:P100">
-    <cfRule type="duplicateValues" dxfId="125" priority="577"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="578"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="579"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="580"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="581"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="582"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="583"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="584"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="585"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="586"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="587"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q14">
-    <cfRule type="duplicateValues" dxfId="114" priority="3807"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="3808"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="3809"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="3810"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="3811"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="3812"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="3813"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="3814"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="3815"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="3816"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="3817"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q42">
-    <cfRule type="duplicateValues" dxfId="103" priority="623"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="624"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="625"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="626"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="627"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="628"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="629"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="630"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="631"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="632"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="633"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q44:Q48">
-    <cfRule type="duplicateValues" dxfId="92" priority="319"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="320"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="321"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="322"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="323"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="324"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="325"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="326"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="327"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="328"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="329"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q80">
-    <cfRule type="duplicateValues" dxfId="81" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="161"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="162"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="165"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="169"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P172:P175">
-    <cfRule type="duplicateValues" dxfId="70" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P176:Q179 Q172:Q175">
-    <cfRule type="duplicateValues" dxfId="59" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="544"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="589"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="590"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="591"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="592"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="593"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="594"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="595"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="596"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="597"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="598"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="599"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101:F126">
-    <cfRule type="duplicateValues" dxfId="48" priority="3851"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="3852"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="3853"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="3854"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="3855"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="3856"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="3857"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="3858"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="3859"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="3860"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="3861"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="3862"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="3852"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="3853"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="3854"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="3855"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="3856"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="3857"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="3858"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="3859"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="3860"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="3861"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="3862"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="3863"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172:F195">
-    <cfRule type="duplicateValues" dxfId="29" priority="3878"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="3879"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="3880"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="3881"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="3882"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="3883"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="3884"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="3885"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="3886"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="3887"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="3888"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="3889"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="3879"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="3880"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="3881"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="3882"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="3883"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="3884"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="3885"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="3886"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="3887"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="3888"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="3889"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="3890"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F270:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="182" priority="2800"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="2801"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="2802"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="2803"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="2804"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F270:F1048576 F1:F2 F81:F83 F32:F73">
+    <cfRule type="duplicateValues" dxfId="177" priority="623"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F270:F1048576">
+    <cfRule type="duplicateValues" dxfId="176" priority="2815"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="2816"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K101:K116">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P74">
+    <cfRule type="duplicateValues" dxfId="172" priority="3472"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="3473"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="3474"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="3475"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="3476"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="3477"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="3478"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="3479"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="3480"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="3481"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="3482"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P75">
+    <cfRule type="duplicateValues" dxfId="161" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="147"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P80 P76:P78">
+    <cfRule type="duplicateValues" dxfId="150" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="181"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P84:P88">
+    <cfRule type="duplicateValues" dxfId="139" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="262"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P89:P90">
+    <cfRule type="duplicateValues" dxfId="128" priority="567"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="568"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="569"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="570"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="571"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="572"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="573"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="574"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="575"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="576"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="577"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P91:P92">
+    <cfRule type="duplicateValues" dxfId="117" priority="545"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="546"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="547"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="548"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="549"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="550"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="551"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="552"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="553"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="554"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="555"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P93:P95">
+    <cfRule type="duplicateValues" dxfId="106" priority="556"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="557"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="558"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="559"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="560"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="561"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="562"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="563"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="564"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="565"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="566"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P96">
+    <cfRule type="duplicateValues" dxfId="95" priority="533"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="534"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="535"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="536"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="537"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="538"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="539"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="540"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="541"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="542"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="543"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P97:P100">
+    <cfRule type="duplicateValues" dxfId="84" priority="578"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="579"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="580"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="581"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="582"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="583"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="584"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="585"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="586"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="587"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="588"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P172:P175">
+    <cfRule type="duplicateValues" dxfId="73" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P176:Q179 Q172:Q175">
+    <cfRule type="duplicateValues" dxfId="62" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q14">
+    <cfRule type="duplicateValues" dxfId="51" priority="3808"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="3809"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="3810"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="3811"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3812"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="3813"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="3814"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="3815"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3816"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="3817"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3818"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q42">
+    <cfRule type="duplicateValues" dxfId="40" priority="624"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="625"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="626"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="627"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="628"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="629"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="630"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="631"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="632"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="633"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="634"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44:Q48">
+    <cfRule type="duplicateValues" dxfId="29" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="322"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="324"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="326"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="327"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="328"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="329"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="330"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q80">
+    <cfRule type="duplicateValues" dxfId="18" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F196:F269">
+    <cfRule type="duplicateValues" dxfId="7" priority="3902"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -25586,7 +32623,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41689,15 +48726,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118:B1048576 B1:B48">
-    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -41770,15 +48807,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1 B3:G1048576 C2:G2">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 A1:B1">
-    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/ARQU/Ontologia_ARQUI.xlsx
+++ b/Versão5/ARQU/Ontologia_ARQUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\ARQU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F45F66-36D9-4B60-B97D-74058716A175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F45B96-2774-4989-85E9-2D0C56C711CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4212,12 +4212,6 @@
     <t>IfcRoof</t>
   </si>
   <si>
-    <t>Cobertura é a parte superior de um edifício, que o protégé contra os efeitos do clima.</t>
-  </si>
-  <si>
-    <t>El techo es la parte superior de un edificio, que lo protege contra los efectos de la intemperie.</t>
-  </si>
-  <si>
     <t>IfcRoofBARREL_ROOF</t>
   </si>
   <si>
@@ -4422,9 +4416,6 @@
     <t>Telhado.Plano</t>
   </si>
   <si>
-    <t>Telhado.Forma.Livre</t>
-  </si>
-  <si>
     <t>Telhado.2.Aguas</t>
   </si>
   <si>
@@ -4437,9 +4428,6 @@
     <t>Telhado.Mansarda</t>
   </si>
   <si>
-    <t>Telhado.Agua.Furtada</t>
-  </si>
-  <si>
     <t>Telhado.Pavilhão</t>
   </si>
   <si>
@@ -4449,9 +4437,6 @@
     <t>Telhado.Inclinado</t>
   </si>
   <si>
-    <t xml:space="preserve">Telhado </t>
-  </si>
-  <si>
     <t>Telhado.Abertura</t>
   </si>
   <si>
@@ -4473,15 +4458,9 @@
     <t>Armário.de.Ferramentas</t>
   </si>
   <si>
-    <t>Beiral.Acabamento</t>
-  </si>
-  <si>
     <t>Beiral.Calha</t>
   </si>
   <si>
-    <t>Beiral.Forro.Interno</t>
-  </si>
-  <si>
     <t>Telhado.Projeção</t>
   </si>
   <si>
@@ -4831,6 +4810,27 @@
   </si>
   <si>
     <t>Bancada de apoyo para equipos de laboratorio biológico que pueden requerir instalaciones especiales.</t>
+  </si>
+  <si>
+    <t>Telhado.Livre</t>
+  </si>
+  <si>
+    <t>Beiral.Forro</t>
+  </si>
+  <si>
+    <t>Beiral.Frente</t>
+  </si>
+  <si>
+    <t>Telhado.Verde</t>
+  </si>
+  <si>
+    <t>Cobertura é a parte superior de um edifício, que o protégé contra os efeitos do clima. Telhado ecológico com camadas drenantes e captadores de agua de chuva.</t>
+  </si>
+  <si>
+    <t>El techo es la parte superior de un edificio, que lo protege contra los efectos de la intemperie. Tejado verde ecológico, con capa drenante e captación de aguas pluviales.</t>
+  </si>
+  <si>
+    <t>Telhado.com.Agua.Furtada</t>
   </si>
 </sst>
 </file>
@@ -5476,336 +5476,6 @@
         <strike val="0"/>
         <color rgb="FFFFFFFF"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -9601,6 +9271,336 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">NOW()</f>
-        <v>45926.801764467593</v>
+        <v>45926.808446875002</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -10244,9 +10244,9 @@
   <dimension ref="A1:Y329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A329"/>
+      <selection pane="bottomLeft" activeCell="F293" sqref="F293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="8.4" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10264,7 +10264,7 @@
     <col min="13" max="13" width="8.53515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.84375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.07421875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="60.53515625" customWidth="1"/>
+    <col min="16" max="16" width="101.921875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="94.23046875" customWidth="1"/>
     <col min="18" max="18" width="3" style="78" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.23046875" style="35" bestFit="1" customWidth="1"/>
@@ -27790,10 +27790,10 @@
         <v>Bancada Banheiro</v>
       </c>
       <c r="P207" s="21" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
       <c r="Q207" s="21" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
       <c r="R207" s="77" t="s">
         <v>9</v>
@@ -27875,10 +27875,10 @@
         <v>Bancada Cozinha</v>
       </c>
       <c r="P208" s="21" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
       <c r="Q208" s="21" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="R208" s="77" t="s">
         <v>9</v>
@@ -27960,10 +27960,10 @@
         <v>Bancada Laboratório</v>
       </c>
       <c r="P209" s="21" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
       <c r="Q209" s="21" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="R209" s="77" t="s">
         <v>9</v>
@@ -28011,7 +28011,7 @@
         <v>1059</v>
       </c>
       <c r="F210" s="25" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
       <c r="G210" s="29" t="s">
         <v>9</v>
@@ -28045,10 +28045,10 @@
         <v>Bancada Química</v>
       </c>
       <c r="P210" s="21" t="s">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="Q210" s="21" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="R210" s="77" t="s">
         <v>9</v>
@@ -28096,7 +28096,7 @@
         <v>1059</v>
       </c>
       <c r="F211" s="25" t="s">
-        <v>1575</v>
+        <v>1568</v>
       </c>
       <c r="G211" s="29" t="s">
         <v>9</v>
@@ -28130,10 +28130,10 @@
         <v>Bancada Biológica</v>
       </c>
       <c r="P211" s="21" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
       <c r="Q211" s="21" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="R211" s="77" t="s">
         <v>9</v>
@@ -31369,15 +31369,15 @@
         <v>9</v>
       </c>
       <c r="S249" s="27" t="str">
-        <f>SUBSTITUTE(C249, "_", " ")</f>
+        <f t="shared" ref="S249:U250" si="75">SUBSTITUTE(C249, "_", " ")</f>
         <v>Espacial</v>
       </c>
       <c r="T249" s="27" t="str">
-        <f>SUBSTITUTE(D249, "_", " ")</f>
+        <f t="shared" si="75"/>
         <v>Plano.Vertical</v>
       </c>
       <c r="U249" s="27" t="str">
-        <f>SUBSTITUTE(E249, "_", " ")</f>
+        <f t="shared" si="75"/>
         <v>Elevação</v>
       </c>
       <c r="V249" s="77" t="s">
@@ -31454,15 +31454,15 @@
         <v>9</v>
       </c>
       <c r="S250" s="27" t="str">
-        <f>SUBSTITUTE(C250, "_", " ")</f>
+        <f t="shared" si="75"/>
         <v>Espacial</v>
       </c>
       <c r="T250" s="27" t="str">
-        <f>SUBSTITUTE(D250, "_", " ")</f>
+        <f t="shared" si="75"/>
         <v>Plano.Vertical</v>
       </c>
       <c r="U250" s="27" t="str">
-        <f>SUBSTITUTE(E250, "_", " ")</f>
+        <f t="shared" si="75"/>
         <v>Elevação</v>
       </c>
       <c r="V250" s="77" t="s">
@@ -32289,7 +32289,7 @@
         <v>90</v>
       </c>
       <c r="W260" s="1" t="str">
-        <f t="shared" ref="W260:W323" si="75">CONCATENATE("Key.",LEFT(C260,3),".",A260)</f>
+        <f t="shared" ref="W260:W323" si="76">CONCATENATE("Key.",LEFT(C260,3),".",A260)</f>
         <v>Key.Esp.260</v>
       </c>
       <c r="X260" s="49" t="s">
@@ -32371,7 +32371,7 @@
         <v>90</v>
       </c>
       <c r="W261" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Esp.261</v>
       </c>
       <c r="X261" s="49" t="s">
@@ -32453,7 +32453,7 @@
         <v>90</v>
       </c>
       <c r="W262" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Esp.262</v>
       </c>
       <c r="X262" s="49" t="s">
@@ -32535,7 +32535,7 @@
         <v>90</v>
       </c>
       <c r="W263" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Esp.263</v>
       </c>
       <c r="X263" s="49" t="s">
@@ -32617,7 +32617,7 @@
         <v>90</v>
       </c>
       <c r="W264" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Esp.264</v>
       </c>
       <c r="X264" s="49" t="s">
@@ -32699,7 +32699,7 @@
         <v>90</v>
       </c>
       <c r="W265" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Esp.265</v>
       </c>
       <c r="X265" s="49" t="s">
@@ -32781,7 +32781,7 @@
         <v>90</v>
       </c>
       <c r="W266" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Esp.266</v>
       </c>
       <c r="X266" s="49" t="s">
@@ -32863,7 +32863,7 @@
         <v>90</v>
       </c>
       <c r="W267" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Esp.267</v>
       </c>
       <c r="X267" s="49" t="s">
@@ -32945,7 +32945,7 @@
         <v>90</v>
       </c>
       <c r="W268" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Esp.268</v>
       </c>
       <c r="X268" s="49" t="s">
@@ -33027,7 +33027,7 @@
         <v>90</v>
       </c>
       <c r="W269" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Esp.269</v>
       </c>
       <c r="X269" s="49" t="s">
@@ -33109,7 +33109,7 @@
         <v>90</v>
       </c>
       <c r="W270" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Esp.270</v>
       </c>
       <c r="X270" s="49" t="s">
@@ -33191,7 +33191,7 @@
         <v>90</v>
       </c>
       <c r="W271" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Esp.271</v>
       </c>
       <c r="X271" s="49" t="s">
@@ -33273,7 +33273,7 @@
         <v>90</v>
       </c>
       <c r="W272" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Esp.272</v>
       </c>
       <c r="X272" s="49" t="s">
@@ -33355,7 +33355,7 @@
         <v>90</v>
       </c>
       <c r="W273" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Esp.273</v>
       </c>
       <c r="X273" s="49" t="s">
@@ -33400,19 +33400,19 @@
         <v>9</v>
       </c>
       <c r="L274" s="26" t="str">
-        <f t="shared" ref="L274:L305" si="76">CONCATENATE("", C274)</f>
+        <f t="shared" ref="L274:L305" si="77">CONCATENATE("", C274)</f>
         <v>Mobiliário</v>
       </c>
       <c r="M274" s="26" t="str">
-        <f t="shared" ref="M274:M305" si="77">CONCATENATE("", D274)</f>
+        <f t="shared" ref="M274:M305" si="78">CONCATENATE("", D274)</f>
         <v>Doméstico</v>
       </c>
       <c r="N274" s="26" t="str">
-        <f t="shared" ref="N274:N305" si="78">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E274),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N274:N305" si="79">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E274),"."," ")," De "," de "))</f>
         <v>Mobília</v>
       </c>
       <c r="O274" s="26" t="str">
-        <f t="shared" ref="O274:O305" si="79">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",F274),"."," ")," De "," de "))</f>
+        <f t="shared" ref="O274:O305" si="80">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",F274),"."," ")," De "," de "))</f>
         <v>Móvel</v>
       </c>
       <c r="P274" s="21" t="s">
@@ -33425,22 +33425,22 @@
         <v>9</v>
       </c>
       <c r="S274" s="27" t="str">
-        <f>SUBSTITUTE(C274, "_", " ")</f>
+        <f t="shared" ref="S274:S305" si="81">SUBSTITUTE(C274, "_", " ")</f>
         <v>Mobiliário</v>
       </c>
       <c r="T274" s="27" t="str">
-        <f>SUBSTITUTE(D274, "_", " ")</f>
+        <f t="shared" ref="T274:T305" si="82">SUBSTITUTE(D274, "_", " ")</f>
         <v>Doméstico</v>
       </c>
       <c r="U274" s="27" t="str">
-        <f>SUBSTITUTE(E274, "_", " ")</f>
+        <f t="shared" ref="U274:U305" si="83">SUBSTITUTE(E274, "_", " ")</f>
         <v>Mobília</v>
       </c>
       <c r="V274" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W274" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Mob.274</v>
       </c>
       <c r="X274" s="49" t="s">
@@ -33485,19 +33485,19 @@
         <v>9</v>
       </c>
       <c r="L275" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Mobiliário</v>
       </c>
       <c r="M275" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Doméstico</v>
       </c>
       <c r="N275" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Mobília</v>
       </c>
       <c r="O275" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Móvel Sistema</v>
       </c>
       <c r="P275" s="21" t="s">
@@ -33510,22 +33510,22 @@
         <v>9</v>
       </c>
       <c r="S275" s="27" t="str">
-        <f>SUBSTITUTE(C275, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Mobiliário</v>
       </c>
       <c r="T275" s="27" t="str">
-        <f>SUBSTITUTE(D275, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Doméstico</v>
       </c>
       <c r="U275" s="27" t="str">
-        <f>SUBSTITUTE(E275, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Mobília</v>
       </c>
       <c r="V275" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W275" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Mob.275</v>
       </c>
       <c r="X275" s="49" t="s">
@@ -33570,19 +33570,19 @@
         <v>9</v>
       </c>
       <c r="L276" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Mobiliário</v>
       </c>
       <c r="M276" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Doméstico</v>
       </c>
       <c r="N276" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Mobília</v>
       </c>
       <c r="O276" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Cama</v>
       </c>
       <c r="P276" s="21" t="s">
@@ -33595,22 +33595,22 @@
         <v>9</v>
       </c>
       <c r="S276" s="27" t="str">
-        <f>SUBSTITUTE(C276, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Mobiliário</v>
       </c>
       <c r="T276" s="27" t="str">
-        <f>SUBSTITUTE(D276, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Doméstico</v>
       </c>
       <c r="U276" s="27" t="str">
-        <f>SUBSTITUTE(E276, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Mobília</v>
       </c>
       <c r="V276" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W276" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Mob.276</v>
       </c>
       <c r="X276" s="49" t="s">
@@ -33655,19 +33655,19 @@
         <v>9</v>
       </c>
       <c r="L277" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Mobiliário</v>
       </c>
       <c r="M277" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Doméstico</v>
       </c>
       <c r="N277" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Mobília</v>
       </c>
       <c r="O277" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Cadeira</v>
       </c>
       <c r="P277" s="21" t="s">
@@ -33680,22 +33680,22 @@
         <v>9</v>
       </c>
       <c r="S277" s="27" t="str">
-        <f>SUBSTITUTE(C277, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Mobiliário</v>
       </c>
       <c r="T277" s="27" t="str">
-        <f>SUBSTITUTE(D277, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Doméstico</v>
       </c>
       <c r="U277" s="27" t="str">
-        <f>SUBSTITUTE(E277, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Mobília</v>
       </c>
       <c r="V277" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W277" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Mob.277</v>
       </c>
       <c r="X277" s="49" t="s">
@@ -33740,19 +33740,19 @@
         <v>9</v>
       </c>
       <c r="L278" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Mobiliário</v>
       </c>
       <c r="M278" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Doméstico</v>
       </c>
       <c r="N278" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Mobília</v>
       </c>
       <c r="O278" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Escribania</v>
       </c>
       <c r="P278" s="21" t="s">
@@ -33765,22 +33765,22 @@
         <v>9</v>
       </c>
       <c r="S278" s="27" t="str">
-        <f>SUBSTITUTE(C278, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Mobiliário</v>
       </c>
       <c r="T278" s="27" t="str">
-        <f>SUBSTITUTE(D278, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Doméstico</v>
       </c>
       <c r="U278" s="27" t="str">
-        <f>SUBSTITUTE(E278, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Mobília</v>
       </c>
       <c r="V278" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W278" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Mob.278</v>
       </c>
       <c r="X278" s="49" t="s">
@@ -33825,19 +33825,19 @@
         <v>9</v>
       </c>
       <c r="L279" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Mobiliário</v>
       </c>
       <c r="M279" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Doméstico</v>
       </c>
       <c r="N279" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Mobília</v>
       </c>
       <c r="O279" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Sofá</v>
       </c>
       <c r="P279" s="21" t="s">
@@ -33850,22 +33850,22 @@
         <v>9</v>
       </c>
       <c r="S279" s="27" t="str">
-        <f>SUBSTITUTE(C279, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Mobiliário</v>
       </c>
       <c r="T279" s="27" t="str">
-        <f>SUBSTITUTE(D279, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Doméstico</v>
       </c>
       <c r="U279" s="27" t="str">
-        <f>SUBSTITUTE(E279, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Mobília</v>
       </c>
       <c r="V279" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W279" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Mob.279</v>
       </c>
       <c r="X279" s="49" t="s">
@@ -33910,19 +33910,19 @@
         <v>9</v>
       </c>
       <c r="L280" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Mobiliário</v>
       </c>
       <c r="M280" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Doméstico</v>
       </c>
       <c r="N280" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Mobília</v>
       </c>
       <c r="O280" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Mesa</v>
       </c>
       <c r="P280" s="21" t="s">
@@ -33935,22 +33935,22 @@
         <v>9</v>
       </c>
       <c r="S280" s="27" t="str">
-        <f>SUBSTITUTE(C280, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Mobiliário</v>
       </c>
       <c r="T280" s="27" t="str">
-        <f>SUBSTITUTE(D280, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Doméstico</v>
       </c>
       <c r="U280" s="27" t="str">
-        <f>SUBSTITUTE(E280, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Mobília</v>
       </c>
       <c r="V280" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W280" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Mob.280</v>
       </c>
       <c r="X280" s="49" t="s">
@@ -33977,7 +33977,7 @@
         <v>1360</v>
       </c>
       <c r="F281" s="25" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="G281" s="29" t="s">
         <v>9</v>
@@ -33995,19 +33995,19 @@
         <v>9</v>
       </c>
       <c r="L281" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Mobiliário</v>
       </c>
       <c r="M281" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Doméstico</v>
       </c>
       <c r="N281" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Mobília</v>
       </c>
       <c r="O281" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Armário de Livros</v>
       </c>
       <c r="P281" s="21" t="s">
@@ -34020,22 +34020,22 @@
         <v>9</v>
       </c>
       <c r="S281" s="27" t="str">
-        <f>SUBSTITUTE(C281, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Mobiliário</v>
       </c>
       <c r="T281" s="27" t="str">
-        <f>SUBSTITUTE(D281, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Doméstico</v>
       </c>
       <c r="U281" s="27" t="str">
-        <f>SUBSTITUTE(E281, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Mobília</v>
       </c>
       <c r="V281" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W281" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Mob.281</v>
       </c>
       <c r="X281" s="49" t="s">
@@ -34062,7 +34062,7 @@
         <v>1360</v>
       </c>
       <c r="F282" s="25" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="G282" s="29" t="s">
         <v>9</v>
@@ -34080,19 +34080,19 @@
         <v>9</v>
       </c>
       <c r="L282" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Mobiliário</v>
       </c>
       <c r="M282" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Doméstico</v>
       </c>
       <c r="N282" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Mobília</v>
       </c>
       <c r="O282" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Armário de Ferramentas</v>
       </c>
       <c r="P282" s="21" t="s">
@@ -34105,22 +34105,22 @@
         <v>9</v>
       </c>
       <c r="S282" s="27" t="str">
-        <f>SUBSTITUTE(C282, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Mobiliário</v>
       </c>
       <c r="T282" s="27" t="str">
-        <f>SUBSTITUTE(D282, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Doméstico</v>
       </c>
       <c r="U282" s="27" t="str">
-        <f>SUBSTITUTE(E282, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Mobília</v>
       </c>
       <c r="V282" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W282" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Mob.282</v>
       </c>
       <c r="X282" s="49" t="s">
@@ -34165,19 +34165,19 @@
         <v>9</v>
       </c>
       <c r="L283" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Mobiliário</v>
       </c>
       <c r="M283" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Doméstico</v>
       </c>
       <c r="N283" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Mobília</v>
       </c>
       <c r="O283" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Prateleira</v>
       </c>
       <c r="P283" s="21" t="s">
@@ -34190,22 +34190,22 @@
         <v>9</v>
       </c>
       <c r="S283" s="27" t="str">
-        <f>SUBSTITUTE(C283, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Mobiliário</v>
       </c>
       <c r="T283" s="27" t="str">
-        <f>SUBSTITUTE(D283, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Doméstico</v>
       </c>
       <c r="U283" s="27" t="str">
-        <f>SUBSTITUTE(E283, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Mobília</v>
       </c>
       <c r="V283" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W283" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Mob.283</v>
       </c>
       <c r="X283" s="49" t="s">
@@ -34223,16 +34223,16 @@
         <v>44</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F284" s="25" t="s">
-        <v>1458</v>
+        <v>1582</v>
       </c>
       <c r="G284" s="29" t="s">
         <v>9</v>
@@ -34250,51 +34250,51 @@
         <v>9</v>
       </c>
       <c r="L284" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M284" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N284" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Forma</v>
       </c>
       <c r="O284" s="26" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve">Telhado </v>
+        <f t="shared" si="80"/>
+        <v>Telhado Verde</v>
       </c>
       <c r="P284" s="21" t="s">
-        <v>1379</v>
+        <v>1583</v>
       </c>
       <c r="Q284" s="21" t="s">
-        <v>1380</v>
+        <v>1584</v>
       </c>
       <c r="R284" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S284" s="27" t="str">
-        <f>SUBSTITUTE(C284, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T284" s="27" t="str">
-        <f>SUBSTITUTE(D284, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U284" s="27" t="str">
-        <f>SUBSTITUTE(E284, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Forma</v>
       </c>
       <c r="V284" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W284" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.284</v>
       </c>
       <c r="X284" s="49" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Y284" s="80" t="s">
         <v>1378</v>
@@ -34308,16 +34308,16 @@
         <v>44</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F285" s="25" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="G285" s="29" t="s">
         <v>9</v>
@@ -34335,54 +34335,54 @@
         <v>9</v>
       </c>
       <c r="L285" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M285" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N285" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Forma</v>
       </c>
       <c r="O285" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Telhado Barril</v>
       </c>
       <c r="P285" s="21" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="Q285" s="21" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="R285" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S285" s="27" t="str">
-        <f>SUBSTITUTE(C285, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T285" s="27" t="str">
-        <f>SUBSTITUTE(D285, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U285" s="27" t="str">
-        <f>SUBSTITUTE(E285, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Forma</v>
       </c>
       <c r="V285" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W285" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.285</v>
       </c>
       <c r="X285" s="49" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Y285" s="80" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="286" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -34393,16 +34393,16 @@
         <v>44</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F286" s="25" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G286" s="29" t="s">
         <v>9</v>
@@ -34420,54 +34420,54 @@
         <v>9</v>
       </c>
       <c r="L286" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M286" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N286" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Forma</v>
       </c>
       <c r="O286" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Telhado Borboleta</v>
       </c>
       <c r="P286" s="21" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="Q286" s="21" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="R286" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S286" s="27" t="str">
-        <f>SUBSTITUTE(C286, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T286" s="27" t="str">
-        <f>SUBSTITUTE(D286, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U286" s="27" t="str">
-        <f>SUBSTITUTE(E286, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Forma</v>
       </c>
       <c r="V286" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W286" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.286</v>
       </c>
       <c r="X286" s="49" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Y286" s="80" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="287" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -34478,16 +34478,16 @@
         <v>44</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F287" s="25" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="G287" s="29" t="s">
         <v>9</v>
@@ -34505,54 +34505,54 @@
         <v>9</v>
       </c>
       <c r="L287" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M287" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N287" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Forma</v>
       </c>
       <c r="O287" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Telhado Cúpula</v>
       </c>
       <c r="P287" s="21" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="Q287" s="21" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="R287" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S287" s="27" t="str">
-        <f>SUBSTITUTE(C287, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T287" s="27" t="str">
-        <f>SUBSTITUTE(D287, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U287" s="27" t="str">
-        <f>SUBSTITUTE(E287, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Forma</v>
       </c>
       <c r="V287" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W287" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.287</v>
       </c>
       <c r="X287" s="49" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Y287" s="80" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="288" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -34563,16 +34563,16 @@
         <v>44</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F288" s="25" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="G288" s="29" t="s">
         <v>9</v>
@@ -34590,54 +34590,54 @@
         <v>9</v>
       </c>
       <c r="L288" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M288" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N288" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Forma</v>
       </c>
       <c r="O288" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Telhado Plano</v>
       </c>
       <c r="P288" s="21" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="Q288" s="21" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="R288" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S288" s="27" t="str">
-        <f>SUBSTITUTE(C288, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T288" s="27" t="str">
-        <f>SUBSTITUTE(D288, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U288" s="27" t="str">
-        <f>SUBSTITUTE(E288, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Forma</v>
       </c>
       <c r="V288" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W288" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.288</v>
       </c>
       <c r="X288" s="49" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Y288" s="80" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="289" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -34648,16 +34648,16 @@
         <v>44</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F289" s="25" t="s">
-        <v>1449</v>
+        <v>1579</v>
       </c>
       <c r="G289" s="29" t="s">
         <v>9</v>
@@ -34675,54 +34675,54 @@
         <v>9</v>
       </c>
       <c r="L289" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M289" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N289" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Forma</v>
       </c>
       <c r="O289" s="26" t="str">
-        <f t="shared" si="79"/>
-        <v>Telhado Forma Livre</v>
+        <f t="shared" si="80"/>
+        <v>Telhado Livre</v>
       </c>
       <c r="P289" s="21" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="Q289" s="21" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="R289" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S289" s="27" t="str">
-        <f>SUBSTITUTE(C289, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T289" s="27" t="str">
-        <f>SUBSTITUTE(D289, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U289" s="27" t="str">
-        <f>SUBSTITUTE(E289, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Forma</v>
       </c>
       <c r="V289" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W289" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.289</v>
       </c>
       <c r="X289" s="49" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Y289" s="80" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="290" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -34733,16 +34733,16 @@
         <v>44</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F290" s="25" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="G290" s="29" t="s">
         <v>9</v>
@@ -34760,54 +34760,54 @@
         <v>9</v>
       </c>
       <c r="L290" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M290" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N290" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Forma</v>
       </c>
       <c r="O290" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Telhado Inclinado</v>
       </c>
       <c r="P290" s="21" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="Q290" s="21" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="R290" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S290" s="27" t="str">
-        <f>SUBSTITUTE(C290, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T290" s="27" t="str">
-        <f>SUBSTITUTE(D290, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U290" s="27" t="str">
-        <f>SUBSTITUTE(E290, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Forma</v>
       </c>
       <c r="V290" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W290" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.290</v>
       </c>
       <c r="X290" s="49" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Y290" s="80" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="291" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -34818,16 +34818,16 @@
         <v>44</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F291" s="25" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="G291" s="29" t="s">
         <v>9</v>
@@ -34845,54 +34845,54 @@
         <v>9</v>
       </c>
       <c r="L291" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M291" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N291" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Forma</v>
       </c>
       <c r="O291" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Telhado 2 Aguas</v>
       </c>
       <c r="P291" s="21" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Q291" s="21" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="R291" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S291" s="27" t="str">
-        <f>SUBSTITUTE(C291, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T291" s="27" t="str">
-        <f>SUBSTITUTE(D291, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U291" s="27" t="str">
-        <f>SUBSTITUTE(E291, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Forma</v>
       </c>
       <c r="V291" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W291" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.291</v>
       </c>
       <c r="X291" s="49" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Y291" s="80" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="292" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -34903,16 +34903,16 @@
         <v>44</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F292" s="25" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="G292" s="29" t="s">
         <v>9</v>
@@ -34930,54 +34930,54 @@
         <v>9</v>
       </c>
       <c r="L292" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M292" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N292" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Forma</v>
       </c>
       <c r="O292" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Telhado 4 Aguas</v>
       </c>
       <c r="P292" s="21" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="Q292" s="21" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="R292" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S292" s="27" t="str">
-        <f>SUBSTITUTE(C292, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T292" s="27" t="str">
-        <f>SUBSTITUTE(D292, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U292" s="27" t="str">
-        <f>SUBSTITUTE(E292, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Forma</v>
       </c>
       <c r="V292" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W292" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.292</v>
       </c>
       <c r="X292" s="49" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Y292" s="80" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="293" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -34988,16 +34988,16 @@
         <v>44</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F293" s="25" t="s">
-        <v>1454</v>
+        <v>1585</v>
       </c>
       <c r="G293" s="29" t="s">
         <v>9</v>
@@ -35015,54 +35015,54 @@
         <v>9</v>
       </c>
       <c r="L293" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M293" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N293" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Forma</v>
       </c>
       <c r="O293" s="26" t="str">
-        <f t="shared" si="79"/>
-        <v>Telhado Agua Furtada</v>
+        <f t="shared" si="80"/>
+        <v>Telhado com Agua Furtada</v>
       </c>
       <c r="P293" s="21" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="Q293" s="21" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="R293" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S293" s="27" t="str">
-        <f>SUBSTITUTE(C293, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T293" s="27" t="str">
-        <f>SUBSTITUTE(D293, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U293" s="27" t="str">
-        <f>SUBSTITUTE(E293, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Forma</v>
       </c>
       <c r="V293" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W293" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.293</v>
       </c>
       <c r="X293" s="49" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Y293" s="80" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="294" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -35073,16 +35073,16 @@
         <v>44</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F294" s="25" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="G294" s="29" t="s">
         <v>9</v>
@@ -35100,54 +35100,54 @@
         <v>9</v>
       </c>
       <c r="L294" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M294" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N294" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Forma</v>
       </c>
       <c r="O294" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Telhado Mansarda</v>
       </c>
       <c r="P294" s="21" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="Q294" s="21" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="R294" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S294" s="27" t="str">
-        <f>SUBSTITUTE(C294, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T294" s="27" t="str">
-        <f>SUBSTITUTE(D294, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U294" s="27" t="str">
-        <f>SUBSTITUTE(E294, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Forma</v>
       </c>
       <c r="V294" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W294" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.294</v>
       </c>
       <c r="X294" s="49" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Y294" s="80" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="295" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -35158,16 +35158,16 @@
         <v>44</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F295" s="25" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="G295" s="29" t="s">
         <v>9</v>
@@ -35185,54 +35185,54 @@
         <v>9</v>
       </c>
       <c r="L295" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M295" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N295" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Forma</v>
       </c>
       <c r="O295" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Telhado Mansarda Americana</v>
       </c>
       <c r="P295" s="21" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Q295" s="21" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="R295" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S295" s="27" t="str">
-        <f>SUBSTITUTE(C295, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T295" s="27" t="str">
-        <f>SUBSTITUTE(D295, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U295" s="27" t="str">
-        <f>SUBSTITUTE(E295, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Forma</v>
       </c>
       <c r="V295" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W295" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.295</v>
       </c>
       <c r="X295" s="49" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Y295" s="80" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="296" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -35243,16 +35243,16 @@
         <v>44</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F296" s="25" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="G296" s="29" t="s">
         <v>9</v>
@@ -35270,54 +35270,54 @@
         <v>9</v>
       </c>
       <c r="L296" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M296" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N296" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Forma</v>
       </c>
       <c r="O296" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Telhado Pavilhão</v>
       </c>
       <c r="P296" s="21" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="Q296" s="21" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="R296" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S296" s="27" t="str">
-        <f>SUBSTITUTE(C296, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T296" s="27" t="str">
-        <f>SUBSTITUTE(D296, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U296" s="27" t="str">
-        <f>SUBSTITUTE(E296, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Forma</v>
       </c>
       <c r="V296" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W296" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.296</v>
       </c>
       <c r="X296" s="49" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Y296" s="80" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="297" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -35328,16 +35328,16 @@
         <v>44</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="F297" s="25" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="G297" s="29" t="s">
         <v>9</v>
@@ -35355,54 +35355,54 @@
         <v>9</v>
       </c>
       <c r="L297" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M297" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N297" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Forma</v>
       </c>
       <c r="O297" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Telhado Arco Iris</v>
       </c>
       <c r="P297" s="21" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="Q297" s="21" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="R297" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S297" s="27" t="str">
-        <f>SUBSTITUTE(C297, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T297" s="27" t="str">
-        <f>SUBSTITUTE(D297, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U297" s="27" t="str">
-        <f>SUBSTITUTE(E297, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Forma</v>
       </c>
       <c r="V297" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W297" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.297</v>
       </c>
       <c r="X297" s="49" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Y297" s="80" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="298" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -35413,16 +35413,16 @@
         <v>44</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="F298" s="44" t="s">
-        <v>1466</v>
+        <v>1581</v>
       </c>
       <c r="G298" s="29" t="s">
         <v>9</v>
@@ -35440,51 +35440,51 @@
         <v>9</v>
       </c>
       <c r="L298" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M298" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N298" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Beiral</v>
       </c>
       <c r="O298" s="26" t="str">
-        <f t="shared" si="79"/>
-        <v>Beiral Acabamento</v>
+        <f t="shared" si="80"/>
+        <v>Beiral Frente</v>
       </c>
       <c r="P298" s="21" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="Q298" s="21" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="R298" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S298" s="27" t="str">
-        <f>SUBSTITUTE(C298, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T298" s="27" t="str">
-        <f>SUBSTITUTE(D298, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U298" s="27" t="str">
-        <f>SUBSTITUTE(E298, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Beiral</v>
       </c>
       <c r="V298" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W298" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.298</v>
       </c>
       <c r="X298" s="81" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="Y298" s="80" t="s">
         <v>1378</v>
@@ -35498,16 +35498,16 @@
         <v>44</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="F299" s="44" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="G299" s="29" t="s">
         <v>9</v>
@@ -35525,51 +35525,51 @@
         <v>9</v>
       </c>
       <c r="L299" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M299" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N299" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Beiral</v>
       </c>
       <c r="O299" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Beiral Calha</v>
       </c>
       <c r="P299" s="21" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q299" s="21" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="R299" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S299" s="27" t="str">
-        <f>SUBSTITUTE(C299, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T299" s="27" t="str">
-        <f>SUBSTITUTE(D299, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U299" s="27" t="str">
-        <f>SUBSTITUTE(E299, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Beiral</v>
       </c>
       <c r="V299" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W299" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.299</v>
       </c>
       <c r="X299" s="81" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="Y299" s="80" t="s">
         <v>1378</v>
@@ -35583,16 +35583,16 @@
         <v>44</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="F300" s="44" t="s">
-        <v>1468</v>
+        <v>1580</v>
       </c>
       <c r="G300" s="29" t="s">
         <v>9</v>
@@ -35610,51 +35610,51 @@
         <v>9</v>
       </c>
       <c r="L300" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M300" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N300" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Beiral</v>
       </c>
       <c r="O300" s="26" t="str">
-        <f t="shared" si="79"/>
-        <v>Beiral Forro Interno</v>
+        <f t="shared" si="80"/>
+        <v>Beiral Forro</v>
       </c>
       <c r="P300" s="21" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="Q300" s="21" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="R300" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S300" s="27" t="str">
-        <f>SUBSTITUTE(C300, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T300" s="27" t="str">
-        <f>SUBSTITUTE(D300, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U300" s="27" t="str">
-        <f>SUBSTITUTE(E300, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Beiral</v>
       </c>
       <c r="V300" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W300" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.300</v>
       </c>
       <c r="X300" s="49" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="Y300" s="80" t="s">
         <v>1378</v>
@@ -35668,16 +35668,16 @@
         <v>44</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="F301" s="44" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G301" s="29" t="s">
         <v>9</v>
@@ -35695,51 +35695,51 @@
         <v>9</v>
       </c>
       <c r="L301" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M301" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N301" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Perímetro</v>
       </c>
       <c r="O301" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Telhado Abertura</v>
       </c>
       <c r="P301" s="21" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="Q301" s="21" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="R301" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S301" s="27" t="str">
-        <f>SUBSTITUTE(C301, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T301" s="27" t="str">
-        <f>SUBSTITUTE(D301, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U301" s="27" t="str">
-        <f>SUBSTITUTE(E301, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Perímetro</v>
       </c>
       <c r="V301" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W301" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.301</v>
       </c>
       <c r="X301" s="81" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="Y301" s="80" t="s">
         <v>1378</v>
@@ -35753,16 +35753,16 @@
         <v>44</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="F302" s="44" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="G302" s="29" t="s">
         <v>9</v>
@@ -35780,51 +35780,51 @@
         <v>9</v>
       </c>
       <c r="L302" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M302" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N302" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Perímetro</v>
       </c>
       <c r="O302" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Telhado Perímetro</v>
       </c>
       <c r="P302" s="21" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="Q302" s="21" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="R302" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S302" s="27" t="str">
-        <f>SUBSTITUTE(C302, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T302" s="27" t="str">
-        <f>SUBSTITUTE(D302, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U302" s="27" t="str">
-        <f>SUBSTITUTE(E302, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Perímetro</v>
       </c>
       <c r="V302" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W302" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.302</v>
       </c>
       <c r="X302" s="81" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="Y302" s="80" t="s">
         <v>1378</v>
@@ -35838,16 +35838,16 @@
         <v>44</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="F303" s="44" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="G303" s="29" t="s">
         <v>9</v>
@@ -35865,51 +35865,51 @@
         <v>9</v>
       </c>
       <c r="L303" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M303" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N303" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Telhado Camada</v>
       </c>
       <c r="O303" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Telhado Projeção</v>
       </c>
       <c r="P303" s="21" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="Q303" s="21" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="R303" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S303" s="27" t="str">
-        <f>SUBSTITUTE(C303, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T303" s="27" t="str">
-        <f>SUBSTITUTE(D303, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U303" s="27" t="str">
-        <f>SUBSTITUTE(E303, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Telhado.Camada</v>
       </c>
       <c r="V303" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W303" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.303</v>
       </c>
       <c r="X303" s="81" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="Y303" s="80" t="s">
         <v>1378</v>
@@ -35923,78 +35923,78 @@
         <v>44</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E304" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G304" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H304" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I304" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J304" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K304" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L304" s="26" t="str">
+        <f t="shared" si="77"/>
+        <v>Cobertura</v>
+      </c>
+      <c r="M304" s="26" t="str">
+        <f t="shared" si="78"/>
+        <v>Telhado</v>
+      </c>
+      <c r="N304" s="26" t="str">
+        <f t="shared" si="79"/>
+        <v>Telhado Camada</v>
+      </c>
+      <c r="O304" s="26" t="str">
+        <f t="shared" si="80"/>
+        <v>Telhado Núcleo</v>
+      </c>
+      <c r="P304" s="21" t="s">
         <v>1437</v>
       </c>
-      <c r="F304" s="2" t="s">
-        <v>1470</v>
-      </c>
-      <c r="G304" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H304" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I304" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J304" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K304" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="L304" s="26" t="str">
-        <f t="shared" si="76"/>
+      <c r="Q304" s="21" t="s">
+        <v>1438</v>
+      </c>
+      <c r="R304" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S304" s="27" t="str">
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
-      <c r="M304" s="26" t="str">
-        <f t="shared" si="77"/>
+      <c r="T304" s="27" t="str">
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
-      <c r="N304" s="26" t="str">
-        <f t="shared" si="78"/>
-        <v>Telhado Camada</v>
-      </c>
-      <c r="O304" s="26" t="str">
-        <f t="shared" si="79"/>
-        <v>Telhado Núcleo</v>
-      </c>
-      <c r="P304" s="21" t="s">
-        <v>1439</v>
-      </c>
-      <c r="Q304" s="21" t="s">
-        <v>1440</v>
-      </c>
-      <c r="R304" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="S304" s="27" t="str">
-        <f>SUBSTITUTE(C304, "_", " ")</f>
-        <v>Cobertura</v>
-      </c>
-      <c r="T304" s="27" t="str">
-        <f>SUBSTITUTE(D304, "_", " ")</f>
-        <v>Telhado</v>
-      </c>
       <c r="U304" s="27" t="str">
-        <f>SUBSTITUTE(E304, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Telhado.Camada</v>
       </c>
       <c r="V304" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W304" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.304</v>
       </c>
       <c r="X304" s="49" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="Y304" s="80" t="s">
         <v>1378</v>
@@ -36008,16 +36008,16 @@
         <v>44</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>1377</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>1471</v>
+        <v>1464</v>
       </c>
       <c r="G305" s="29" t="s">
         <v>9</v>
@@ -36035,51 +36035,51 @@
         <v>9</v>
       </c>
       <c r="L305" s="26" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cobertura</v>
       </c>
       <c r="M305" s="26" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Telhado</v>
       </c>
       <c r="N305" s="26" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Telhado Camada</v>
       </c>
       <c r="O305" s="26" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Telhado Substrato</v>
       </c>
       <c r="P305" s="21" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="Q305" s="21" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="R305" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S305" s="27" t="str">
-        <f>SUBSTITUTE(C305, "_", " ")</f>
+        <f t="shared" si="81"/>
         <v>Cobertura</v>
       </c>
       <c r="T305" s="27" t="str">
-        <f>SUBSTITUTE(D305, "_", " ")</f>
+        <f t="shared" si="82"/>
         <v>Telhado</v>
       </c>
       <c r="U305" s="27" t="str">
-        <f>SUBSTITUTE(E305, "_", " ")</f>
+        <f t="shared" si="83"/>
         <v>Telhado.Camada</v>
       </c>
       <c r="V305" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W305" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Cob.305</v>
       </c>
       <c r="X305" s="81" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="Y305" s="80" t="s">
         <v>1378</v>
@@ -36093,16 +36093,16 @@
         <v>44</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="F306" s="25" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
       <c r="G306" s="29" t="s">
         <v>9</v>
@@ -36120,11 +36120,11 @@
         <v>9</v>
       </c>
       <c r="L306" s="26" t="str">
-        <f>CONCATENATE("", C306)</f>
+        <f t="shared" ref="L306:M312" si="84">CONCATENATE("", C306)</f>
         <v>Hospitalar</v>
       </c>
       <c r="M306" s="26" t="str">
-        <f>CONCATENATE("", D306)</f>
+        <f t="shared" si="84"/>
         <v>Saúde</v>
       </c>
       <c r="N306" s="26" t="str">
@@ -36136,38 +36136,38 @@
         <v>Dispositivo Médico</v>
       </c>
       <c r="P306" s="21" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="Q306" s="21" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="R306" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S306" s="27" t="str">
-        <f>SUBSTITUTE(C306, "_", " ")</f>
+        <f t="shared" ref="S306:S329" si="85">SUBSTITUTE(C306, "_", " ")</f>
         <v>Hospitalar</v>
       </c>
       <c r="T306" s="27" t="str">
-        <f>SUBSTITUTE(D306, "_", " ")</f>
+        <f t="shared" ref="T306:T329" si="86">SUBSTITUTE(D306, "_", " ")</f>
         <v>Saúde</v>
       </c>
       <c r="U306" s="27" t="str">
-        <f>SUBSTITUTE(E306, "_", " ")</f>
+        <f t="shared" ref="U306:U329" si="87">SUBSTITUTE(E306, "_", " ")</f>
         <v>Dispositivo.de.Saúde</v>
       </c>
       <c r="V306" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W306" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Hos.306</v>
       </c>
       <c r="X306" s="49" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="Y306" s="80" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="307" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -36178,16 +36178,16 @@
         <v>44</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="F307" s="25" t="s">
-        <v>1499</v>
+        <v>1492</v>
       </c>
       <c r="G307" s="29" t="s">
         <v>9</v>
@@ -36205,54 +36205,54 @@
         <v>9</v>
       </c>
       <c r="L307" s="26" t="str">
-        <f>CONCATENATE("", C307)</f>
+        <f t="shared" si="84"/>
         <v>Hospitalar</v>
       </c>
       <c r="M307" s="26" t="str">
-        <f>CONCATENATE("", D307)</f>
+        <f t="shared" si="84"/>
         <v>Saúde</v>
       </c>
       <c r="N307" s="26" t="str">
-        <f>(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E307),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N307:N312" si="88">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E307),"."," ")," De "," de "))</f>
         <v>Dispositivo de Saúde</v>
       </c>
       <c r="O307" s="26" t="str">
-        <f t="shared" ref="O307:O329" si="80">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",F307),"."," ")," De "," de "))</f>
+        <f t="shared" ref="O307:O329" si="89">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",F307),"."," ")," De "," de "))</f>
         <v>Ar Medicinal Estação</v>
       </c>
       <c r="P307" s="21" t="s">
-        <v>1477</v>
+        <v>1470</v>
       </c>
       <c r="Q307" s="21" t="s">
-        <v>1478</v>
+        <v>1471</v>
       </c>
       <c r="R307" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S307" s="27" t="str">
-        <f>SUBSTITUTE(C307, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Hospitalar</v>
       </c>
       <c r="T307" s="27" t="str">
-        <f>SUBSTITUTE(D307, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Saúde</v>
       </c>
       <c r="U307" s="27" t="str">
-        <f>SUBSTITUTE(E307, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Dispositivo.de.Saúde</v>
       </c>
       <c r="V307" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W307" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Hos.307</v>
       </c>
       <c r="X307" s="49" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="Y307" s="80" t="s">
-        <v>1476</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="308" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -36263,16 +36263,16 @@
         <v>44</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="F308" s="25" t="s">
-        <v>1498</v>
+        <v>1491</v>
       </c>
       <c r="G308" s="29" t="s">
         <v>9</v>
@@ -36290,54 +36290,54 @@
         <v>9</v>
       </c>
       <c r="L308" s="26" t="str">
-        <f>CONCATENATE("", C308)</f>
+        <f t="shared" si="84"/>
         <v>Hospitalar</v>
       </c>
       <c r="M308" s="26" t="str">
-        <f>CONCATENATE("", D308)</f>
+        <f t="shared" si="84"/>
         <v>Saúde</v>
       </c>
       <c r="N308" s="26" t="str">
-        <f>(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E308),"."," ")," De "," de "))</f>
+        <f t="shared" si="88"/>
         <v>Dispositivo de Saúde</v>
       </c>
       <c r="O308" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Ar Medicinal Alimentador</v>
       </c>
       <c r="P308" s="21" t="s">
-        <v>1480</v>
+        <v>1473</v>
       </c>
       <c r="Q308" s="21" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="R308" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S308" s="27" t="str">
-        <f>SUBSTITUTE(C308, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Hospitalar</v>
       </c>
       <c r="T308" s="27" t="str">
-        <f>SUBSTITUTE(D308, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Saúde</v>
       </c>
       <c r="U308" s="27" t="str">
-        <f>SUBSTITUTE(E308, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Dispositivo.de.Saúde</v>
       </c>
       <c r="V308" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W308" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Hos.308</v>
       </c>
       <c r="X308" s="49" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="Y308" s="80" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="309" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -36348,16 +36348,16 @@
         <v>44</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="F309" s="25" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="G309" s="29" t="s">
         <v>9</v>
@@ -36375,54 +36375,54 @@
         <v>9</v>
       </c>
       <c r="L309" s="26" t="str">
-        <f>CONCATENATE("", C309)</f>
+        <f t="shared" si="84"/>
         <v>Hospitalar</v>
       </c>
       <c r="M309" s="26" t="str">
-        <f>CONCATENATE("", D309)</f>
+        <f t="shared" si="84"/>
         <v>Saúde</v>
       </c>
       <c r="N309" s="26" t="str">
-        <f>(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E309),"."," ")," De "," de "))</f>
+        <f t="shared" si="88"/>
         <v>Dispositivo de Saúde</v>
       </c>
       <c r="O309" s="26" t="str">
-        <f t="shared" ref="O309" si="81">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",F309),"."," ")," De "," de "))</f>
+        <f t="shared" ref="O309" si="90">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",F309),"."," ")," De "," de "))</f>
         <v>Vácuo Medicinal Estação</v>
       </c>
       <c r="P309" s="21" t="s">
-        <v>1489</v>
+        <v>1482</v>
       </c>
       <c r="Q309" s="21" t="s">
-        <v>1490</v>
+        <v>1483</v>
       </c>
       <c r="R309" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S309" s="27" t="str">
-        <f>SUBSTITUTE(C309, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Hospitalar</v>
       </c>
       <c r="T309" s="27" t="str">
-        <f>SUBSTITUTE(D309, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Saúde</v>
       </c>
       <c r="U309" s="27" t="str">
-        <f>SUBSTITUTE(E309, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Dispositivo.de.Saúde</v>
       </c>
       <c r="V309" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W309" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Hos.309</v>
       </c>
       <c r="X309" s="49" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="Y309" s="80" t="s">
-        <v>1488</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="310" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -36433,17 +36433,17 @@
         <v>44</v>
       </c>
       <c r="C310" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F310" s="25" t="s">
         <v>1493</v>
       </c>
-      <c r="D310" s="2" t="s">
-        <v>1494</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>1497</v>
-      </c>
-      <c r="F310" s="25" t="s">
-        <v>1500</v>
-      </c>
       <c r="G310" s="29" t="s">
         <v>9</v>
       </c>
@@ -36460,54 +36460,54 @@
         <v>9</v>
       </c>
       <c r="L310" s="26" t="str">
-        <f>CONCATENATE("", C310)</f>
+        <f t="shared" si="84"/>
         <v>Hospitalar</v>
       </c>
       <c r="M310" s="26" t="str">
-        <f>CONCATENATE("", D310)</f>
+        <f t="shared" si="84"/>
         <v>Saúde</v>
       </c>
       <c r="N310" s="26" t="str">
-        <f>(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E310),"."," ")," De "," de "))</f>
+        <f t="shared" si="88"/>
         <v>Dispositivo de Saúde</v>
       </c>
       <c r="O310" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Oxigênio Gerador</v>
       </c>
       <c r="P310" s="21" t="s">
-        <v>1483</v>
+        <v>1476</v>
       </c>
       <c r="Q310" s="21" t="s">
-        <v>1484</v>
+        <v>1477</v>
       </c>
       <c r="R310" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S310" s="27" t="str">
-        <f>SUBSTITUTE(C310, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Hospitalar</v>
       </c>
       <c r="T310" s="27" t="str">
-        <f>SUBSTITUTE(D310, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Saúde</v>
       </c>
       <c r="U310" s="27" t="str">
-        <f>SUBSTITUTE(E310, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Dispositivo.de.Saúde</v>
       </c>
       <c r="V310" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W310" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Hos.310</v>
       </c>
       <c r="X310" s="49" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="Y310" s="80" t="s">
-        <v>1482</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="311" spans="1:25" ht="6.45" customHeight="1" x14ac:dyDescent="0.4">
@@ -36518,17 +36518,17 @@
         <v>44</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="D311" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F311" s="25" t="s">
         <v>1494</v>
       </c>
-      <c r="E311" s="2" t="s">
-        <v>1497</v>
-      </c>
-      <c r="F311" s="25" t="s">
-        <v>1501</v>
-      </c>
       <c r="G311" s="29" t="s">
         <v>9</v>
       </c>
@@ -36545,54 +36545,54 @@
         <v>9</v>
       </c>
       <c r="L311" s="26" t="str">
-        <f>CONCATENATE("", C311)</f>
+        <f t="shared" si="84"/>
         <v>Hospitalar</v>
       </c>
       <c r="M311" s="26" t="str">
-        <f>CONCATENATE("", D311)</f>
+        <f t="shared" si="84"/>
         <v>Saúde</v>
       </c>
       <c r="N311" s="26" t="str">
-        <f>(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E311),"."," ")," De "," de "))</f>
+        <f t="shared" si="88"/>
         <v>Dispositivo de Saúde</v>
       </c>
       <c r="O311" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Oxigênio Usina</v>
       </c>
       <c r="P311" s="21" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="Q311" s="21" t="s">
-        <v>1487</v>
+        <v>1480</v>
       </c>
       <c r="R311" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S311" s="27" t="str">
-        <f>SUBSTITUTE(C311, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Hospitalar</v>
       </c>
       <c r="T311" s="27" t="str">
-        <f>SUBSTITUTE(D311, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Saúde</v>
       </c>
       <c r="U311" s="27" t="str">
-        <f>SUBSTITUTE(E311, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Dispositivo.de.Saúde</v>
       </c>
       <c r="V311" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W311" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Hos.311</v>
       </c>
       <c r="X311" s="49" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="Y311" s="80" t="s">
-        <v>1485</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="312" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -36603,16 +36603,16 @@
         <v>44</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>1503</v>
+        <v>1496</v>
       </c>
       <c r="G312" s="29" t="s">
         <v>9</v>
@@ -36630,51 +36630,51 @@
         <v>9</v>
       </c>
       <c r="L312" s="26" t="str">
-        <f>CONCATENATE("", C312)</f>
+        <f t="shared" si="84"/>
         <v>Hospitalar</v>
       </c>
       <c r="M312" s="26" t="str">
-        <f>CONCATENATE("", D312)</f>
+        <f t="shared" si="84"/>
         <v>Saúde</v>
       </c>
       <c r="N312" s="26" t="str">
-        <f>(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E312),"."," ")," De "," de "))</f>
+        <f t="shared" si="88"/>
         <v>Dispositivo de Saúde</v>
       </c>
       <c r="O312" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Chamada Enfermagem</v>
       </c>
       <c r="P312" s="21" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
       <c r="Q312" s="21" t="s">
-        <v>1496</v>
+        <v>1489</v>
       </c>
       <c r="R312" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S312" s="27" t="str">
-        <f>SUBSTITUTE(C312, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Hospitalar</v>
       </c>
       <c r="T312" s="27" t="str">
-        <f>SUBSTITUTE(D312, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Saúde</v>
       </c>
       <c r="U312" s="27" t="str">
-        <f>SUBSTITUTE(E312, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Dispositivo.de.Saúde</v>
       </c>
       <c r="V312" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W312" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Hos.312</v>
       </c>
       <c r="X312" s="49" t="s">
-        <v>1492</v>
+        <v>1485</v>
       </c>
       <c r="Y312" s="49" t="s">
         <v>9</v>
@@ -36688,16 +36688,16 @@
         <v>44</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="F313" s="25" t="s">
-        <v>1555</v>
+        <v>1548</v>
       </c>
       <c r="G313" s="29" t="s">
         <v>9</v>
@@ -36715,54 +36715,54 @@
         <v>9</v>
       </c>
       <c r="L313" s="26" t="str">
-        <f>CONCATENATE("", C313)</f>
+        <f t="shared" ref="L313:L329" si="91">CONCATENATE("", C313)</f>
         <v>Luminotécnica</v>
       </c>
       <c r="M313" s="26" t="str">
-        <f t="shared" ref="M313:M329" si="82">CONCATENATE("", D313)</f>
+        <f t="shared" ref="M313:M329" si="92">CONCATENATE("", D313)</f>
         <v>Iluminação</v>
       </c>
       <c r="N313" s="26" t="str">
-        <f t="shared" ref="N313:N329" si="83">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E313),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N313:N329" si="93">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E313),"."," ")," De "," de "))</f>
         <v>Lâmpada</v>
       </c>
       <c r="O313" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v xml:space="preserve">Lâmpada </v>
       </c>
       <c r="P313" s="21" t="s">
-        <v>1507</v>
+        <v>1500</v>
       </c>
       <c r="Q313" s="21" t="s">
-        <v>1508</v>
+        <v>1501</v>
       </c>
       <c r="R313" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S313" s="27" t="str">
-        <f>SUBSTITUTE(C313, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
       <c r="T313" s="27" t="str">
-        <f>SUBSTITUTE(D313, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
       <c r="U313" s="27" t="str">
-        <f>SUBSTITUTE(E313, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Lâmpada</v>
       </c>
       <c r="V313" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W313" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Lum.313</v>
       </c>
       <c r="X313" s="49" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="Y313" s="80" t="s">
-        <v>1506</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="314" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -36773,81 +36773,81 @@
         <v>44</v>
       </c>
       <c r="C314" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F314" s="25" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G314" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H314" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I314" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J314" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K314" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L314" s="26" t="str">
+        <f t="shared" si="91"/>
+        <v>Luminotécnica</v>
+      </c>
+      <c r="M314" s="26" t="str">
+        <f t="shared" si="92"/>
+        <v>Iluminação</v>
+      </c>
+      <c r="N314" s="26" t="str">
+        <f t="shared" si="93"/>
+        <v>Lâmpada</v>
+      </c>
+      <c r="O314" s="26" t="str">
+        <f t="shared" si="89"/>
+        <v>Lâmpada Fluorescente Compacta</v>
+      </c>
+      <c r="P314" s="21" t="s">
+        <v>1503</v>
+      </c>
+      <c r="Q314" s="21" t="s">
         <v>1504</v>
       </c>
-      <c r="D314" s="2" t="s">
-        <v>1553</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>1505</v>
-      </c>
-      <c r="F314" s="25" t="s">
-        <v>1556</v>
-      </c>
-      <c r="G314" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H314" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I314" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J314" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K314" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="L314" s="26" t="str">
-        <f>CONCATENATE("", C314)</f>
+      <c r="R314" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="S314" s="27" t="str">
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
-      <c r="M314" s="26" t="str">
-        <f t="shared" si="82"/>
+      <c r="T314" s="27" t="str">
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
-      <c r="N314" s="26" t="str">
-        <f t="shared" si="83"/>
-        <v>Lâmpada</v>
-      </c>
-      <c r="O314" s="26" t="str">
-        <f t="shared" si="80"/>
-        <v>Lâmpada Fluorescente Compacta</v>
-      </c>
-      <c r="P314" s="21" t="s">
-        <v>1510</v>
-      </c>
-      <c r="Q314" s="21" t="s">
-        <v>1511</v>
-      </c>
-      <c r="R314" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="S314" s="27" t="str">
-        <f>SUBSTITUTE(C314, "_", " ")</f>
-        <v>Luminotécnica</v>
-      </c>
-      <c r="T314" s="27" t="str">
-        <f>SUBSTITUTE(D314, "_", " ")</f>
-        <v>Iluminação</v>
-      </c>
       <c r="U314" s="27" t="str">
-        <f>SUBSTITUTE(E314, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Lâmpada</v>
       </c>
       <c r="V314" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W314" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Lum.314</v>
       </c>
       <c r="X314" s="49" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="Y314" s="80" t="s">
-        <v>1509</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="315" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -36858,16 +36858,16 @@
         <v>44</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="F315" s="25" t="s">
-        <v>1569</v>
+        <v>1562</v>
       </c>
       <c r="G315" s="29" t="s">
         <v>9</v>
@@ -36885,54 +36885,54 @@
         <v>9</v>
       </c>
       <c r="L315" s="26" t="str">
-        <f>CONCATENATE("", C315)</f>
+        <f t="shared" si="91"/>
         <v>Luminotécnica</v>
       </c>
       <c r="M315" s="26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>Iluminação</v>
       </c>
       <c r="N315" s="26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>Lâmpada</v>
       </c>
       <c r="O315" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Lâmpada Fluorescente</v>
       </c>
       <c r="P315" s="21" t="s">
-        <v>1513</v>
+        <v>1506</v>
       </c>
       <c r="Q315" s="21" t="s">
-        <v>1514</v>
+        <v>1507</v>
       </c>
       <c r="R315" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S315" s="27" t="str">
-        <f>SUBSTITUTE(C315, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
       <c r="T315" s="27" t="str">
-        <f>SUBSTITUTE(D315, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
       <c r="U315" s="27" t="str">
-        <f>SUBSTITUTE(E315, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Lâmpada</v>
       </c>
       <c r="V315" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W315" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Lum.315</v>
       </c>
       <c r="X315" s="49" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="Y315" s="80" t="s">
-        <v>1512</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="316" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -36943,16 +36943,16 @@
         <v>44</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="F316" s="25" t="s">
-        <v>1565</v>
+        <v>1558</v>
       </c>
       <c r="G316" s="29" t="s">
         <v>9</v>
@@ -36970,54 +36970,54 @@
         <v>9</v>
       </c>
       <c r="L316" s="26" t="str">
-        <f>CONCATENATE("", C316)</f>
+        <f t="shared" si="91"/>
         <v>Luminotécnica</v>
       </c>
       <c r="M316" s="26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>Iluminação</v>
       </c>
       <c r="N316" s="26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>Lâmpada</v>
       </c>
       <c r="O316" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Lâmpada Alta Pressão Mercúrio</v>
       </c>
       <c r="P316" s="21" t="s">
-        <v>1519</v>
+        <v>1512</v>
       </c>
       <c r="Q316" s="21" t="s">
-        <v>1520</v>
+        <v>1513</v>
       </c>
       <c r="R316" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S316" s="27" t="str">
-        <f>SUBSTITUTE(C316, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
       <c r="T316" s="27" t="str">
-        <f>SUBSTITUTE(D316, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
       <c r="U316" s="27" t="str">
-        <f>SUBSTITUTE(E316, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Lâmpada</v>
       </c>
       <c r="V316" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W316" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Lum.316</v>
       </c>
       <c r="X316" s="49" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="Y316" s="80" t="s">
-        <v>1518</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="317" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -37028,16 +37028,16 @@
         <v>44</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="F317" s="25" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="G317" s="29" t="s">
         <v>9</v>
@@ -37055,54 +37055,54 @@
         <v>9</v>
       </c>
       <c r="L317" s="26" t="str">
-        <f>CONCATENATE("", C317)</f>
+        <f t="shared" si="91"/>
         <v>Luminotécnica</v>
       </c>
       <c r="M317" s="26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>Iluminação</v>
       </c>
       <c r="N317" s="26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>Lâmpada</v>
       </c>
       <c r="O317" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Lâmpada Alta Pressão Sódio</v>
       </c>
       <c r="P317" s="21" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="Q317" s="21" t="s">
-        <v>1523</v>
+        <v>1516</v>
       </c>
       <c r="R317" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S317" s="27" t="str">
-        <f>SUBSTITUTE(C317, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
       <c r="T317" s="27" t="str">
-        <f>SUBSTITUTE(D317, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
       <c r="U317" s="27" t="str">
-        <f>SUBSTITUTE(E317, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Lâmpada</v>
       </c>
       <c r="V317" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W317" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Lum.317</v>
       </c>
       <c r="X317" s="49" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="Y317" s="80" t="s">
-        <v>1521</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="318" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -37113,16 +37113,16 @@
         <v>44</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="F318" s="25" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
       <c r="G318" s="29" t="s">
         <v>9</v>
@@ -37140,54 +37140,54 @@
         <v>9</v>
       </c>
       <c r="L318" s="26" t="str">
-        <f>CONCATENATE("", C318)</f>
+        <f t="shared" si="91"/>
         <v>Luminotécnica</v>
       </c>
       <c r="M318" s="26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>Iluminação</v>
       </c>
       <c r="N318" s="26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>Lâmpada</v>
       </c>
       <c r="O318" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Lâmpada LED</v>
       </c>
       <c r="P318" s="21" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
       <c r="Q318" s="21" t="s">
-        <v>1525</v>
+        <v>1518</v>
       </c>
       <c r="R318" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S318" s="27" t="str">
-        <f>SUBSTITUTE(C318, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
       <c r="T318" s="27" t="str">
-        <f>SUBSTITUTE(D318, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
       <c r="U318" s="27" t="str">
-        <f>SUBSTITUTE(E318, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Lâmpada</v>
       </c>
       <c r="V318" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W318" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Lum.318</v>
       </c>
       <c r="X318" s="49" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="Y318" s="80" t="s">
-        <v>1524</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="319" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -37198,16 +37198,16 @@
         <v>44</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="F319" s="25" t="s">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="G319" s="29" t="s">
         <v>9</v>
@@ -37225,54 +37225,54 @@
         <v>9</v>
       </c>
       <c r="L319" s="26" t="str">
-        <f>CONCATENATE("", C319)</f>
+        <f t="shared" si="91"/>
         <v>Luminotécnica</v>
       </c>
       <c r="M319" s="26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>Iluminação</v>
       </c>
       <c r="N319" s="26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>Lâmpada</v>
       </c>
       <c r="O319" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Lâmpada OLED</v>
       </c>
       <c r="P319" s="21" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
       <c r="Q319" s="21" t="s">
-        <v>1525</v>
+        <v>1518</v>
       </c>
       <c r="R319" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S319" s="27" t="str">
-        <f>SUBSTITUTE(C319, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
       <c r="T319" s="27" t="str">
-        <f>SUBSTITUTE(D319, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
       <c r="U319" s="27" t="str">
-        <f>SUBSTITUTE(E319, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Lâmpada</v>
       </c>
       <c r="V319" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W319" s="1" t="str">
-        <f t="shared" ref="W319:W320" si="84">CONCATENATE("Key.",LEFT(C319,3),".",A319)</f>
+        <f t="shared" ref="W319:W320" si="94">CONCATENATE("Key.",LEFT(C319,3),".",A319)</f>
         <v>Key.Lum.319</v>
       </c>
       <c r="X319" s="49" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="Y319" s="80" t="s">
-        <v>1527</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="320" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -37283,16 +37283,16 @@
         <v>44</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="F320" s="25" t="s">
-        <v>1557</v>
+        <v>1550</v>
       </c>
       <c r="G320" s="29" t="s">
         <v>9</v>
@@ -37310,54 +37310,54 @@
         <v>9</v>
       </c>
       <c r="L320" s="26" t="str">
-        <f>CONCATENATE("", C320)</f>
+        <f t="shared" si="91"/>
         <v>Luminotécnica</v>
       </c>
       <c r="M320" s="26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>Iluminação</v>
       </c>
       <c r="N320" s="26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>Lâmpada</v>
       </c>
       <c r="O320" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Lâmpada Halógena</v>
       </c>
       <c r="P320" s="21" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
       <c r="Q320" s="21" t="s">
-        <v>1517</v>
+        <v>1510</v>
       </c>
       <c r="R320" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S320" s="27" t="str">
-        <f>SUBSTITUTE(C320, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
       <c r="T320" s="27" t="str">
-        <f>SUBSTITUTE(D320, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
       <c r="U320" s="27" t="str">
-        <f>SUBSTITUTE(E320, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Lâmpada</v>
       </c>
       <c r="V320" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W320" s="1" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>Key.Lum.320</v>
       </c>
       <c r="X320" s="49" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="Y320" s="80" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="321" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -37368,16 +37368,16 @@
         <v>44</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="F321" s="25" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="G321" s="29" t="s">
         <v>9</v>
@@ -37395,54 +37395,54 @@
         <v>9</v>
       </c>
       <c r="L321" s="26" t="str">
-        <f>CONCATENATE("", C321)</f>
+        <f t="shared" si="91"/>
         <v>Luminotécnica</v>
       </c>
       <c r="M321" s="26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>Iluminação</v>
       </c>
       <c r="N321" s="26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>Lâmpada</v>
       </c>
       <c r="O321" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Lâmpada Iodetos Metálicos</v>
       </c>
       <c r="P321" s="21" t="s">
-        <v>1570</v>
+        <v>1563</v>
       </c>
       <c r="Q321" s="21" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
       <c r="R321" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S321" s="27" t="str">
-        <f>SUBSTITUTE(C321, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
       <c r="T321" s="27" t="str">
-        <f>SUBSTITUTE(D321, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
       <c r="U321" s="27" t="str">
-        <f>SUBSTITUTE(E321, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Lâmpada</v>
       </c>
       <c r="V321" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W321" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Lum.321</v>
       </c>
       <c r="X321" s="49" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="Y321" s="80" t="s">
-        <v>1526</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="322" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -37453,16 +37453,16 @@
         <v>44</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="F322" s="25" t="s">
-        <v>1568</v>
+        <v>1561</v>
       </c>
       <c r="G322" s="29" t="s">
         <v>9</v>
@@ -37480,54 +37480,54 @@
         <v>9</v>
       </c>
       <c r="L322" s="26" t="str">
-        <f>CONCATENATE("", C322)</f>
+        <f t="shared" si="91"/>
         <v>Luminotécnica</v>
       </c>
       <c r="M322" s="26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>Iluminação</v>
       </c>
       <c r="N322" s="26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>Lâmpada</v>
       </c>
       <c r="O322" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v xml:space="preserve">Lâmpada Incandescente </v>
       </c>
       <c r="P322" s="21" t="s">
-        <v>1529</v>
+        <v>1522</v>
       </c>
       <c r="Q322" s="21" t="s">
-        <v>1530</v>
+        <v>1523</v>
       </c>
       <c r="R322" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S322" s="27" t="str">
-        <f>SUBSTITUTE(C322, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
       <c r="T322" s="27" t="str">
-        <f>SUBSTITUTE(D322, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
       <c r="U322" s="27" t="str">
-        <f>SUBSTITUTE(E322, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Lâmpada</v>
       </c>
       <c r="V322" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W322" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Lum.322</v>
       </c>
       <c r="X322" s="49" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="Y322" s="80" t="s">
-        <v>1528</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="323" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -37538,16 +37538,16 @@
         <v>44</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="F323" s="25" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="G323" s="29" t="s">
         <v>9</v>
@@ -37565,54 +37565,54 @@
         <v>9</v>
       </c>
       <c r="L323" s="26" t="str">
-        <f>CONCATENATE("", C323)</f>
+        <f t="shared" si="91"/>
         <v>Luminotécnica</v>
       </c>
       <c r="M323" s="26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>Iluminação</v>
       </c>
       <c r="N323" s="26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>Luminária</v>
       </c>
       <c r="O323" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Luminária</v>
       </c>
       <c r="P323" s="21" t="s">
-        <v>1533</v>
+        <v>1526</v>
       </c>
       <c r="Q323" s="21" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="R323" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S323" s="27" t="str">
-        <f>SUBSTITUTE(C323, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
       <c r="T323" s="27" t="str">
-        <f>SUBSTITUTE(D323, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
       <c r="U323" s="27" t="str">
-        <f>SUBSTITUTE(E323, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Luminária</v>
       </c>
       <c r="V323" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W323" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Key.Lum.323</v>
       </c>
       <c r="X323" s="49" t="s">
-        <v>1545</v>
+        <v>1538</v>
       </c>
       <c r="Y323" s="80" t="s">
-        <v>1532</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="324" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -37623,16 +37623,16 @@
         <v>44</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="F324" s="25" t="s">
-        <v>1561</v>
+        <v>1554</v>
       </c>
       <c r="G324" s="29" t="s">
         <v>9</v>
@@ -37650,54 +37650,54 @@
         <v>9</v>
       </c>
       <c r="L324" s="26" t="str">
-        <f>CONCATENATE("", C324)</f>
+        <f t="shared" si="91"/>
         <v>Luminotécnica</v>
       </c>
       <c r="M324" s="26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>Iluminação</v>
       </c>
       <c r="N324" s="26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>Luminária</v>
       </c>
       <c r="O324" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Luminária Direcional</v>
       </c>
       <c r="P324" s="21" t="s">
-        <v>1536</v>
+        <v>1529</v>
       </c>
       <c r="Q324" s="21" t="s">
-        <v>1537</v>
+        <v>1530</v>
       </c>
       <c r="R324" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S324" s="27" t="str">
-        <f>SUBSTITUTE(C324, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
       <c r="T324" s="27" t="str">
-        <f>SUBSTITUTE(D324, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
       <c r="U324" s="27" t="str">
-        <f>SUBSTITUTE(E324, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Luminária</v>
       </c>
       <c r="V324" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W324" s="1" t="str">
-        <f t="shared" ref="W324:W329" si="85">CONCATENATE("Key.",LEFT(C324,3),".",A324)</f>
+        <f t="shared" ref="W324:W329" si="95">CONCATENATE("Key.",LEFT(C324,3),".",A324)</f>
         <v>Key.Lum.324</v>
       </c>
       <c r="X324" s="49" t="s">
-        <v>1545</v>
+        <v>1538</v>
       </c>
       <c r="Y324" s="80" t="s">
-        <v>1535</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="325" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -37708,16 +37708,16 @@
         <v>44</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="F325" s="25" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="G325" s="29" t="s">
         <v>9</v>
@@ -37735,54 +37735,54 @@
         <v>9</v>
       </c>
       <c r="L325" s="26" t="str">
-        <f>CONCATENATE("", C325)</f>
+        <f t="shared" si="91"/>
         <v>Luminotécnica</v>
       </c>
       <c r="M325" s="26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>Iluminação</v>
       </c>
       <c r="N325" s="26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>Luminária</v>
       </c>
       <c r="O325" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Luminária Spot</v>
       </c>
       <c r="P325" s="21" t="s">
-        <v>1539</v>
+        <v>1532</v>
       </c>
       <c r="Q325" s="21" t="s">
-        <v>1540</v>
+        <v>1533</v>
       </c>
       <c r="R325" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S325" s="27" t="str">
-        <f>SUBSTITUTE(C325, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
       <c r="T325" s="27" t="str">
-        <f>SUBSTITUTE(D325, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
       <c r="U325" s="27" t="str">
-        <f>SUBSTITUTE(E325, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Luminária</v>
       </c>
       <c r="V325" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W325" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>Key.Lum.325</v>
       </c>
       <c r="X325" s="49" t="s">
-        <v>1545</v>
+        <v>1538</v>
       </c>
       <c r="Y325" s="80" t="s">
-        <v>1538</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="326" spans="1:25" ht="5.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -37793,17 +37793,17 @@
         <v>44</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="D326" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F326" s="25" t="s">
         <v>1553</v>
       </c>
-      <c r="E326" s="2" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F326" s="25" t="s">
-        <v>1560</v>
-      </c>
       <c r="G326" s="29" t="s">
         <v>9</v>
       </c>
@@ -37820,54 +37820,54 @@
         <v>9</v>
       </c>
       <c r="L326" s="26" t="str">
-        <f>CONCATENATE("", C326)</f>
+        <f t="shared" si="91"/>
         <v>Luminotécnica</v>
       </c>
       <c r="M326" s="26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>Iluminação</v>
       </c>
       <c r="N326" s="26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>Luminária</v>
       </c>
       <c r="O326" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Luminária de Segurança</v>
       </c>
       <c r="P326" s="21" t="s">
-        <v>1542</v>
+        <v>1535</v>
       </c>
       <c r="Q326" s="21" t="s">
-        <v>1543</v>
+        <v>1536</v>
       </c>
       <c r="R326" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S326" s="27" t="str">
-        <f>SUBSTITUTE(C326, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
       <c r="T326" s="27" t="str">
-        <f>SUBSTITUTE(D326, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
       <c r="U326" s="27" t="str">
-        <f>SUBSTITUTE(E326, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Luminária</v>
       </c>
       <c r="V326" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W326" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>Key.Lum.326</v>
       </c>
       <c r="X326" s="49" t="s">
-        <v>1545</v>
+        <v>1538</v>
       </c>
       <c r="Y326" s="80" t="s">
-        <v>1541</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="327" spans="1:25" ht="5.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -37878,16 +37878,16 @@
         <v>44</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="F327" s="44" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
       <c r="G327" s="29" t="s">
         <v>9</v>
@@ -37905,51 +37905,51 @@
         <v>9</v>
       </c>
       <c r="L327" s="26" t="str">
-        <f>CONCATENATE("", C327)</f>
+        <f t="shared" si="91"/>
         <v>Luminotécnica</v>
       </c>
       <c r="M327" s="26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>Iluminação</v>
       </c>
       <c r="N327" s="26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>Luminária</v>
       </c>
       <c r="O327" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Fonte de Iluminação</v>
       </c>
       <c r="P327" s="21" t="s">
-        <v>1547</v>
+        <v>1540</v>
       </c>
       <c r="Q327" s="21" t="s">
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="R327" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S327" s="27" t="str">
-        <f>SUBSTITUTE(C327, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
       <c r="T327" s="27" t="str">
-        <f>SUBSTITUTE(D327, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
       <c r="U327" s="27" t="str">
-        <f>SUBSTITUTE(E327, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Luminária</v>
       </c>
       <c r="V327" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W327" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>Key.Lum.327</v>
       </c>
       <c r="X327" s="81" t="s">
-        <v>1546</v>
+        <v>1539</v>
       </c>
       <c r="Y327" s="81" t="s">
         <v>9</v>
@@ -37963,16 +37963,16 @@
         <v>44</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>1564</v>
+        <v>1557</v>
       </c>
       <c r="G328" s="29" t="s">
         <v>9</v>
@@ -37990,51 +37990,51 @@
         <v>9</v>
       </c>
       <c r="L328" s="26" t="str">
-        <f>CONCATENATE("", C328)</f>
+        <f t="shared" si="91"/>
         <v>Luminotécnica</v>
       </c>
       <c r="M328" s="26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>Iluminação</v>
       </c>
       <c r="N328" s="26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>Luminária</v>
       </c>
       <c r="O328" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Feixe de Luz</v>
       </c>
       <c r="P328" s="21" t="s">
-        <v>1550</v>
+        <v>1543</v>
       </c>
       <c r="Q328" s="21" t="s">
-        <v>1551</v>
+        <v>1544</v>
       </c>
       <c r="R328" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S328" s="27" t="str">
-        <f>SUBSTITUTE(C328, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
       <c r="T328" s="27" t="str">
-        <f>SUBSTITUTE(D328, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
       <c r="U328" s="27" t="str">
-        <f>SUBSTITUTE(E328, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Luminária</v>
       </c>
       <c r="V328" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W328" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>Key.Lum.328</v>
       </c>
       <c r="X328" s="81" t="s">
-        <v>1549</v>
+        <v>1542</v>
       </c>
       <c r="Y328" s="81" t="s">
         <v>9</v>
@@ -38048,16 +38048,16 @@
         <v>44</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>1554</v>
+        <v>1547</v>
       </c>
       <c r="G329" s="29" t="s">
         <v>9</v>
@@ -38075,51 +38075,51 @@
         <v>9</v>
       </c>
       <c r="L329" s="26" t="str">
-        <f>CONCATENATE("", C329)</f>
+        <f t="shared" si="91"/>
         <v>Luminotécnica</v>
       </c>
       <c r="M329" s="26" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>Iluminação</v>
       </c>
       <c r="N329" s="26" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>Luminária</v>
       </c>
       <c r="O329" s="26" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>Luz</v>
       </c>
       <c r="P329" s="21" t="s">
-        <v>1547</v>
+        <v>1540</v>
       </c>
       <c r="Q329" s="21" t="s">
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="R329" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S329" s="27" t="str">
-        <f>SUBSTITUTE(C329, "_", " ")</f>
+        <f t="shared" si="85"/>
         <v>Luminotécnica</v>
       </c>
       <c r="T329" s="27" t="str">
-        <f>SUBSTITUTE(D329, "_", " ")</f>
+        <f t="shared" si="86"/>
         <v>Iluminação</v>
       </c>
       <c r="U329" s="27" t="str">
-        <f>SUBSTITUTE(E329, "_", " ")</f>
+        <f t="shared" si="87"/>
         <v>Luminária</v>
       </c>
       <c r="V329" s="77" t="s">
         <v>90</v>
       </c>
       <c r="W329" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>Key.Lum.329</v>
       </c>
       <c r="X329" s="49" t="s">
-        <v>1552</v>
+        <v>1545</v>
       </c>
       <c r="Y329" s="81" t="s">
         <v>9</v>
@@ -38134,190 +38134,190 @@
     <cfRule type="duplicateValues" dxfId="419" priority="2089"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="418" priority="2049"/>
-    <cfRule type="duplicateValues" dxfId="417" priority="2050"/>
-    <cfRule type="duplicateValues" dxfId="416" priority="2051"/>
-    <cfRule type="duplicateValues" dxfId="415" priority="2052"/>
-    <cfRule type="duplicateValues" dxfId="414" priority="2053"/>
-    <cfRule type="duplicateValues" dxfId="413" priority="2054"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="2050"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="2051"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="2052"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="2053"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="2054"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="2049"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F14">
-    <cfRule type="duplicateValues" dxfId="412" priority="3897"/>
-    <cfRule type="duplicateValues" dxfId="411" priority="3898"/>
-    <cfRule type="duplicateValues" dxfId="410" priority="3899"/>
-    <cfRule type="duplicateValues" dxfId="409" priority="3900"/>
-    <cfRule type="duplicateValues" dxfId="408" priority="3901"/>
-    <cfRule type="duplicateValues" dxfId="407" priority="3902"/>
-    <cfRule type="duplicateValues" dxfId="406" priority="3903"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="3899"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="3900"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="3906"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="3901"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="3902"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="3897"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="3905"/>
     <cfRule type="duplicateValues" dxfId="405" priority="3904"/>
-    <cfRule type="duplicateValues" dxfId="404" priority="3905"/>
-    <cfRule type="duplicateValues" dxfId="403" priority="3906"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="3903"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="3908"/>
     <cfRule type="duplicateValues" dxfId="402" priority="3907"/>
-    <cfRule type="duplicateValues" dxfId="401" priority="3908"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="3898"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F31">
     <cfRule type="duplicateValues" dxfId="400" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31 F18:F22">
-    <cfRule type="duplicateValues" dxfId="399" priority="450"/>
-    <cfRule type="duplicateValues" dxfId="398" priority="451"/>
-    <cfRule type="duplicateValues" dxfId="397" priority="452"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="456"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="455"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="454"/>
     <cfRule type="duplicateValues" dxfId="396" priority="453"/>
-    <cfRule type="duplicateValues" dxfId="395" priority="454"/>
-    <cfRule type="duplicateValues" dxfId="394" priority="455"/>
-    <cfRule type="duplicateValues" dxfId="393" priority="456"/>
-    <cfRule type="duplicateValues" dxfId="392" priority="457"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="452"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="450"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="460"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="459"/>
     <cfRule type="duplicateValues" dxfId="391" priority="458"/>
-    <cfRule type="duplicateValues" dxfId="390" priority="459"/>
-    <cfRule type="duplicateValues" dxfId="389" priority="460"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="457"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="451"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="duplicateValues" dxfId="388" priority="250"/>
-    <cfRule type="duplicateValues" dxfId="387" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="253"/>
     <cfRule type="duplicateValues" dxfId="386" priority="252"/>
-    <cfRule type="duplicateValues" dxfId="385" priority="253"/>
-    <cfRule type="duplicateValues" dxfId="384" priority="254"/>
-    <cfRule type="duplicateValues" dxfId="383" priority="255"/>
-    <cfRule type="duplicateValues" dxfId="382" priority="256"/>
-    <cfRule type="duplicateValues" dxfId="381" priority="257"/>
-    <cfRule type="duplicateValues" dxfId="380" priority="258"/>
-    <cfRule type="duplicateValues" dxfId="379" priority="259"/>
-    <cfRule type="duplicateValues" dxfId="378" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F35">
-    <cfRule type="duplicateValues" dxfId="377" priority="261"/>
-    <cfRule type="duplicateValues" dxfId="376" priority="262"/>
-    <cfRule type="duplicateValues" dxfId="375" priority="263"/>
-    <cfRule type="duplicateValues" dxfId="374" priority="264"/>
-    <cfRule type="duplicateValues" dxfId="373" priority="265"/>
-    <cfRule type="duplicateValues" dxfId="372" priority="266"/>
-    <cfRule type="duplicateValues" dxfId="371" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F38">
-    <cfRule type="duplicateValues" dxfId="370" priority="243"/>
-    <cfRule type="duplicateValues" dxfId="369" priority="244"/>
-    <cfRule type="duplicateValues" dxfId="368" priority="245"/>
-    <cfRule type="duplicateValues" dxfId="367" priority="246"/>
-    <cfRule type="duplicateValues" dxfId="366" priority="247"/>
-    <cfRule type="duplicateValues" dxfId="365" priority="248"/>
-    <cfRule type="duplicateValues" dxfId="364" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F42 F32 F36">
-    <cfRule type="duplicateValues" dxfId="363" priority="3854"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="3864"/>
     <cfRule type="duplicateValues" dxfId="362" priority="3855"/>
-    <cfRule type="duplicateValues" dxfId="361" priority="3856"/>
-    <cfRule type="duplicateValues" dxfId="360" priority="3857"/>
-    <cfRule type="duplicateValues" dxfId="359" priority="3858"/>
-    <cfRule type="duplicateValues" dxfId="358" priority="3859"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="3854"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="3863"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="3862"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="3861"/>
     <cfRule type="duplicateValues" dxfId="357" priority="3860"/>
-    <cfRule type="duplicateValues" dxfId="356" priority="3861"/>
-    <cfRule type="duplicateValues" dxfId="355" priority="3862"/>
-    <cfRule type="duplicateValues" dxfId="354" priority="3863"/>
-    <cfRule type="duplicateValues" dxfId="353" priority="3864"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="3859"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="3858"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="3857"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="3856"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="duplicateValues" dxfId="352" priority="3887"/>
-    <cfRule type="duplicateValues" dxfId="351" priority="3888"/>
-    <cfRule type="duplicateValues" dxfId="350" priority="3889"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="3889"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="3887"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="3888"/>
     <cfRule type="duplicateValues" dxfId="349" priority="3890"/>
-    <cfRule type="duplicateValues" dxfId="348" priority="3891"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="3893"/>
     <cfRule type="duplicateValues" dxfId="347" priority="3892"/>
-    <cfRule type="duplicateValues" dxfId="346" priority="3893"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="3891"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F48">
-    <cfRule type="duplicateValues" dxfId="345" priority="485"/>
-    <cfRule type="duplicateValues" dxfId="344" priority="486"/>
-    <cfRule type="duplicateValues" dxfId="343" priority="487"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="491"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="489"/>
     <cfRule type="duplicateValues" dxfId="342" priority="488"/>
-    <cfRule type="duplicateValues" dxfId="341" priority="489"/>
-    <cfRule type="duplicateValues" dxfId="340" priority="490"/>
-    <cfRule type="duplicateValues" dxfId="339" priority="491"/>
-    <cfRule type="duplicateValues" dxfId="338" priority="492"/>
-    <cfRule type="duplicateValues" dxfId="337" priority="493"/>
-    <cfRule type="duplicateValues" dxfId="336" priority="494"/>
-    <cfRule type="duplicateValues" dxfId="335" priority="495"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="492"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="487"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="486"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="485"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="495"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="493"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="494"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F53">
-    <cfRule type="duplicateValues" dxfId="334" priority="3558"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="3560"/>
     <cfRule type="duplicateValues" dxfId="333" priority="3559"/>
-    <cfRule type="duplicateValues" dxfId="332" priority="3560"/>
-    <cfRule type="duplicateValues" dxfId="331" priority="3561"/>
-    <cfRule type="duplicateValues" dxfId="330" priority="3562"/>
-    <cfRule type="duplicateValues" dxfId="329" priority="3563"/>
-    <cfRule type="duplicateValues" dxfId="328" priority="3564"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="3568"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="3562"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="3567"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="3558"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="3566"/>
     <cfRule type="duplicateValues" dxfId="327" priority="3565"/>
-    <cfRule type="duplicateValues" dxfId="326" priority="3566"/>
-    <cfRule type="duplicateValues" dxfId="325" priority="3567"/>
-    <cfRule type="duplicateValues" dxfId="324" priority="3568"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="3564"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="3563"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="3561"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="duplicateValues" dxfId="323" priority="3636"/>
-    <cfRule type="duplicateValues" dxfId="322" priority="3637"/>
-    <cfRule type="duplicateValues" dxfId="321" priority="3638"/>
-    <cfRule type="duplicateValues" dxfId="320" priority="3639"/>
-    <cfRule type="duplicateValues" dxfId="319" priority="3640"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="3647"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="3646"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="3645"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="3644"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="3636"/>
     <cfRule type="duplicateValues" dxfId="318" priority="3641"/>
-    <cfRule type="duplicateValues" dxfId="317" priority="3642"/>
-    <cfRule type="duplicateValues" dxfId="316" priority="3643"/>
-    <cfRule type="duplicateValues" dxfId="315" priority="3644"/>
-    <cfRule type="duplicateValues" dxfId="314" priority="3645"/>
-    <cfRule type="duplicateValues" dxfId="313" priority="3646"/>
-    <cfRule type="duplicateValues" dxfId="312" priority="3647"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="3640"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="3639"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="3638"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="3637"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="3643"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="3642"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
     <cfRule type="duplicateValues" dxfId="311" priority="301"/>
     <cfRule type="duplicateValues" dxfId="310" priority="302"/>
     <cfRule type="duplicateValues" dxfId="309" priority="303"/>
-    <cfRule type="duplicateValues" dxfId="308" priority="304"/>
-    <cfRule type="duplicateValues" dxfId="307" priority="305"/>
-    <cfRule type="duplicateValues" dxfId="306" priority="306"/>
-    <cfRule type="duplicateValues" dxfId="305" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="309"/>
     <cfRule type="duplicateValues" dxfId="304" priority="308"/>
-    <cfRule type="duplicateValues" dxfId="303" priority="309"/>
-    <cfRule type="duplicateValues" dxfId="302" priority="310"/>
-    <cfRule type="duplicateValues" dxfId="301" priority="311"/>
-    <cfRule type="duplicateValues" dxfId="300" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="duplicateValues" dxfId="299" priority="324"/>
-    <cfRule type="duplicateValues" dxfId="298" priority="325"/>
-    <cfRule type="duplicateValues" dxfId="297" priority="326"/>
-    <cfRule type="duplicateValues" dxfId="296" priority="327"/>
-    <cfRule type="duplicateValues" dxfId="295" priority="328"/>
-    <cfRule type="duplicateValues" dxfId="294" priority="329"/>
-    <cfRule type="duplicateValues" dxfId="293" priority="330"/>
-    <cfRule type="duplicateValues" dxfId="292" priority="331"/>
-    <cfRule type="duplicateValues" dxfId="291" priority="332"/>
-    <cfRule type="duplicateValues" dxfId="290" priority="333"/>
-    <cfRule type="duplicateValues" dxfId="289" priority="334"/>
-    <cfRule type="duplicateValues" dxfId="288" priority="335"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="335"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="327"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="324"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="326"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="328"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="329"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="330"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="331"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="332"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="333"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="334"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80 F76:F78">
-    <cfRule type="duplicateValues" dxfId="287" priority="358"/>
-    <cfRule type="duplicateValues" dxfId="286" priority="359"/>
-    <cfRule type="duplicateValues" dxfId="285" priority="360"/>
-    <cfRule type="duplicateValues" dxfId="284" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="369"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="365"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="364"/>
     <cfRule type="duplicateValues" dxfId="283" priority="362"/>
     <cfRule type="duplicateValues" dxfId="282" priority="363"/>
-    <cfRule type="duplicateValues" dxfId="281" priority="364"/>
-    <cfRule type="duplicateValues" dxfId="280" priority="365"/>
-    <cfRule type="duplicateValues" dxfId="279" priority="366"/>
-    <cfRule type="duplicateValues" dxfId="278" priority="367"/>
-    <cfRule type="duplicateValues" dxfId="277" priority="368"/>
-    <cfRule type="duplicateValues" dxfId="276" priority="369"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="359"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="360"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="366"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:F83">
-    <cfRule type="duplicateValues" dxfId="275" priority="3513"/>
-    <cfRule type="duplicateValues" dxfId="274" priority="3514"/>
-    <cfRule type="duplicateValues" dxfId="273" priority="3515"/>
-    <cfRule type="duplicateValues" dxfId="272" priority="3516"/>
-    <cfRule type="duplicateValues" dxfId="271" priority="3517"/>
-    <cfRule type="duplicateValues" dxfId="270" priority="3518"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="3523"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="3522"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="3521"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="3517"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="3516"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="3515"/>
     <cfRule type="duplicateValues" dxfId="269" priority="3519"/>
-    <cfRule type="duplicateValues" dxfId="268" priority="3520"/>
-    <cfRule type="duplicateValues" dxfId="267" priority="3521"/>
-    <cfRule type="duplicateValues" dxfId="266" priority="3522"/>
-    <cfRule type="duplicateValues" dxfId="265" priority="3523"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="3514"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="3518"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="3513"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="3520"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:F88">
     <cfRule type="duplicateValues" dxfId="264" priority="416"/>
@@ -38334,344 +38334,330 @@
     <cfRule type="duplicateValues" dxfId="253" priority="427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89:F100">
-    <cfRule type="duplicateValues" dxfId="252" priority="720"/>
-    <cfRule type="duplicateValues" dxfId="251" priority="765"/>
-    <cfRule type="duplicateValues" dxfId="250" priority="766"/>
-    <cfRule type="duplicateValues" dxfId="249" priority="767"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="774"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="772"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="771"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="770"/>
     <cfRule type="duplicateValues" dxfId="248" priority="768"/>
-    <cfRule type="duplicateValues" dxfId="247" priority="769"/>
-    <cfRule type="duplicateValues" dxfId="246" priority="770"/>
-    <cfRule type="duplicateValues" dxfId="245" priority="771"/>
-    <cfRule type="duplicateValues" dxfId="244" priority="772"/>
-    <cfRule type="duplicateValues" dxfId="243" priority="773"/>
-    <cfRule type="duplicateValues" dxfId="242" priority="774"/>
-    <cfRule type="duplicateValues" dxfId="241" priority="775"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="767"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="720"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="766"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="765"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="769"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="775"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="773"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101:F126">
-    <cfRule type="duplicateValues" dxfId="240" priority="4028"/>
-    <cfRule type="duplicateValues" dxfId="239" priority="4029"/>
-    <cfRule type="duplicateValues" dxfId="238" priority="4030"/>
-    <cfRule type="duplicateValues" dxfId="237" priority="4031"/>
-    <cfRule type="duplicateValues" dxfId="236" priority="4032"/>
-    <cfRule type="duplicateValues" dxfId="235" priority="4033"/>
-    <cfRule type="duplicateValues" dxfId="234" priority="4034"/>
-    <cfRule type="duplicateValues" dxfId="233" priority="4035"/>
-    <cfRule type="duplicateValues" dxfId="232" priority="4036"/>
-    <cfRule type="duplicateValues" dxfId="231" priority="4037"/>
-    <cfRule type="duplicateValues" dxfId="230" priority="4038"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="4039"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="4035"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="4028"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="4029"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="4030"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="4031"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="4036"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="4038"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="4037"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="4039"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="4032"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="4033"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="4034"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172:F195">
-    <cfRule type="duplicateValues" dxfId="228" priority="4055"/>
-    <cfRule type="duplicateValues" dxfId="227" priority="4056"/>
-    <cfRule type="duplicateValues" dxfId="226" priority="4057"/>
-    <cfRule type="duplicateValues" dxfId="225" priority="4058"/>
-    <cfRule type="duplicateValues" dxfId="224" priority="4059"/>
-    <cfRule type="duplicateValues" dxfId="223" priority="4060"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="4060"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="4066"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="4065"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="4064"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="4063"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="4062"/>
     <cfRule type="duplicateValues" dxfId="222" priority="4061"/>
-    <cfRule type="duplicateValues" dxfId="221" priority="4062"/>
-    <cfRule type="duplicateValues" dxfId="220" priority="4063"/>
-    <cfRule type="duplicateValues" dxfId="219" priority="4064"/>
-    <cfRule type="duplicateValues" dxfId="218" priority="4065"/>
-    <cfRule type="duplicateValues" dxfId="217" priority="4066"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="4059"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="4058"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="4057"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="4056"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="4055"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F249:F250">
+    <cfRule type="duplicateValues" dxfId="216" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F251:F273 F196:F248">
+    <cfRule type="duplicateValues" dxfId="210" priority="4698"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F274:F283">
+    <cfRule type="duplicateValues" dxfId="209" priority="4162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F284:F289 F291">
+    <cfRule type="duplicateValues" dxfId="208" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F284:F297">
+    <cfRule type="duplicateValues" dxfId="205" priority="4590"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F290">
+    <cfRule type="duplicateValues" dxfId="204" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F292:F297">
+    <cfRule type="duplicateValues" dxfId="199" priority="4592"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="4593"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="4594"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="4595"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="4596"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F298:F305">
+    <cfRule type="duplicateValues" dxfId="194" priority="4339"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="4337"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="4340"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="4341"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="4342"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="4343"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F306:F311">
+    <cfRule type="duplicateValues" dxfId="188" priority="4636"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F312">
+    <cfRule type="duplicateValues" dxfId="187" priority="4609"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F313:F327">
+    <cfRule type="duplicateValues" dxfId="186" priority="4697"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F328:F329">
+    <cfRule type="duplicateValues" dxfId="185" priority="4649"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F330:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="216" priority="2976"/>
-    <cfRule type="duplicateValues" dxfId="215" priority="2977"/>
-    <cfRule type="duplicateValues" dxfId="214" priority="2978"/>
-    <cfRule type="duplicateValues" dxfId="213" priority="2979"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="2980"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="2976"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="2979"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="2978"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="2977"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="2980"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F330:F1048576 F1:F2 F81:F83 F32:F73">
-    <cfRule type="duplicateValues" dxfId="211" priority="799"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="799"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F330:F1048576 F1:F126 F172:F195">
-    <cfRule type="duplicateValues" dxfId="210" priority="587"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="587"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F330:F1048576 F1:F195">
-    <cfRule type="duplicateValues" dxfId="209" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="230"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F330:F1048576 F1:F305">
+    <cfRule type="duplicateValues" dxfId="176" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F330:F1048576">
-    <cfRule type="duplicateValues" dxfId="208" priority="2991"/>
-    <cfRule type="duplicateValues" dxfId="207" priority="2992"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="2992"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="2991"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108">
-    <cfRule type="cellIs" dxfId="206" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="179" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K101:K116">
-    <cfRule type="cellIs" dxfId="205" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="178" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P74">
-    <cfRule type="duplicateValues" dxfId="204" priority="3648"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="3649"/>
-    <cfRule type="duplicateValues" dxfId="202" priority="3650"/>
-    <cfRule type="duplicateValues" dxfId="201" priority="3651"/>
-    <cfRule type="duplicateValues" dxfId="200" priority="3652"/>
-    <cfRule type="duplicateValues" dxfId="199" priority="3653"/>
-    <cfRule type="duplicateValues" dxfId="198" priority="3654"/>
-    <cfRule type="duplicateValues" dxfId="197" priority="3655"/>
-    <cfRule type="duplicateValues" dxfId="196" priority="3656"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="3657"/>
-    <cfRule type="duplicateValues" dxfId="194" priority="3658"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="3652"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="3656"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="3655"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="3654"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="3653"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="3651"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="3650"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="3649"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="3648"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="3657"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="3658"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P75">
-    <cfRule type="duplicateValues" dxfId="193" priority="313"/>
-    <cfRule type="duplicateValues" dxfId="192" priority="314"/>
-    <cfRule type="duplicateValues" dxfId="191" priority="315"/>
-    <cfRule type="duplicateValues" dxfId="190" priority="316"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="317"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="318"/>
-    <cfRule type="duplicateValues" dxfId="187" priority="319"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="320"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="321"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="322"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="322"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="317"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P80 P76:P78">
-    <cfRule type="duplicateValues" dxfId="182" priority="347"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="348"/>
-    <cfRule type="duplicateValues" dxfId="180" priority="349"/>
-    <cfRule type="duplicateValues" dxfId="179" priority="350"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="351"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="352"/>
-    <cfRule type="duplicateValues" dxfId="176" priority="353"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="354"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="355"/>
-    <cfRule type="duplicateValues" dxfId="173" priority="356"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="357"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="355"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="354"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="353"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="347"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="348"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="349"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="350"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="351"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="352"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="357"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P84:P88">
-    <cfRule type="duplicateValues" dxfId="171" priority="428"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="429"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="430"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="431"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="432"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="433"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="434"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="435"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="436"/>
-    <cfRule type="duplicateValues" dxfId="162" priority="437"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="428"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="430"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="431"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="429"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="437"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="436"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="435"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="434"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="433"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="432"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P89:P90">
-    <cfRule type="duplicateValues" dxfId="160" priority="743"/>
-    <cfRule type="duplicateValues" dxfId="159" priority="744"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="745"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="746"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="747"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="748"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="749"/>
-    <cfRule type="duplicateValues" dxfId="153" priority="750"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="751"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="752"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="753"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="746"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="743"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="744"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="745"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="747"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="748"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="749"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="750"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="751"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="752"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="753"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P91:P92">
-    <cfRule type="duplicateValues" dxfId="149" priority="721"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="722"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="723"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="724"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="725"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="726"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="727"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="728"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="729"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="730"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="731"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="722"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="721"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="723"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="729"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="728"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="727"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="726"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="725"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="724"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="731"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="730"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P93:P95">
-    <cfRule type="duplicateValues" dxfId="138" priority="732"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="733"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="734"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="735"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="736"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="737"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="738"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="739"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="740"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="741"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="742"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="737"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="740"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="742"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="741"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="739"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="738"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="732"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="733"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="734"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="735"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="736"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P96">
-    <cfRule type="duplicateValues" dxfId="127" priority="709"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="710"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="711"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="712"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="713"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="714"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="715"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="716"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="717"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="718"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="719"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="714"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="719"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="712"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="711"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="713"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="715"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="716"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="717"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="718"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="709"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="710"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P97:P100">
-    <cfRule type="duplicateValues" dxfId="116" priority="754"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="755"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="756"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="757"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="758"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="759"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="760"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="761"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="762"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="763"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="764"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="761"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="764"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="755"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="763"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="762"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="754"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="760"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="756"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="757"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="758"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="759"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P172:P175">
-    <cfRule type="duplicateValues" dxfId="105" priority="196"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="198"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="199"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="201"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="202"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P176:Q179 Q172:Q175">
-    <cfRule type="duplicateValues" dxfId="94" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="210"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="213"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="215"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="216"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q14">
-    <cfRule type="duplicateValues" dxfId="83" priority="3984"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="3985"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="3986"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="3987"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="3988"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="3989"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="3990"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="3991"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="3992"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="3993"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="3994"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="3993"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="3984"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="3988"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3992"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="3991"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="3985"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="3990"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3989"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="3994"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3987"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="3986"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q42">
-    <cfRule type="duplicateValues" dxfId="72" priority="800"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="801"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="802"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="803"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="804"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="805"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="806"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="807"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="808"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="809"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="810"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="807"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="810"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="809"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="808"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="806"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="804"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="803"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="802"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="801"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="800"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="805"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44:Q48">
-    <cfRule type="duplicateValues" dxfId="61" priority="496"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="497"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="498"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="499"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="500"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="501"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="502"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="503"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="504"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="505"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="506"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="506"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="496"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="497"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="499"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="501"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="502"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="503"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="505"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="498"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="504"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q80">
-    <cfRule type="duplicateValues" dxfId="50" priority="336"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="337"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="338"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="339"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="340"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="341"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="342"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="343"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="344"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="345"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="346"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F274:F283">
-    <cfRule type="duplicateValues" dxfId="39" priority="4162"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F249:F250">
-    <cfRule type="duplicateValues" dxfId="38" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F249:F250">
-    <cfRule type="duplicateValues" dxfId="37" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F249:F250">
-    <cfRule type="duplicateValues" dxfId="36" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F249:F250">
-    <cfRule type="duplicateValues" dxfId="35" priority="115"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F249:F250">
-    <cfRule type="duplicateValues" dxfId="34" priority="116"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F249:F250">
-    <cfRule type="duplicateValues" dxfId="33" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F298:F305">
-    <cfRule type="duplicateValues" dxfId="32" priority="4337"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F298:F305">
-    <cfRule type="duplicateValues" dxfId="31" priority="4339"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="4340"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="4341"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="4342"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="4343"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F284:F289 F291">
-    <cfRule type="duplicateValues" dxfId="26" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F284:F289 F291">
-    <cfRule type="duplicateValues" dxfId="24" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F290">
-    <cfRule type="duplicateValues" dxfId="23" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F284:F297">
-    <cfRule type="duplicateValues" dxfId="18" priority="4590"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F292:F297">
-    <cfRule type="duplicateValues" dxfId="17" priority="4592"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="4593"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="4594"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="4595"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="4596"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F330:F1048576 F1:F305">
-    <cfRule type="duplicateValues" dxfId="12" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F312">
-    <cfRule type="duplicateValues" dxfId="11" priority="4609"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F306:F311">
-    <cfRule type="duplicateValues" dxfId="10" priority="4636"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F328:F329">
-    <cfRule type="duplicateValues" dxfId="9" priority="4649"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F313:F327">
-    <cfRule type="duplicateValues" dxfId="8" priority="4697"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F251:F273 F196:F248">
-    <cfRule type="duplicateValues" dxfId="7" priority="4698"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="346"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="345"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="342"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="337"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="336"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/ARQU/Ontologia_ARQUI.xlsx
+++ b/Versão5/ARQU/Ontologia_ARQUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\ARQU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F45B96-2774-4989-85E9-2D0C56C711CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9CCEF3-1BBF-4F48-ACA7-08F78FDDC00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10293" uniqueCount="1586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10293" uniqueCount="1587">
   <si>
     <t>EquivalentTo: 
 Raiz
@@ -4719,9 +4719,6 @@
     <t>Luz</t>
   </si>
   <si>
-    <t xml:space="preserve">Lâmpada </t>
-  </si>
-  <si>
     <t>Lâmpada.Fluorescente.Compacta</t>
   </si>
   <si>
@@ -4831,6 +4828,12 @@
   </si>
   <si>
     <t>Telhado.com.Agua.Furtada</t>
+  </si>
+  <si>
+    <t>Lâmpadas</t>
+  </si>
+  <si>
+    <t>Luminárias</t>
   </si>
 </sst>
 </file>
@@ -10191,7 +10194,7 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">NOW()</f>
-        <v>45926.808446875002</v>
+        <v>45926.810765624999</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -10244,9 +10247,9 @@
   <dimension ref="A1:Y329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="F293" sqref="F293"/>
+      <selection pane="bottomLeft" activeCell="E323" sqref="E323:E329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="8.4" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -27790,10 +27793,10 @@
         <v>Bancada Banheiro</v>
       </c>
       <c r="P207" s="21" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="Q207" s="21" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="R207" s="77" t="s">
         <v>9</v>
@@ -27875,10 +27878,10 @@
         <v>Bancada Cozinha</v>
       </c>
       <c r="P208" s="21" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="Q208" s="21" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="R208" s="77" t="s">
         <v>9</v>
@@ -27960,10 +27963,10 @@
         <v>Bancada Laboratório</v>
       </c>
       <c r="P209" s="21" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="Q209" s="21" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="R209" s="77" t="s">
         <v>9</v>
@@ -28011,7 +28014,7 @@
         <v>1059</v>
       </c>
       <c r="F210" s="25" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G210" s="29" t="s">
         <v>9</v>
@@ -28045,10 +28048,10 @@
         <v>Bancada Química</v>
       </c>
       <c r="P210" s="21" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="Q210" s="21" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="R210" s="77" t="s">
         <v>9</v>
@@ -28096,7 +28099,7 @@
         <v>1059</v>
       </c>
       <c r="F211" s="25" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="G211" s="29" t="s">
         <v>9</v>
@@ -28130,10 +28133,10 @@
         <v>Bancada Biológica</v>
       </c>
       <c r="P211" s="21" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="Q211" s="21" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="R211" s="77" t="s">
         <v>9</v>
@@ -34232,7 +34235,7 @@
         <v>1456</v>
       </c>
       <c r="F284" s="25" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="G284" s="29" t="s">
         <v>9</v>
@@ -34266,10 +34269,10 @@
         <v>Telhado Verde</v>
       </c>
       <c r="P284" s="21" t="s">
+        <v>1582</v>
+      </c>
+      <c r="Q284" s="21" t="s">
         <v>1583</v>
-      </c>
-      <c r="Q284" s="21" t="s">
-        <v>1584</v>
       </c>
       <c r="R284" s="77" t="s">
         <v>9</v>
@@ -34657,7 +34660,7 @@
         <v>1456</v>
       </c>
       <c r="F289" s="25" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="G289" s="29" t="s">
         <v>9</v>
@@ -34997,7 +35000,7 @@
         <v>1456</v>
       </c>
       <c r="F293" s="25" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="G293" s="29" t="s">
         <v>9</v>
@@ -35422,7 +35425,7 @@
         <v>1457</v>
       </c>
       <c r="F298" s="44" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="G298" s="29" t="s">
         <v>9</v>
@@ -35592,7 +35595,7 @@
         <v>1457</v>
       </c>
       <c r="F300" s="44" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="G300" s="29" t="s">
         <v>9</v>
@@ -36694,10 +36697,10 @@
         <v>1546</v>
       </c>
       <c r="E313" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F313" s="25" t="s">
         <v>1498</v>
-      </c>
-      <c r="F313" s="25" t="s">
-        <v>1548</v>
       </c>
       <c r="G313" s="29" t="s">
         <v>9</v>
@@ -36724,11 +36727,11 @@
       </c>
       <c r="N313" s="26" t="str">
         <f t="shared" ref="N313:N329" si="93">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E313),"."," ")," De "," de "))</f>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="O313" s="26" t="str">
         <f t="shared" si="89"/>
-        <v xml:space="preserve">Lâmpada </v>
+        <v>Lâmpada</v>
       </c>
       <c r="P313" s="21" t="s">
         <v>1500</v>
@@ -36749,7 +36752,7 @@
       </c>
       <c r="U313" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="V313" s="77" t="s">
         <v>90</v>
@@ -36779,10 +36782,10 @@
         <v>1546</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>1498</v>
+        <v>1585</v>
       </c>
       <c r="F314" s="25" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G314" s="29" t="s">
         <v>9</v>
@@ -36809,7 +36812,7 @@
       </c>
       <c r="N314" s="26" t="str">
         <f t="shared" si="93"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="O314" s="26" t="str">
         <f t="shared" si="89"/>
@@ -36834,7 +36837,7 @@
       </c>
       <c r="U314" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="V314" s="77" t="s">
         <v>90</v>
@@ -36864,10 +36867,10 @@
         <v>1546</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>1498</v>
+        <v>1585</v>
       </c>
       <c r="F315" s="25" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="G315" s="29" t="s">
         <v>9</v>
@@ -36894,7 +36897,7 @@
       </c>
       <c r="N315" s="26" t="str">
         <f t="shared" si="93"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="O315" s="26" t="str">
         <f t="shared" si="89"/>
@@ -36919,7 +36922,7 @@
       </c>
       <c r="U315" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="V315" s="77" t="s">
         <v>90</v>
@@ -36949,10 +36952,10 @@
         <v>1546</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>1498</v>
+        <v>1585</v>
       </c>
       <c r="F316" s="25" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G316" s="29" t="s">
         <v>9</v>
@@ -36979,7 +36982,7 @@
       </c>
       <c r="N316" s="26" t="str">
         <f t="shared" si="93"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="O316" s="26" t="str">
         <f t="shared" si="89"/>
@@ -37004,7 +37007,7 @@
       </c>
       <c r="U316" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="V316" s="77" t="s">
         <v>90</v>
@@ -37034,10 +37037,10 @@
         <v>1546</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>1498</v>
+        <v>1585</v>
       </c>
       <c r="F317" s="25" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="G317" s="29" t="s">
         <v>9</v>
@@ -37064,7 +37067,7 @@
       </c>
       <c r="N317" s="26" t="str">
         <f t="shared" si="93"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="O317" s="26" t="str">
         <f t="shared" si="89"/>
@@ -37089,7 +37092,7 @@
       </c>
       <c r="U317" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="V317" s="77" t="s">
         <v>90</v>
@@ -37119,10 +37122,10 @@
         <v>1546</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>1498</v>
+        <v>1585</v>
       </c>
       <c r="F318" s="25" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G318" s="29" t="s">
         <v>9</v>
@@ -37149,14 +37152,14 @@
       </c>
       <c r="N318" s="26" t="str">
         <f t="shared" si="93"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="O318" s="26" t="str">
         <f t="shared" si="89"/>
         <v>Lâmpada LED</v>
       </c>
       <c r="P318" s="21" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="Q318" s="21" t="s">
         <v>1518</v>
@@ -37174,7 +37177,7 @@
       </c>
       <c r="U318" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="V318" s="77" t="s">
         <v>90</v>
@@ -37204,10 +37207,10 @@
         <v>1546</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>1498</v>
+        <v>1585</v>
       </c>
       <c r="F319" s="25" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="G319" s="29" t="s">
         <v>9</v>
@@ -37234,14 +37237,14 @@
       </c>
       <c r="N319" s="26" t="str">
         <f t="shared" si="93"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="O319" s="26" t="str">
         <f t="shared" si="89"/>
         <v>Lâmpada OLED</v>
       </c>
       <c r="P319" s="21" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="Q319" s="21" t="s">
         <v>1518</v>
@@ -37259,7 +37262,7 @@
       </c>
       <c r="U319" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="V319" s="77" t="s">
         <v>90</v>
@@ -37289,10 +37292,10 @@
         <v>1546</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>1498</v>
+        <v>1585</v>
       </c>
       <c r="F320" s="25" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="G320" s="29" t="s">
         <v>9</v>
@@ -37319,7 +37322,7 @@
       </c>
       <c r="N320" s="26" t="str">
         <f t="shared" si="93"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="O320" s="26" t="str">
         <f t="shared" si="89"/>
@@ -37344,7 +37347,7 @@
       </c>
       <c r="U320" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="V320" s="77" t="s">
         <v>90</v>
@@ -37374,10 +37377,10 @@
         <v>1546</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>1498</v>
+        <v>1585</v>
       </c>
       <c r="F321" s="25" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G321" s="29" t="s">
         <v>9</v>
@@ -37404,17 +37407,17 @@
       </c>
       <c r="N321" s="26" t="str">
         <f t="shared" si="93"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="O321" s="26" t="str">
         <f t="shared" si="89"/>
         <v>Lâmpada Iodetos Metálicos</v>
       </c>
       <c r="P321" s="21" t="s">
+        <v>1562</v>
+      </c>
+      <c r="Q321" s="21" t="s">
         <v>1563</v>
-      </c>
-      <c r="Q321" s="21" t="s">
-        <v>1564</v>
       </c>
       <c r="R321" s="77" t="s">
         <v>9</v>
@@ -37429,7 +37432,7 @@
       </c>
       <c r="U321" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="V321" s="77" t="s">
         <v>90</v>
@@ -37459,10 +37462,10 @@
         <v>1546</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>1498</v>
+        <v>1585</v>
       </c>
       <c r="F322" s="25" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="G322" s="29" t="s">
         <v>9</v>
@@ -37489,7 +37492,7 @@
       </c>
       <c r="N322" s="26" t="str">
         <f t="shared" si="93"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="O322" s="26" t="str">
         <f t="shared" si="89"/>
@@ -37514,7 +37517,7 @@
       </c>
       <c r="U322" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Lâmpada</v>
+        <v>Lâmpadas</v>
       </c>
       <c r="V322" s="77" t="s">
         <v>90</v>
@@ -37544,7 +37547,7 @@
         <v>1546</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>1524</v>
+        <v>1586</v>
       </c>
       <c r="F323" s="25" t="s">
         <v>1524</v>
@@ -37574,7 +37577,7 @@
       </c>
       <c r="N323" s="26" t="str">
         <f t="shared" si="93"/>
-        <v>Luminária</v>
+        <v>Luminárias</v>
       </c>
       <c r="O323" s="26" t="str">
         <f t="shared" si="89"/>
@@ -37599,7 +37602,7 @@
       </c>
       <c r="U323" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Luminária</v>
+        <v>Luminárias</v>
       </c>
       <c r="V323" s="77" t="s">
         <v>90</v>
@@ -37629,10 +37632,10 @@
         <v>1546</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>1524</v>
+        <v>1586</v>
       </c>
       <c r="F324" s="25" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="G324" s="29" t="s">
         <v>9</v>
@@ -37659,7 +37662,7 @@
       </c>
       <c r="N324" s="26" t="str">
         <f t="shared" si="93"/>
-        <v>Luminária</v>
+        <v>Luminárias</v>
       </c>
       <c r="O324" s="26" t="str">
         <f t="shared" si="89"/>
@@ -37684,7 +37687,7 @@
       </c>
       <c r="U324" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Luminária</v>
+        <v>Luminárias</v>
       </c>
       <c r="V324" s="77" t="s">
         <v>90</v>
@@ -37714,10 +37717,10 @@
         <v>1546</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>1524</v>
+        <v>1586</v>
       </c>
       <c r="F325" s="25" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="G325" s="29" t="s">
         <v>9</v>
@@ -37744,7 +37747,7 @@
       </c>
       <c r="N325" s="26" t="str">
         <f t="shared" si="93"/>
-        <v>Luminária</v>
+        <v>Luminárias</v>
       </c>
       <c r="O325" s="26" t="str">
         <f t="shared" si="89"/>
@@ -37769,7 +37772,7 @@
       </c>
       <c r="U325" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Luminária</v>
+        <v>Luminárias</v>
       </c>
       <c r="V325" s="77" t="s">
         <v>90</v>
@@ -37799,10 +37802,10 @@
         <v>1546</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>1524</v>
+        <v>1586</v>
       </c>
       <c r="F326" s="25" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="G326" s="29" t="s">
         <v>9</v>
@@ -37829,7 +37832,7 @@
       </c>
       <c r="N326" s="26" t="str">
         <f t="shared" si="93"/>
-        <v>Luminária</v>
+        <v>Luminárias</v>
       </c>
       <c r="O326" s="26" t="str">
         <f t="shared" si="89"/>
@@ -37854,7 +37857,7 @@
       </c>
       <c r="U326" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Luminária</v>
+        <v>Luminárias</v>
       </c>
       <c r="V326" s="77" t="s">
         <v>90</v>
@@ -37884,10 +37887,10 @@
         <v>1546</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>1524</v>
+        <v>1586</v>
       </c>
       <c r="F327" s="44" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="G327" s="29" t="s">
         <v>9</v>
@@ -37914,7 +37917,7 @@
       </c>
       <c r="N327" s="26" t="str">
         <f t="shared" si="93"/>
-        <v>Luminária</v>
+        <v>Luminárias</v>
       </c>
       <c r="O327" s="26" t="str">
         <f t="shared" si="89"/>
@@ -37939,7 +37942,7 @@
       </c>
       <c r="U327" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Luminária</v>
+        <v>Luminárias</v>
       </c>
       <c r="V327" s="77" t="s">
         <v>90</v>
@@ -37969,10 +37972,10 @@
         <v>1546</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>1524</v>
+        <v>1586</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G328" s="29" t="s">
         <v>9</v>
@@ -37999,7 +38002,7 @@
       </c>
       <c r="N328" s="26" t="str">
         <f t="shared" si="93"/>
-        <v>Luminária</v>
+        <v>Luminárias</v>
       </c>
       <c r="O328" s="26" t="str">
         <f t="shared" si="89"/>
@@ -38024,7 +38027,7 @@
       </c>
       <c r="U328" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Luminária</v>
+        <v>Luminárias</v>
       </c>
       <c r="V328" s="77" t="s">
         <v>90</v>
@@ -38054,7 +38057,7 @@
         <v>1546</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>1524</v>
+        <v>1586</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>1547</v>
@@ -38084,7 +38087,7 @@
       </c>
       <c r="N329" s="26" t="str">
         <f t="shared" si="93"/>
-        <v>Luminária</v>
+        <v>Luminárias</v>
       </c>
       <c r="O329" s="26" t="str">
         <f t="shared" si="89"/>
@@ -38109,7 +38112,7 @@
       </c>
       <c r="U329" s="27" t="str">
         <f t="shared" si="87"/>
-        <v>Luminária</v>
+        <v>Luminárias</v>
       </c>
       <c r="V329" s="77" t="s">
         <v>90</v>

--- a/Versão5/ARQU/Ontologia_ARQUI.xlsx
+++ b/Versão5/ARQU/Ontologia_ARQUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\ARQU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F86AE2-A0C0-429C-A688-9D85EE130649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BD8DF3-F281-40D5-ADC9-3FB1B5DB9A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12806" uniqueCount="2215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12806" uniqueCount="2217">
   <si>
     <t>EquivalentTo: 
 Raiz
@@ -5838,9 +5838,6 @@
     <t>IfcRamp</t>
   </si>
   <si>
-    <t>Una rampa es una pasarela vertical que proporciona un enlace de tráfico para personas o vehículos.</t>
-  </si>
-  <si>
     <t>IfcRampFlight</t>
   </si>
   <si>
@@ -5949,9 +5946,6 @@
     <t>Rampa</t>
   </si>
   <si>
-    <t>Rampa é uma passagem inclinada que proporciona uma ligação de circulação para pessoas ou veículos.</t>
-  </si>
-  <si>
     <t>Trecho reto contínuo de rampa entre dois patamares.</t>
   </si>
   <si>
@@ -6718,6 +6712,18 @@
   </si>
   <si>
     <t>Contra.Quedas</t>
+  </si>
+  <si>
+    <t>Elevador é um equipamento mecânico para uma ligação de circulação vertical para pessoas, veículos ou produtos.</t>
+  </si>
+  <si>
+    <t>Ascensor es um equipo mecánico para establecer conexión de circulación vertical para personas, vehículos o productos.</t>
+  </si>
+  <si>
+    <t>Una rampa es una pasarela inclinada que proporciona un enlace de tráfico para personas o vehículos. Para ABNT NBR 9050 de acesibilidad la inclinación longitudinal máxima de 8,33% (1:12) en nuevos proyectos.</t>
+  </si>
+  <si>
+    <t>Rampa é uma passagem inclinada que proporciona uma ligação de circulação para pessoas ou veículos. Para ABNT NBR 9050 de acessibilidade a inclinação longitudinal máxima de 8,33% (1:12) em novos projetos.</t>
   </si>
 </sst>
 </file>
@@ -9987,7 +9993,7 @@
       </c>
       <c r="B18" s="35">
         <f ca="1">NOW()</f>
-        <v>45927.724176388889</v>
+        <v>45927.730374652776</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -10039,10 +10045,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96052D63-9637-42D9-866B-0BB924A50D8C}">
   <dimension ref="A1:Y492"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="D201" sqref="D201"/>
+      <selection pane="bottomLeft" activeCell="P424" sqref="P424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -26892,13 +26898,13 @@
         <v>1491</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="G199" s="84" t="s">
         <v>9</v>
@@ -26932,10 +26938,10 @@
         <v>Guardacorpo</v>
       </c>
       <c r="P199" s="21" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="Q199" s="21" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="R199" s="75" t="s">
         <v>9</v>
@@ -26960,10 +26966,10 @@
         <v>Key.Pro.199</v>
       </c>
       <c r="X199" s="78" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="Y199" s="77" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="200" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -26977,13 +26983,13 @@
         <v>1491</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="G200" s="84" t="s">
         <v>9</v>
@@ -27017,10 +27023,10 @@
         <v>Guardacorpo Projeção</v>
       </c>
       <c r="P200" s="21" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="Q200" s="21" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="R200" s="75" t="s">
         <v>9</v>
@@ -27045,7 +27051,7 @@
         <v>Key.Pro.200</v>
       </c>
       <c r="X200" s="78" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="Y200" s="77" t="s">
         <v>9</v>
@@ -27062,13 +27068,13 @@
         <v>1491</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="G201" s="84" t="s">
         <v>9</v>
@@ -27102,10 +27108,10 @@
         <v>Guardacorpo Balaústre</v>
       </c>
       <c r="P201" s="21" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="Q201" s="21" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="R201" s="75" t="s">
         <v>9</v>
@@ -27130,10 +27136,10 @@
         <v>Key.Pro.201</v>
       </c>
       <c r="X201" s="78" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="Y201" s="77" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="202" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -27147,13 +27153,13 @@
         <v>1491</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="G202" s="84" t="s">
         <v>9</v>
@@ -27187,10 +27193,10 @@
         <v>Guardacorpo Corrimão</v>
       </c>
       <c r="P202" s="21" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="Q202" s="21" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="R202" s="75" t="s">
         <v>9</v>
@@ -27215,10 +27221,10 @@
         <v>Key.Pro.202</v>
       </c>
       <c r="X202" s="78" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="Y202" s="77" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="203" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
@@ -31743,7 +31749,7 @@
         <v>1585</v>
       </c>
       <c r="F256" s="25" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G256" s="82" t="s">
         <v>9</v>
@@ -46102,13 +46108,13 @@
         <v>1919</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="F425" s="25" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="G425" s="84" t="s">
         <v>9</v>
@@ -46142,10 +46148,10 @@
         <v>Elevador</v>
       </c>
       <c r="P425" s="21" t="s">
-        <v>1958</v>
+        <v>2213</v>
       </c>
       <c r="Q425" s="21" t="s">
-        <v>1921</v>
+        <v>2214</v>
       </c>
       <c r="R425" s="75" t="s">
         <v>9</v>
@@ -46170,7 +46176,7 @@
         <v>Key.Cir.425</v>
       </c>
       <c r="X425" s="47" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="Y425" s="77" t="s">
         <v>9</v>
@@ -46187,13 +46193,13 @@
         <v>1919</v>
       </c>
       <c r="D426" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E426" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E426" s="2" t="s">
+      <c r="F426" s="25" t="s">
         <v>1956</v>
-      </c>
-      <c r="F426" s="25" t="s">
-        <v>1957</v>
       </c>
       <c r="G426" s="84" t="s">
         <v>9</v>
@@ -46227,10 +46233,10 @@
         <v>Rampa</v>
       </c>
       <c r="P426" s="21" t="s">
-        <v>1958</v>
+        <v>2216</v>
       </c>
       <c r="Q426" s="21" t="s">
-        <v>1921</v>
+        <v>2215</v>
       </c>
       <c r="R426" s="75" t="s">
         <v>9</v>
@@ -46255,7 +46261,7 @@
         <v>Key.Cir.426</v>
       </c>
       <c r="X426" s="47" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="Y426" s="77" t="s">
         <v>1920</v>
@@ -46272,13 +46278,13 @@
         <v>1919</v>
       </c>
       <c r="D427" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E427" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E427" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F427" s="25" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="G427" s="84" t="s">
         <v>9</v>
@@ -46312,10 +46318,10 @@
         <v>Lance Rampa</v>
       </c>
       <c r="P427" s="21" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="Q427" s="21" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="R427" s="75" t="s">
         <v>9</v>
@@ -46340,10 +46346,10 @@
         <v>Key.Cir.427</v>
       </c>
       <c r="X427" s="47" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="Y427" s="77" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="428" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -46357,13 +46363,13 @@
         <v>1919</v>
       </c>
       <c r="D428" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E428" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E428" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F428" s="25" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="G428" s="84" t="s">
         <v>9</v>
@@ -46397,10 +46403,10 @@
         <v>Lance Curvo Rampa</v>
       </c>
       <c r="P428" s="21" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="Q428" s="21" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="R428" s="75" t="s">
         <v>9</v>
@@ -46425,10 +46431,10 @@
         <v>Key.Cir.428</v>
       </c>
       <c r="X428" s="47" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="Y428" s="77" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="429" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -46442,13 +46448,13 @@
         <v>1919</v>
       </c>
       <c r="D429" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E429" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E429" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F429" s="25" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="G429" s="84" t="s">
         <v>9</v>
@@ -46482,10 +46488,10 @@
         <v>Lance Reto Rampa</v>
       </c>
       <c r="P429" s="21" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="Q429" s="21" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="R429" s="75" t="s">
         <v>9</v>
@@ -46510,10 +46516,10 @@
         <v>Key.Cir.429</v>
       </c>
       <c r="X429" s="47" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="Y429" s="77" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="430" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -46527,13 +46533,13 @@
         <v>1919</v>
       </c>
       <c r="D430" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E430" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E430" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F430" s="25" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="G430" s="84" t="s">
         <v>9</v>
@@ -46567,10 +46573,10 @@
         <v>Rampa Espiral</v>
       </c>
       <c r="P430" s="21" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="Q430" s="21" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="R430" s="75" t="s">
         <v>9</v>
@@ -46595,10 +46601,10 @@
         <v>Key.Cir.430</v>
       </c>
       <c r="X430" s="47" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="Y430" s="77" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="431" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -46612,13 +46618,13 @@
         <v>1919</v>
       </c>
       <c r="D431" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E431" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E431" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F431" s="25" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="G431" s="84" t="s">
         <v>9</v>
@@ -46652,10 +46658,10 @@
         <v>Rampa U</v>
       </c>
       <c r="P431" s="21" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="Q431" s="21" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="R431" s="75" t="s">
         <v>9</v>
@@ -46680,10 +46686,10 @@
         <v>Key.Cir.431</v>
       </c>
       <c r="X431" s="47" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="Y431" s="77" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="432" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -46697,13 +46703,13 @@
         <v>1919</v>
       </c>
       <c r="D432" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E432" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E432" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F432" s="25" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="G432" s="84" t="s">
         <v>9</v>
@@ -46737,10 +46743,10 @@
         <v>Rampa U Longo</v>
       </c>
       <c r="P432" s="21" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="Q432" s="21" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="R432" s="75" t="s">
         <v>9</v>
@@ -46765,10 +46771,10 @@
         <v>Key.Cir.432</v>
       </c>
       <c r="X432" s="47" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="Y432" s="77" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="433" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -46782,13 +46788,13 @@
         <v>1919</v>
       </c>
       <c r="D433" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E433" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E433" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F433" s="25" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="G433" s="84" t="s">
         <v>9</v>
@@ -46822,10 +46828,10 @@
         <v>Rampa L</v>
       </c>
       <c r="P433" s="21" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="Q433" s="21" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="R433" s="75" t="s">
         <v>9</v>
@@ -46850,10 +46856,10 @@
         <v>Key.Cir.433</v>
       </c>
       <c r="X433" s="47" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="Y433" s="77" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="434" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -46867,13 +46873,13 @@
         <v>1919</v>
       </c>
       <c r="D434" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E434" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E434" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F434" s="25" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="G434" s="84" t="s">
         <v>9</v>
@@ -46907,10 +46913,10 @@
         <v>Rampa Reta</v>
       </c>
       <c r="P434" s="21" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="Q434" s="21" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="R434" s="75" t="s">
         <v>9</v>
@@ -46935,10 +46941,10 @@
         <v>Key.Cir.434</v>
       </c>
       <c r="X434" s="47" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="Y434" s="77" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="435" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -46952,13 +46958,13 @@
         <v>1919</v>
       </c>
       <c r="D435" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E435" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E435" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F435" s="25" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="G435" s="84" t="s">
         <v>9</v>
@@ -46992,10 +46998,10 @@
         <v>Rampa Reta Dois Lances</v>
       </c>
       <c r="P435" s="21" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="Q435" s="21" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="R435" s="75" t="s">
         <v>9</v>
@@ -47020,10 +47026,10 @@
         <v>Key.Cir.435</v>
       </c>
       <c r="X435" s="47" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="Y435" s="77" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="436" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -47037,13 +47043,13 @@
         <v>1919</v>
       </c>
       <c r="D436" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E436" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E436" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F436" s="42" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="G436" s="84" t="s">
         <v>9</v>
@@ -47077,10 +47083,10 @@
         <v>Rampa Incompleta</v>
       </c>
       <c r="P436" s="21" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="Q436" s="21" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="R436" s="75" t="s">
         <v>9</v>
@@ -47105,7 +47111,7 @@
         <v>Key.Cir.436</v>
       </c>
       <c r="X436" s="78" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="Y436" s="78" t="s">
         <v>9</v>
@@ -47122,13 +47128,13 @@
         <v>1919</v>
       </c>
       <c r="D437" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E437" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E437" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F437" s="42" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="G437" s="84" t="s">
         <v>9</v>
@@ -47162,10 +47168,10 @@
         <v>Rampa Suporte Lateral</v>
       </c>
       <c r="P437" s="21" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="Q437" s="21" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="R437" s="75" t="s">
         <v>9</v>
@@ -47190,7 +47196,7 @@
         <v>Key.Cir.437</v>
       </c>
       <c r="X437" s="78" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="Y437" s="78" t="s">
         <v>9</v>
@@ -47207,13 +47213,13 @@
         <v>1919</v>
       </c>
       <c r="D438" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E438" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E438" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F438" s="42" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="G438" s="84" t="s">
         <v>9</v>
@@ -47247,10 +47253,10 @@
         <v>Rampa Suporte Lateral Projeção</v>
       </c>
       <c r="P438" s="21" t="s">
+        <v>1947</v>
+      </c>
+      <c r="Q438" s="21" t="s">
         <v>1948</v>
-      </c>
-      <c r="Q438" s="21" t="s">
-        <v>1949</v>
       </c>
       <c r="R438" s="75" t="s">
         <v>9</v>
@@ -47275,7 +47281,7 @@
         <v>Key.Cir.438</v>
       </c>
       <c r="X438" s="78" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="Y438" s="78" t="s">
         <v>9</v>
@@ -47292,13 +47298,13 @@
         <v>1919</v>
       </c>
       <c r="D439" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E439" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E439" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F439" s="42" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="G439" s="84" t="s">
         <v>9</v>
@@ -47332,10 +47338,10 @@
         <v>Rampa Seta Sobe</v>
       </c>
       <c r="P439" s="21" t="s">
+        <v>1950</v>
+      </c>
+      <c r="Q439" s="21" t="s">
         <v>1951</v>
-      </c>
-      <c r="Q439" s="21" t="s">
-        <v>1952</v>
       </c>
       <c r="R439" s="75" t="s">
         <v>9</v>
@@ -47360,7 +47366,7 @@
         <v>Key.Cir.439</v>
       </c>
       <c r="X439" s="78" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="Y439" s="78" t="s">
         <v>9</v>
@@ -47377,13 +47383,13 @@
         <v>1919</v>
       </c>
       <c r="D440" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E440" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E440" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F440" s="42" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="G440" s="84" t="s">
         <v>9</v>
@@ -47417,10 +47423,10 @@
         <v>Rampa Seta Desce</v>
       </c>
       <c r="P440" s="21" t="s">
+        <v>1937</v>
+      </c>
+      <c r="Q440" s="21" t="s">
         <v>1938</v>
-      </c>
-      <c r="Q440" s="21" t="s">
-        <v>1939</v>
       </c>
       <c r="R440" s="75" t="s">
         <v>9</v>
@@ -47445,7 +47451,7 @@
         <v>Key.Cir.440</v>
       </c>
       <c r="X440" s="78" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="Y440" s="78" t="s">
         <v>9</v>
@@ -47462,13 +47468,13 @@
         <v>1919</v>
       </c>
       <c r="D441" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E441" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E441" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F441" s="42" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="G441" s="84" t="s">
         <v>9</v>
@@ -47502,10 +47508,10 @@
         <v>Rampa Texto Sobe</v>
       </c>
       <c r="P441" s="21" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="Q441" s="21" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="R441" s="75" t="s">
         <v>9</v>
@@ -47530,7 +47536,7 @@
         <v>Key.Cir.441</v>
       </c>
       <c r="X441" s="78" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Y441" s="78" t="s">
         <v>9</v>
@@ -47547,13 +47553,13 @@
         <v>1919</v>
       </c>
       <c r="D442" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E442" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E442" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F442" s="42" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="G442" s="84" t="s">
         <v>9</v>
@@ -47587,10 +47593,10 @@
         <v>Rampa Texto Desce</v>
       </c>
       <c r="P442" s="21" t="s">
+        <v>1940</v>
+      </c>
+      <c r="Q442" s="21" t="s">
         <v>1941</v>
-      </c>
-      <c r="Q442" s="21" t="s">
-        <v>1942</v>
       </c>
       <c r="R442" s="75" t="s">
         <v>9</v>
@@ -47615,7 +47621,7 @@
         <v>Key.Cir.442</v>
       </c>
       <c r="X442" s="78" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="Y442" s="78" t="s">
         <v>9</v>
@@ -47632,13 +47638,13 @@
         <v>1919</v>
       </c>
       <c r="D443" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E443" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="E443" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F443" s="42" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="G443" s="84" t="s">
         <v>9</v>
@@ -47672,10 +47678,10 @@
         <v>Rampa Projeção</v>
       </c>
       <c r="P443" s="21" t="s">
+        <v>1934</v>
+      </c>
+      <c r="Q443" s="21" t="s">
         <v>1935</v>
-      </c>
-      <c r="Q443" s="21" t="s">
-        <v>1936</v>
       </c>
       <c r="R443" s="75" t="s">
         <v>9</v>
@@ -47700,7 +47706,7 @@
         <v>Key.Cir.443</v>
       </c>
       <c r="X443" s="78" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="Y443" s="78" t="s">
         <v>9</v>
@@ -47717,13 +47723,13 @@
         <v>1919</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F444" s="25" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="G444" s="84" t="s">
         <v>9</v>
@@ -47757,10 +47763,10 @@
         <v>Escada</v>
       </c>
       <c r="P444" s="21" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="Q444" s="21" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="R444" s="75" t="s">
         <v>9</v>
@@ -47785,10 +47791,10 @@
         <v>Key.Cir.444</v>
       </c>
       <c r="X444" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y444" s="77" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="445" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -47802,13 +47808,13 @@
         <v>1919</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F445" s="25" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="G445" s="84" t="s">
         <v>9</v>
@@ -47842,10 +47848,10 @@
         <v>Lance Escada</v>
       </c>
       <c r="P445" s="21" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="Q445" s="21" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="R445" s="75" t="s">
         <v>9</v>
@@ -47870,10 +47876,10 @@
         <v>Key.Cir.445</v>
       </c>
       <c r="X445" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y445" s="77" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="446" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -47887,13 +47893,13 @@
         <v>1919</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F446" s="25" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="G446" s="84" t="s">
         <v>9</v>
@@ -47927,10 +47933,10 @@
         <v>Lance Escada Curvo</v>
       </c>
       <c r="P446" s="21" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="Q446" s="21" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="R446" s="75" t="s">
         <v>9</v>
@@ -47955,10 +47961,10 @@
         <v>Key.Cir.446</v>
       </c>
       <c r="X446" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y446" s="77" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="447" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -47972,13 +47978,13 @@
         <v>1919</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F447" s="25" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="G447" s="84" t="s">
         <v>9</v>
@@ -48012,10 +48018,10 @@
         <v>Lance Escada Livre</v>
       </c>
       <c r="P447" s="21" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="Q447" s="21" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="R447" s="75" t="s">
         <v>9</v>
@@ -48040,10 +48046,10 @@
         <v>Key.Cir.447</v>
       </c>
       <c r="X447" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y447" s="77" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="448" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -48057,13 +48063,13 @@
         <v>1919</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F448" s="25" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="G448" s="84" t="s">
         <v>9</v>
@@ -48097,10 +48103,10 @@
         <v>Lance Escada Espiral</v>
       </c>
       <c r="P448" s="21" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="Q448" s="21" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="R448" s="75" t="s">
         <v>9</v>
@@ -48125,10 +48131,10 @@
         <v>Key.Cir.448</v>
       </c>
       <c r="X448" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y448" s="77" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="449" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -48142,13 +48148,13 @@
         <v>1919</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F449" s="25" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="G449" s="84" t="s">
         <v>9</v>
@@ -48182,10 +48188,10 @@
         <v>Lance Escada Reto</v>
       </c>
       <c r="P449" s="21" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="Q449" s="21" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="R449" s="75" t="s">
         <v>9</v>
@@ -48210,10 +48216,10 @@
         <v>Key.Cir.449</v>
       </c>
       <c r="X449" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y449" s="77" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="450" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -48227,13 +48233,13 @@
         <v>1919</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F450" s="25" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="G450" s="84" t="s">
         <v>9</v>
@@ -48267,10 +48273,10 @@
         <v>Lance Escada Compensado</v>
       </c>
       <c r="P450" s="21" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="Q450" s="21" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="R450" s="75" t="s">
         <v>9</v>
@@ -48295,10 +48301,10 @@
         <v>Key.Cir.450</v>
       </c>
       <c r="X450" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y450" s="77" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="451" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -48312,13 +48318,13 @@
         <v>1919</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F451" s="25" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="G451" s="84" t="s">
         <v>9</v>
@@ -48352,10 +48358,10 @@
         <v>Escada Marinheiro</v>
       </c>
       <c r="P451" s="21" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="Q451" s="21" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="R451" s="75" t="s">
         <v>9</v>
@@ -48380,10 +48386,10 @@
         <v>Key.Cir.451</v>
       </c>
       <c r="X451" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y451" s="77" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="452" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -48397,13 +48403,13 @@
         <v>1919</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F452" s="25" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="G452" s="84" t="s">
         <v>9</v>
@@ -48437,10 +48443,10 @@
         <v>Escada Caracol</v>
       </c>
       <c r="P452" s="21" t="s">
+        <v>2145</v>
+      </c>
+      <c r="Q452" s="21" t="s">
         <v>2147</v>
-      </c>
-      <c r="Q452" s="21" t="s">
-        <v>2149</v>
       </c>
       <c r="R452" s="75" t="s">
         <v>9</v>
@@ -48465,10 +48471,10 @@
         <v>Key.Cir.452</v>
       </c>
       <c r="X452" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y452" s="77" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="453" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -48482,13 +48488,13 @@
         <v>1919</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F453" s="25" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="G453" s="84" t="s">
         <v>9</v>
@@ -48522,10 +48528,10 @@
         <v>Escada T</v>
       </c>
       <c r="P453" s="21" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="Q453" s="21" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="R453" s="75" t="s">
         <v>9</v>
@@ -48550,10 +48556,10 @@
         <v>Key.Cir.453</v>
       </c>
       <c r="X453" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y453" s="77" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="454" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -48567,13 +48573,13 @@
         <v>1919</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F454" s="25" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="G454" s="84" t="s">
         <v>9</v>
@@ -48607,10 +48613,10 @@
         <v>Escada U</v>
       </c>
       <c r="P454" s="21" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="Q454" s="21" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="R454" s="75" t="s">
         <v>9</v>
@@ -48635,10 +48641,10 @@
         <v>Key.Cir.454</v>
       </c>
       <c r="X454" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y454" s="77" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="455" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -48652,13 +48658,13 @@
         <v>1919</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F455" s="25" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="G455" s="84" t="s">
         <v>9</v>
@@ -48692,10 +48698,10 @@
         <v>Escada U Compensada</v>
       </c>
       <c r="P455" s="21" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="Q455" s="21" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="R455" s="75" t="s">
         <v>9</v>
@@ -48720,10 +48726,10 @@
         <v>Key.Cir.455</v>
       </c>
       <c r="X455" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y455" s="77" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="456" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -48737,13 +48743,13 @@
         <v>1919</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F456" s="25" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="G456" s="84" t="s">
         <v>9</v>
@@ -48777,10 +48783,10 @@
         <v>Escada L</v>
       </c>
       <c r="P456" s="21" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="Q456" s="21" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="R456" s="75" t="s">
         <v>9</v>
@@ -48805,10 +48811,10 @@
         <v>Key.Cir.456</v>
       </c>
       <c r="X456" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y456" s="77" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="457" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -48822,13 +48828,13 @@
         <v>1919</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F457" s="25" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="G457" s="84" t="s">
         <v>9</v>
@@ -48862,10 +48868,10 @@
         <v>Escada L Compensada</v>
       </c>
       <c r="P457" s="21" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="Q457" s="21" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="R457" s="75" t="s">
         <v>9</v>
@@ -48890,10 +48896,10 @@
         <v>Key.Cir.457</v>
       </c>
       <c r="X457" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y457" s="77" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="458" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -48907,13 +48913,13 @@
         <v>1919</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F458" s="25" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="G458" s="84" t="s">
         <v>9</v>
@@ -48947,10 +48953,10 @@
         <v>Escada 3 Lances</v>
       </c>
       <c r="P458" s="21" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="Q458" s="21" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="R458" s="75" t="s">
         <v>9</v>
@@ -48975,10 +48981,10 @@
         <v>Key.Cir.458</v>
       </c>
       <c r="X458" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y458" s="77" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="459" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -48992,13 +48998,13 @@
         <v>1919</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F459" s="25" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="G459" s="84" t="s">
         <v>9</v>
@@ -49032,10 +49038,10 @@
         <v>Escada 3 Lances Compensada</v>
       </c>
       <c r="P459" s="21" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="Q459" s="21" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="R459" s="75" t="s">
         <v>9</v>
@@ -49060,10 +49066,10 @@
         <v>Key.Cir.459</v>
       </c>
       <c r="X459" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y459" s="77" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="460" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -49077,13 +49083,13 @@
         <v>1919</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F460" s="25" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="G460" s="84" t="s">
         <v>9</v>
@@ -49117,10 +49123,10 @@
         <v>Escada 4 Lances</v>
       </c>
       <c r="P460" s="21" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="Q460" s="21" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="R460" s="75" t="s">
         <v>9</v>
@@ -49145,10 +49151,10 @@
         <v>Key.Cir.460</v>
       </c>
       <c r="X460" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y460" s="77" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="461" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -49162,13 +49168,13 @@
         <v>1919</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F461" s="25" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="G461" s="84" t="s">
         <v>9</v>
@@ -49202,10 +49208,10 @@
         <v>Escada 4 Lances Compensada</v>
       </c>
       <c r="P461" s="21" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="Q461" s="21" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="R461" s="75" t="s">
         <v>9</v>
@@ -49230,10 +49236,10 @@
         <v>Key.Cir.461</v>
       </c>
       <c r="X461" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y461" s="77" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="462" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -49247,13 +49253,13 @@
         <v>1919</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F462" s="25" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="G462" s="84" t="s">
         <v>9</v>
@@ -49287,10 +49293,10 @@
         <v>Escada Reta</v>
       </c>
       <c r="P462" s="21" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="Q462" s="21" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="R462" s="75" t="s">
         <v>9</v>
@@ -49315,10 +49321,10 @@
         <v>Key.Cir.462</v>
       </c>
       <c r="X462" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y462" s="77" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="463" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -49332,13 +49338,13 @@
         <v>1919</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F463" s="25" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="G463" s="84" t="s">
         <v>9</v>
@@ -49372,10 +49378,10 @@
         <v>Escada Reta Dois Lances</v>
       </c>
       <c r="P463" s="21" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="Q463" s="21" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="R463" s="75" t="s">
         <v>9</v>
@@ -49400,10 +49406,10 @@
         <v>Key.Cir.463</v>
       </c>
       <c r="X463" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y463" s="77" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="464" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -49417,13 +49423,13 @@
         <v>1919</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F464" s="25" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="G464" s="84" t="s">
         <v>9</v>
@@ -49457,10 +49463,10 @@
         <v>Escada Curva</v>
       </c>
       <c r="P464" s="21" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="Q464" s="21" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="R464" s="75" t="s">
         <v>9</v>
@@ -49485,10 +49491,10 @@
         <v>Key.Cir.464</v>
       </c>
       <c r="X464" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y464" s="77" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="465" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -49502,13 +49508,13 @@
         <v>1919</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F465" s="25" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="G465" s="84" t="s">
         <v>9</v>
@@ -49542,10 +49548,10 @@
         <v>Escada Curva 2 Lances</v>
       </c>
       <c r="P465" s="21" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="Q465" s="21" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="R465" s="75" t="s">
         <v>9</v>
@@ -49570,10 +49576,10 @@
         <v>Key.Cir.465</v>
       </c>
       <c r="X465" s="47" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="Y465" s="77" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="466" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -49587,13 +49593,13 @@
         <v>1919</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E466" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F466" s="2" t="s">
         <v>2085</v>
-      </c>
-      <c r="F466" s="2" t="s">
-        <v>2087</v>
       </c>
       <c r="G466" s="84" t="s">
         <v>9</v>
@@ -49627,10 +49633,10 @@
         <v>Escada Multiplos Andares</v>
       </c>
       <c r="P466" s="21" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="Q466" s="21" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="R466" s="75" t="s">
         <v>9</v>
@@ -49655,7 +49661,7 @@
         <v>Key.Cir.466</v>
       </c>
       <c r="X466" s="47" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="Y466" s="47" t="s">
         <v>9</v>
@@ -49672,13 +49678,13 @@
         <v>1919</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F467" s="42" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="G467" s="84" t="s">
         <v>9</v>
@@ -49712,10 +49718,10 @@
         <v>Escada Interrupção</v>
       </c>
       <c r="P467" s="21" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="Q467" s="21" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="R467" s="75" t="s">
         <v>9</v>
@@ -49740,7 +49746,7 @@
         <v>Key.Cir.467</v>
       </c>
       <c r="X467" s="78" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="Y467" s="47" t="s">
         <v>9</v>
@@ -49757,13 +49763,13 @@
         <v>1919</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F468" s="42" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="G468" s="84" t="s">
         <v>9</v>
@@ -49797,10 +49803,10 @@
         <v>Escada Interrupção Projeção</v>
       </c>
       <c r="P468" s="21" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="Q468" s="21" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="R468" s="75" t="s">
         <v>9</v>
@@ -49825,7 +49831,7 @@
         <v>Key.Cir.468</v>
       </c>
       <c r="X468" s="78" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="Y468" s="47" t="s">
         <v>9</v>
@@ -49842,13 +49848,13 @@
         <v>1919</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F469" s="42" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="G469" s="84" t="s">
         <v>9</v>
@@ -49882,10 +49888,10 @@
         <v>Escada Patamar</v>
       </c>
       <c r="P469" s="21" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="Q469" s="21" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="R469" s="75" t="s">
         <v>9</v>
@@ -49910,7 +49916,7 @@
         <v>Key.Cir.469</v>
       </c>
       <c r="X469" s="78" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="Y469" s="47" t="s">
         <v>9</v>
@@ -49927,13 +49933,13 @@
         <v>1919</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F470" s="42" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="G470" s="84" t="s">
         <v>9</v>
@@ -49967,10 +49973,10 @@
         <v>Escada Naris</v>
       </c>
       <c r="P470" s="21" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="Q470" s="21" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="R470" s="75" t="s">
         <v>9</v>
@@ -49995,7 +50001,7 @@
         <v>Key.Cir.470</v>
       </c>
       <c r="X470" s="78" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="Y470" s="47" t="s">
         <v>9</v>
@@ -50012,13 +50018,13 @@
         <v>1919</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F471" s="42" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="G471" s="84" t="s">
         <v>9</v>
@@ -50052,10 +50058,10 @@
         <v>Escada Naris Projeção</v>
       </c>
       <c r="P471" s="21" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="Q471" s="21" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="R471" s="75" t="s">
         <v>9</v>
@@ -50080,7 +50086,7 @@
         <v>Key.Cir.471</v>
       </c>
       <c r="X471" s="78" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="Y471" s="47" t="s">
         <v>9</v>
@@ -50097,13 +50103,13 @@
         <v>1919</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F472" s="42" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="G472" s="84" t="s">
         <v>9</v>
@@ -50137,10 +50143,10 @@
         <v>Escada Contorno</v>
       </c>
       <c r="P472" s="21" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="Q472" s="21" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="R472" s="75" t="s">
         <v>9</v>
@@ -50165,7 +50171,7 @@
         <v>Key.Cir.472</v>
       </c>
       <c r="X472" s="78" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="Y472" s="47" t="s">
         <v>9</v>
@@ -50182,13 +50188,13 @@
         <v>1919</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F473" s="42" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="G473" s="84" t="s">
         <v>9</v>
@@ -50222,10 +50228,10 @@
         <v>Escada Contorno Projeção</v>
       </c>
       <c r="P473" s="21" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="Q473" s="21" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="R473" s="75" t="s">
         <v>9</v>
@@ -50250,7 +50256,7 @@
         <v>Key.Cir.473</v>
       </c>
       <c r="X473" s="78" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="Y473" s="47" t="s">
         <v>9</v>
@@ -50267,13 +50273,13 @@
         <v>1919</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F474" s="42" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="G474" s="84" t="s">
         <v>9</v>
@@ -50307,10 +50313,10 @@
         <v>Escada Seta</v>
       </c>
       <c r="P474" s="21" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="Q474" s="21" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="R474" s="75" t="s">
         <v>9</v>
@@ -50335,7 +50341,7 @@
         <v>Key.Cir.474</v>
       </c>
       <c r="X474" s="78" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="Y474" s="47" t="s">
         <v>9</v>
@@ -50352,13 +50358,13 @@
         <v>1919</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F475" s="42" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="G475" s="84" t="s">
         <v>9</v>
@@ -50392,10 +50398,10 @@
         <v>Escada Seta Projeção</v>
       </c>
       <c r="P475" s="21" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="Q475" s="21" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="R475" s="75" t="s">
         <v>9</v>
@@ -50420,7 +50426,7 @@
         <v>Key.Cir.475</v>
       </c>
       <c r="X475" s="78" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="Y475" s="47" t="s">
         <v>9</v>
@@ -50437,13 +50443,13 @@
         <v>1919</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F476" s="42" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="G476" s="84" t="s">
         <v>9</v>
@@ -50477,10 +50483,10 @@
         <v>Escada Degrau Linha</v>
       </c>
       <c r="P476" s="21" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="Q476" s="21" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="R476" s="75" t="s">
         <v>9</v>
@@ -50505,7 +50511,7 @@
         <v>Key.Cir.476</v>
       </c>
       <c r="X476" s="78" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="Y476" s="47" t="s">
         <v>9</v>
@@ -50522,13 +50528,13 @@
         <v>1919</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F477" s="42" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="G477" s="84" t="s">
         <v>9</v>
@@ -50562,10 +50568,10 @@
         <v>Escada Degrau Linha Projeção</v>
       </c>
       <c r="P477" s="21" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="Q477" s="21" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="R477" s="75" t="s">
         <v>9</v>
@@ -50590,7 +50596,7 @@
         <v>Key.Cir.477</v>
       </c>
       <c r="X477" s="78" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="Y477" s="47" t="s">
         <v>9</v>
@@ -50607,13 +50613,13 @@
         <v>1919</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F478" s="42" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="G478" s="84" t="s">
         <v>9</v>
@@ -50647,10 +50653,10 @@
         <v>Escada Lance</v>
       </c>
       <c r="P478" s="21" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="Q478" s="21" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="R478" s="75" t="s">
         <v>9</v>
@@ -50675,7 +50681,7 @@
         <v>Key.Cir.478</v>
       </c>
       <c r="X478" s="78" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="Y478" s="47" t="s">
         <v>9</v>
@@ -50692,13 +50698,13 @@
         <v>1919</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F479" s="42" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G479" s="84" t="s">
         <v>9</v>
@@ -50732,10 +50738,10 @@
         <v>Escada Esboço Limite</v>
       </c>
       <c r="P479" s="21" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="Q479" s="21" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="R479" s="75" t="s">
         <v>9</v>
@@ -50760,7 +50766,7 @@
         <v>Key.Cir.479</v>
       </c>
       <c r="X479" s="78" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="Y479" s="47" t="s">
         <v>9</v>
@@ -50777,13 +50783,13 @@
         <v>1919</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F480" s="42" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="G480" s="84" t="s">
         <v>9</v>
@@ -50817,10 +50823,10 @@
         <v>Escada Esboço Patamar</v>
       </c>
       <c r="P480" s="21" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="Q480" s="21" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="R480" s="75" t="s">
         <v>9</v>
@@ -50845,7 +50851,7 @@
         <v>Key.Cir.480</v>
       </c>
       <c r="X480" s="78" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="Y480" s="47" t="s">
         <v>9</v>
@@ -50862,13 +50868,13 @@
         <v>1919</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F481" s="42" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="G481" s="84" t="s">
         <v>9</v>
@@ -50902,10 +50908,10 @@
         <v>Escada Esboço Caminho</v>
       </c>
       <c r="P481" s="21" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="Q481" s="21" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="R481" s="75" t="s">
         <v>9</v>
@@ -50930,7 +50936,7 @@
         <v>Key.Cir.481</v>
       </c>
       <c r="X481" s="78" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="Y481" s="47" t="s">
         <v>9</v>
@@ -50947,13 +50953,13 @@
         <v>1919</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F482" s="42" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="G482" s="84" t="s">
         <v>9</v>
@@ -50987,10 +50993,10 @@
         <v>Escada Esboço Degraus</v>
       </c>
       <c r="P482" s="21" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="Q482" s="21" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="R482" s="75" t="s">
         <v>9</v>
@@ -51015,7 +51021,7 @@
         <v>Key.Cir.482</v>
       </c>
       <c r="X482" s="78" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="Y482" s="47" t="s">
         <v>9</v>
@@ -51032,13 +51038,13 @@
         <v>1919</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F483" s="42" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="G483" s="84" t="s">
         <v>9</v>
@@ -51072,10 +51078,10 @@
         <v>Escada Esboço Lances</v>
       </c>
       <c r="P483" s="21" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="Q483" s="21" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="R483" s="75" t="s">
         <v>9</v>
@@ -51100,7 +51106,7 @@
         <v>Key.Cir.483</v>
       </c>
       <c r="X483" s="78" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="Y483" s="47" t="s">
         <v>9</v>
@@ -51117,13 +51123,13 @@
         <v>1919</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F484" s="42" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="G484" s="84" t="s">
         <v>9</v>
@@ -51157,10 +51163,10 @@
         <v>Escada Suporte</v>
       </c>
       <c r="P484" s="21" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="Q484" s="21" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="R484" s="75" t="s">
         <v>9</v>
@@ -51185,7 +51191,7 @@
         <v>Key.Cir.484</v>
       </c>
       <c r="X484" s="78" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="Y484" s="47" t="s">
         <v>9</v>
@@ -51202,13 +51208,13 @@
         <v>1919</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F485" s="42" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="G485" s="84" t="s">
         <v>9</v>
@@ -51242,10 +51248,10 @@
         <v>Escada Suporte Lateral</v>
       </c>
       <c r="P485" s="21" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="Q485" s="21" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="R485" s="75" t="s">
         <v>9</v>
@@ -51270,7 +51276,7 @@
         <v>Key.Cir.485</v>
       </c>
       <c r="X485" s="78" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="Y485" s="47" t="s">
         <v>9</v>
@@ -51287,13 +51293,13 @@
         <v>1919</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F486" s="42" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="G486" s="84" t="s">
         <v>9</v>
@@ -51327,10 +51333,10 @@
         <v>Escada Suporte Projeção</v>
       </c>
       <c r="P486" s="21" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="Q486" s="21" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="R486" s="75" t="s">
         <v>9</v>
@@ -51355,7 +51361,7 @@
         <v>Key.Cir.486</v>
       </c>
       <c r="X486" s="78" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="Y486" s="47" t="s">
         <v>9</v>
@@ -51372,13 +51378,13 @@
         <v>1919</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F487" s="42" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="G487" s="84" t="s">
         <v>9</v>
@@ -51412,10 +51418,10 @@
         <v>Escada Degraus</v>
       </c>
       <c r="P487" s="21" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="Q487" s="21" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="R487" s="75" t="s">
         <v>9</v>
@@ -51440,7 +51446,7 @@
         <v>Key.Cir.487</v>
       </c>
       <c r="X487" s="78" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="Y487" s="47" t="s">
         <v>9</v>
@@ -51457,13 +51463,13 @@
         <v>1919</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F488" s="42" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="G488" s="84" t="s">
         <v>9</v>
@@ -51497,10 +51503,10 @@
         <v>Escada Degraus Numeração</v>
       </c>
       <c r="P488" s="21" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="Q488" s="21" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="R488" s="75" t="s">
         <v>9</v>
@@ -51525,7 +51531,7 @@
         <v>Key.Cir.488</v>
       </c>
       <c r="X488" s="78" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="Y488" s="47" t="s">
         <v>9</v>
@@ -51542,13 +51548,13 @@
         <v>1919</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F489" s="42" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="G489" s="84" t="s">
         <v>9</v>
@@ -51582,10 +51588,10 @@
         <v>Escada Seta Sobe</v>
       </c>
       <c r="P489" s="21" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="Q489" s="21" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="R489" s="75" t="s">
         <v>9</v>
@@ -51610,7 +51616,7 @@
         <v>Key.Cir.489</v>
       </c>
       <c r="X489" s="78" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="Y489" s="47" t="s">
         <v>9</v>
@@ -51627,13 +51633,13 @@
         <v>1919</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F490" s="42" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="G490" s="84" t="s">
         <v>9</v>
@@ -51667,10 +51673,10 @@
         <v>Escada Texto Sobe</v>
       </c>
       <c r="P490" s="21" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="Q490" s="21" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="R490" s="75" t="s">
         <v>9</v>
@@ -51695,7 +51701,7 @@
         <v>Key.Cir.490</v>
       </c>
       <c r="X490" s="78" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="Y490" s="47" t="s">
         <v>9</v>
@@ -51712,13 +51718,13 @@
         <v>1919</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F491" s="42" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="G491" s="84" t="s">
         <v>9</v>
@@ -51752,10 +51758,10 @@
         <v>Escada Seta Desce</v>
       </c>
       <c r="P491" s="21" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="Q491" s="21" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="R491" s="75" t="s">
         <v>9</v>
@@ -51780,7 +51786,7 @@
         <v>Key.Cir.491</v>
       </c>
       <c r="X491" s="78" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="Y491" s="47" t="s">
         <v>9</v>
@@ -51797,13 +51803,13 @@
         <v>1919</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F492" s="42" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="G492" s="84" t="s">
         <v>9</v>
@@ -51837,10 +51843,10 @@
         <v>Escada Texto Desce</v>
       </c>
       <c r="P492" s="21" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="Q492" s="21" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="R492" s="75" t="s">
         <v>9</v>
@@ -51865,7 +51871,7 @@
         <v>Key.Cir.492</v>
       </c>
       <c r="X492" s="78" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="Y492" s="47" t="s">
         <v>9</v>
@@ -51895,147 +51901,147 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P74">
-    <cfRule type="duplicateValues" dxfId="205" priority="3941"/>
-    <cfRule type="duplicateValues" dxfId="204" priority="3942"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="3943"/>
-    <cfRule type="duplicateValues" dxfId="202" priority="3944"/>
-    <cfRule type="duplicateValues" dxfId="201" priority="3945"/>
-    <cfRule type="duplicateValues" dxfId="200" priority="3946"/>
-    <cfRule type="duplicateValues" dxfId="199" priority="3947"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="3944"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="3943"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="3941"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="3942"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="3950"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="3951"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="3949"/>
     <cfRule type="duplicateValues" dxfId="198" priority="3948"/>
-    <cfRule type="duplicateValues" dxfId="197" priority="3949"/>
-    <cfRule type="duplicateValues" dxfId="196" priority="3950"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="3951"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="3947"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="3946"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="3945"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P75">
-    <cfRule type="duplicateValues" dxfId="194" priority="606"/>
-    <cfRule type="duplicateValues" dxfId="193" priority="607"/>
-    <cfRule type="duplicateValues" dxfId="192" priority="608"/>
-    <cfRule type="duplicateValues" dxfId="191" priority="609"/>
-    <cfRule type="duplicateValues" dxfId="190" priority="610"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="611"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="611"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="609"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="616"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="615"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="614"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="613"/>
     <cfRule type="duplicateValues" dxfId="188" priority="612"/>
-    <cfRule type="duplicateValues" dxfId="187" priority="613"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="614"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="615"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="616"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="610"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="606"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="607"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="608"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P80 P76:P78">
-    <cfRule type="duplicateValues" dxfId="183" priority="640"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="641"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="642"/>
-    <cfRule type="duplicateValues" dxfId="180" priority="643"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="649"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="648"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="647"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="646"/>
     <cfRule type="duplicateValues" dxfId="179" priority="644"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="645"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="646"/>
-    <cfRule type="duplicateValues" dxfId="176" priority="647"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="648"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="649"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="643"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="642"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="641"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="640"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="645"/>
     <cfRule type="duplicateValues" dxfId="173" priority="650"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P84:P88">
-    <cfRule type="duplicateValues" dxfId="172" priority="721"/>
-    <cfRule type="duplicateValues" dxfId="171" priority="722"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="723"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="724"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="725"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="726"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="727"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="728"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="729"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="730"/>
-    <cfRule type="duplicateValues" dxfId="162" priority="731"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="724"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="728"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="722"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="730"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="731"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="729"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="725"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="723"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="726"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="727"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="721"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P89:P90">
-    <cfRule type="duplicateValues" dxfId="161" priority="1036"/>
-    <cfRule type="duplicateValues" dxfId="160" priority="1037"/>
-    <cfRule type="duplicateValues" dxfId="159" priority="1038"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="1042"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="1041"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="1040"/>
     <cfRule type="duplicateValues" dxfId="158" priority="1039"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="1040"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="1041"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="1042"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="1043"/>
-    <cfRule type="duplicateValues" dxfId="153" priority="1044"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="1045"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="1046"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="1038"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="1036"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="1044"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="1045"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="1046"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="1037"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="1043"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P91:P92">
-    <cfRule type="duplicateValues" dxfId="150" priority="1014"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="1015"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="1016"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="1016"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="1019"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="1015"/>
     <cfRule type="duplicateValues" dxfId="147" priority="1017"/>
     <cfRule type="duplicateValues" dxfId="146" priority="1018"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="1019"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="1020"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="1020"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="1014"/>
     <cfRule type="duplicateValues" dxfId="143" priority="1021"/>
     <cfRule type="duplicateValues" dxfId="142" priority="1022"/>
     <cfRule type="duplicateValues" dxfId="141" priority="1023"/>
     <cfRule type="duplicateValues" dxfId="140" priority="1024"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P93:P95">
-    <cfRule type="duplicateValues" dxfId="139" priority="1025"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="1026"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="1027"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="1028"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="1029"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="1030"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="1031"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="1032"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="1033"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="1034"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="1035"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="1028"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="1027"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="1026"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="1025"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="1030"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="1035"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="1034"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="1033"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="1032"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="1031"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="1029"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P96">
-    <cfRule type="duplicateValues" dxfId="128" priority="1002"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="1003"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="1004"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="1005"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="1006"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="1007"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="1008"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="1009"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="1010"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="1011"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="1012"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="1010"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="1011"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="1012"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="1003"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="1009"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="1008"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="1007"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="1006"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="1005"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="1004"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="1002"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P97:P100">
-    <cfRule type="duplicateValues" dxfId="117" priority="1047"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="1048"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="1049"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="1050"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="1051"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="1052"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="1053"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="1054"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="1055"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="1055"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="1053"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="1052"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="1051"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="1050"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="1049"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="1048"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="1047"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="1054"/>
     <cfRule type="duplicateValues" dxfId="108" priority="1056"/>
     <cfRule type="duplicateValues" dxfId="107" priority="1057"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P203:P206">
-    <cfRule type="duplicateValues" dxfId="106" priority="489"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="490"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="491"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="492"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="493"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="494"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="495"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="496"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="497"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="498"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="499"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="495"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="498"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="497"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="496"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="494"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="493"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="492"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="491"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="499"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="489"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P207:Q210 Q203:Q206">
-    <cfRule type="duplicateValues" dxfId="95" priority="500"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="501"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="502"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="503"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="504"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="505"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="506"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="507"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="508"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="509"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="510"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="506"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="507"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="508"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="504"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="510"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="501"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="509"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="505"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="502"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="503"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P420:Q421 Z420:XFD421">
     <cfRule type="cellIs" dxfId="84" priority="290" operator="equal">
@@ -52043,99 +52049,99 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q14">
-    <cfRule type="duplicateValues" dxfId="83" priority="4277"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="4278"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="4279"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="4280"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="4281"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="4282"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="4283"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="4284"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="4285"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="4286"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="4287"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="4287"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="4277"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="4278"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="4279"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="4280"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="4281"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="4282"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="4283"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="4284"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="4285"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="4286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q42">
     <cfRule type="duplicateValues" dxfId="72" priority="1093"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="1094"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="1095"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="1096"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="1097"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="1098"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="1099"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="1100"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="1101"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="1102"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="1103"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="1101"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="1100"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="1103"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="1102"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="1099"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="1098"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1097"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="1096"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="1095"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="1094"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44:Q48">
-    <cfRule type="duplicateValues" dxfId="61" priority="789"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="790"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="791"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="792"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="793"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="794"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="795"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="796"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="797"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="798"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="799"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="790"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="791"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="792"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="794"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="795"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="796"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="797"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="793"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="798"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="799"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="789"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q80">
-    <cfRule type="duplicateValues" dxfId="50" priority="629"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="630"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="631"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="632"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="633"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="634"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="635"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="636"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="637"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="630"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="636"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="635"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="633"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="632"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="631"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="629"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="634"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="639"/>
     <cfRule type="duplicateValues" dxfId="41" priority="638"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="639"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="637"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X422:X424">
-    <cfRule type="duplicateValues" dxfId="39" priority="254"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="255"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="256"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="257"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="258"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="258"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y199:Y202">
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y281:Y287">
-    <cfRule type="duplicateValues" dxfId="33" priority="148"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="150"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y288:Y300">
-    <cfRule type="duplicateValues" dxfId="28" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y301:Y319">
-    <cfRule type="duplicateValues" dxfId="20" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y199:Y202">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="136"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
